--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -9,12 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="25040" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="3540" yWindow="700" windowWidth="25000" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="tmp1_" localSheetId="1">Sheet3!$A$1:$F$17</definedName>
+    <definedName name="tmp1_1" localSheetId="2">Sheet4!$A$1:$I$16</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -27,8 +32,72 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="tmp1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/yerong/Documents/William/PV0c/tmp1.txt" space="1" consecutive="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="tmp11" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/yerong/Documents/William/PV0c/tmp1.txt" space="1" consecutive="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
   <si>
     <t>a</t>
   </si>
@@ -64,19 +133,187 @@
   </si>
   <si>
     <t>z09</t>
+  </si>
+  <si>
+    <t>C(A)</t>
+  </si>
+  <si>
+    <t>./a/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./b/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./c/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z01/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z02/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z03/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z04/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z05/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z06/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z07/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z08/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z09/thermal.txt:</t>
+  </si>
+  <si>
+    <t>F(eV/atm)</t>
+  </si>
+  <si>
+    <t>E0=</t>
+  </si>
+  <si>
+    <t>./a/OSZICAR:</t>
+  </si>
+  <si>
+    <t>F=</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>./b/OSZICAR:</t>
+  </si>
+  <si>
+    <t>./c/OSZICAR:</t>
+  </si>
+  <si>
+    <t>./z01/OSZICAR:</t>
+  </si>
+  <si>
+    <t>./z02/OSZICAR:</t>
+  </si>
+  <si>
+    <t>./z03/OSZICAR:</t>
+  </si>
+  <si>
+    <t>./z04/OSZICAR:</t>
+  </si>
+  <si>
+    <t>./z05/OSZICAR:</t>
+  </si>
+  <si>
+    <t>./z06/OSZICAR:</t>
+  </si>
+  <si>
+    <t>./z07/OSZICAR:</t>
+  </si>
+  <si>
+    <t>./z08/OSZICAR:</t>
+  </si>
+  <si>
+    <t>./z09/OSZICAR:</t>
+  </si>
+  <si>
+    <t>E0(eV/atm)</t>
+  </si>
+  <si>
+    <t>F from php(eV/atm)</t>
+  </si>
+  <si>
+    <t>z10</t>
+  </si>
+  <si>
+    <t>z11</t>
+  </si>
+  <si>
+    <t>z12</t>
+  </si>
+  <si>
+    <t>z13</t>
+  </si>
+  <si>
+    <t>z14</t>
+  </si>
+  <si>
+    <t>z15</t>
+  </si>
+  <si>
+    <t>./z10/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z11/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z12/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z13/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z14/thermal.txt:</t>
+  </si>
+  <si>
+    <t>./z10/OSZICAR:</t>
+  </si>
+  <si>
+    <t>./z11/OSZICAR:</t>
+  </si>
+  <si>
+    <t>./z12/OSZICAR:</t>
+  </si>
+  <si>
+    <t>./z13/OSZICAR:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,13 +333,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -113,6 +356,14 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp1_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,109 +628,858 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>7.7346036590000002</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-9.2997407499999998</v>
+      </c>
+      <c r="D2" s="2">
+        <f t="shared" ref="D2:D17" si="0">C2+E2</f>
+        <v>-9.2794518330283502</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2.0288916971649307E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>7.3983165440000001</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-9.3032710000000005</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" si="0"/>
+        <v>-9.282846749842502</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.0424250157498845E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>7.06202942799999</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-9.3052980000000005</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>-9.2846763367957887</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.06216632042114E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6.7257423124402598</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-9.3044357499999997</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>-9.283730722589814</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.0705027410186247E-2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f>6.72574231244026*G5</f>
+        <v>6.7257423124402598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6.3894551970000002</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-9.2980064999999996</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>-9.277208722896825</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2.0797777103175537E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.95</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H17" si="1">6.72574231244026*G6</f>
+        <v>6.3894551968182469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6.0531680809999902</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-9.2813119999999998</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>-9.2604492425613554</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.0862757438643801E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.9</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>6.0531680811962341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5.71688096599999</v>
+      </c>
+      <c r="C8" s="2">
+        <v>-9.2469977500000002</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>-9.2260654215622697</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2.0932328437730529E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.85</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>5.7168809655742203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5.3805938500000003</v>
+      </c>
+      <c r="C9" s="2">
+        <v>-9.1842557500000002</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>-9.1631877055808868</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.106804441911404E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.8</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>5.3805938499522084</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5.0443067340000001</v>
+      </c>
+      <c r="C10" s="2">
+        <v>-9.0765572500000005</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>-9.0554244650027833</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2.1132784997217064E-2</v>
+      </c>
+      <c r="G10">
+        <v>0.75</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>5.0443067343301946</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4.7080196189999901</v>
+      </c>
+      <c r="C11" s="2">
+        <v>-8.8967617499999996</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>-8.8755841879988751</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.117756200112491E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.7</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>4.7080196187081818</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4.3717325029999898</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-8.6109720000000003</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>-8.5902008496981033</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2.0771150301896284E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.65</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>4.3717325030861689</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4.0354453870000002</v>
+      </c>
+      <c r="C13" s="2">
+        <v>-8.1848039999999997</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>-8.1651702243692572</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1.9633775630742024E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.6</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>4.035445387464156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3.6991582710000102</v>
+      </c>
+      <c r="C14" s="2">
+        <v>-7.5612320000000004</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>-7.5430374896143144</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.8194510385685921E-2</v>
+      </c>
+      <c r="G14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>3.6991582718421432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3.3628711550000201</v>
+      </c>
+      <c r="C15" s="2">
+        <v>-6.6218254999999999</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>-6.6030531978474718</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1.8772302152527932E-2</v>
+      </c>
+      <c r="G15">
+        <v>0.5</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>3.3628711562201299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3.02658403900003</v>
+      </c>
+      <c r="C16" s="2">
+        <v>-5.380071</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>-5.3617019546092664</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.836904539073371E-2</v>
+      </c>
+      <c r="G16">
+        <v>0.45</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>3.026584040598117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2.69029692300004</v>
+      </c>
+      <c r="C17" s="2">
+        <v>-3.6548609999999999</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>-3.6399334362351334</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.4927563764866451E-2</v>
+      </c>
+      <c r="G17">
+        <v>0.39999999999999902</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>2.6902969249760975</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18">
+        <v>2.3540098070000499</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19">
+        <v>2.0177226910000599</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" customWidth="1"/>
+    <col min="8" max="10" width="11.1640625" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1">
-        <v>7.7346036590000002</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="C1">
+        <v>62.637726800000003</v>
+      </c>
+      <c r="D1">
+        <v>20.318036899999999</v>
+      </c>
+      <c r="E1">
+        <v>34.295532700000003</v>
+      </c>
+      <c r="F1">
+        <v>68.733137799999994</v>
+      </c>
+      <c r="G1">
+        <f>C1/32*1000*6242000000000000000/(6.022140857E+23)</f>
+        <v>2.0288916971649307E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B2">
-        <v>7.3983165440000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="C2">
+        <v>63.0555393</v>
+      </c>
+      <c r="D2">
+        <v>20.147649099999999</v>
+      </c>
+      <c r="E2">
+        <v>34.159258800000003</v>
+      </c>
+      <c r="F2">
+        <v>69.099834000000001</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G17" si="0">C2/32*1000*6242000000000000000/(6.022140857E+23)</f>
+        <v>2.0424250157498845E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>7.06202942799999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="C3">
+        <v>63.665010199999998</v>
+      </c>
+      <c r="D3">
+        <v>20.067572699999999</v>
+      </c>
+      <c r="E3">
+        <v>34.159996300000003</v>
+      </c>
+      <c r="F3">
+        <v>69.685282000000001</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>2.06216632042114E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B4">
-        <v>6.7257423124402598</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="C4">
+        <v>63.922379499999998</v>
+      </c>
+      <c r="D4">
+        <v>19.949367299999999</v>
+      </c>
+      <c r="E4">
+        <v>34.1340194</v>
+      </c>
+      <c r="F4">
+        <v>69.907189700000004</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>2.0705027410186247E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>6.3894551970000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="C5">
+        <v>64.208724500000002</v>
+      </c>
+      <c r="D5">
+        <v>19.948814899999999</v>
+      </c>
+      <c r="E5">
+        <v>34.090974099999997</v>
+      </c>
+      <c r="F5">
+        <v>70.193368899999996</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>2.0797777103175537E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B6">
-        <v>6.0531680809999902</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="C6">
+        <v>64.409337500000007</v>
+      </c>
+      <c r="D6">
+        <v>19.306410100000001</v>
+      </c>
+      <c r="E6">
+        <v>33.700521799999997</v>
+      </c>
+      <c r="F6">
+        <v>70.201260500000004</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>2.0862757438643801E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B7">
-        <v>5.71688096599999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="C7">
+        <v>64.6241232</v>
+      </c>
+      <c r="D7">
+        <v>18.829876299999999</v>
+      </c>
+      <c r="E7">
+        <v>33.469555399999997</v>
+      </c>
+      <c r="F7">
+        <v>70.2730861</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>2.0932328437730529E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B8">
-        <v>5.3805938500000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="C8">
+        <v>65.043117499999994</v>
+      </c>
+      <c r="D8">
+        <v>17.298649399999999</v>
+      </c>
+      <c r="E8">
+        <v>32.804603499999999</v>
+      </c>
+      <c r="F8">
+        <v>70.232712300000003</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>2.106804441911404E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B9">
-        <v>5.0443067340000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="C9">
+        <v>65.242990300000002</v>
+      </c>
+      <c r="D9">
+        <v>16.879845100000001</v>
+      </c>
+      <c r="E9">
+        <v>32.361156600000001</v>
+      </c>
+      <c r="F9">
+        <v>70.306943799999999</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>2.1132784997217064E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B10">
-        <v>4.7080196189999901</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="C10">
+        <v>65.3812298</v>
+      </c>
+      <c r="D10">
+        <v>16.2861388</v>
+      </c>
+      <c r="E10">
+        <v>32.055429400000001</v>
+      </c>
+      <c r="F10">
+        <v>70.267071400000006</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>2.117756200112491E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B11">
-        <v>4.3717325029999898</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="C11">
+        <v>64.126519900000005</v>
+      </c>
+      <c r="D11">
+        <v>16.871177299999999</v>
+      </c>
+      <c r="E11">
+        <v>32.936506999999999</v>
+      </c>
+      <c r="F11">
+        <v>69.187873100000004</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>2.0771150301896284E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B12">
-        <v>4.0354453870000002</v>
+        <v>300</v>
+      </c>
+      <c r="C12">
+        <v>60.615116899999997</v>
+      </c>
+      <c r="D12">
+        <v>22.051055000000002</v>
+      </c>
+      <c r="E12">
+        <v>36.159035199999998</v>
+      </c>
+      <c r="F12">
+        <v>67.230433399999995</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>1.9633775630742024E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <v>300</v>
+      </c>
+      <c r="C13">
+        <v>56.1716908</v>
+      </c>
+      <c r="D13">
+        <v>16.279684199999998</v>
+      </c>
+      <c r="E13">
+        <v>27.159392199999999</v>
+      </c>
+      <c r="F13">
+        <v>61.055596100000002</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>1.8194510385685921E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14">
+        <v>300</v>
+      </c>
+      <c r="C14">
+        <v>57.955500299999997</v>
+      </c>
+      <c r="D14">
+        <v>22.7278573</v>
+      </c>
+      <c r="E14">
+        <v>37.365905900000001</v>
+      </c>
+      <c r="F14">
+        <v>64.773857500000005</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>1.8772302152527932E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15">
+        <v>300</v>
+      </c>
+      <c r="C15">
+        <v>56.710530599999998</v>
+      </c>
+      <c r="D15">
+        <v>23.0610073</v>
+      </c>
+      <c r="E15">
+        <v>37.958364500000002</v>
+      </c>
+      <c r="F15">
+        <v>63.628832799999998</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>1.836904539073371E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16">
+        <v>300</v>
+      </c>
+      <c r="C16">
+        <v>46.085686199999998</v>
+      </c>
+      <c r="D16">
+        <v>17.152062799999999</v>
+      </c>
+      <c r="E16">
+        <v>25.383132799999998</v>
+      </c>
+      <c r="F16">
+        <v>51.231304999999999</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>1.4927563764866451E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17">
+        <v>300</v>
+      </c>
+      <c r="C17">
+        <v>42.331631600000001</v>
+      </c>
+      <c r="D17">
+        <v>8.8992871000000004</v>
+      </c>
+      <c r="E17">
+        <v>17.072829800000001</v>
+      </c>
+      <c r="F17">
+        <v>45.001417699999998</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>1.3711592081704442E-2</v>
       </c>
     </row>
   </sheetData>
@@ -487,14 +1487,572 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1">
+        <v>-37.198962999999999</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1">
+        <v>-37.198962999999999</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1">
+        <f>-37.199</f>
+        <v>-37.198999999999998</v>
+      </c>
+      <c r="J1" s="1">
+        <f>F1/4</f>
+        <v>-9.2997407499999998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-37.213084000000002</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-37.213084000000002</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2">
+        <f>-37.2131</f>
+        <v>-37.213099999999997</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" ref="J2:J16" si="0">F2/4</f>
+        <v>-9.3032710000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-37.221192000000002</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-37.221192000000002</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3">
+        <f>-37.2212</f>
+        <v>-37.221200000000003</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.3052980000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-37.217742999999999</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-37.217742999999999</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <f>-37.2177</f>
+        <v>-37.217700000000001</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.3044357499999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-37.192025999999998</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-37.192025999999998</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <f>-37.192</f>
+        <v>-37.192</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.2980064999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-37.125247999999999</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-37.125247999999999</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <f>-37.1252</f>
+        <v>-37.1252</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.2813119999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-36.987991000000001</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-36.987991000000001</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <f>-36.988</f>
+        <v>-36.988</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.2469977500000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-36.737023000000001</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-36.737023000000001</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8">
+        <f>-36.737</f>
+        <v>-36.737000000000002</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.1842557500000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-36.306229000000002</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-36.306229000000002</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9">
+        <f>-36.3062</f>
+        <v>-36.306199999999997</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.0765572500000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-35.587046999999998</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-35.587046999999998</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10">
+        <f>-35.587</f>
+        <v>-35.587000000000003</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.8967617499999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-34.443888000000001</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-34.443888000000001</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11">
+        <f>-34.4439</f>
+        <v>-34.443899999999999</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.6109720000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-32.739215999999999</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-32.739215999999999</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12">
+        <f>-32.7392</f>
+        <v>-32.739199999999997</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.1848039999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-30.244928000000002</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-30.244928000000002</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13">
+        <f>-30.2449</f>
+        <v>-30.244900000000001</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.5612320000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-26.487302</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-26.487302</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14">
+        <f>-26.4873</f>
+        <v>-26.487300000000001</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.6218254999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-21.520284</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-21.520284</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15">
+        <f>-21.5203</f>
+        <v>-21.520299999999999</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.380071</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-14.619444</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-14.619444</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16">
+        <f>-14.6194</f>
+        <v>-14.619400000000001</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.6548609999999999</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -160,12 +160,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -174,10 +174,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,12 +191,29 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -210,24 +227,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,52 +236,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,7 +250,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -309,24 +264,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,187 +334,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,21 +525,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -573,8 +551,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,182 +625,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1133,36 +1124,36 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>7.734603659</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>-9.29974075</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <f>C2+E2</f>
         <v>-9.27945183302835</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>0.0202889169716493</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>7.398316544</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>-9.303271</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <f>C3+E3</f>
         <v>-9.2828467498425</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>0.0204242501574988</v>
       </c>
     </row>
@@ -1170,17 +1161,17 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>7.06202942799999</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>-9.305298</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <f>C4+E4</f>
         <v>-9.28467633679579</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
         <v>0.0206216632042114</v>
       </c>
       <c r="G4">
@@ -1198,15 +1189,15 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>6.99477200493787</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <f>B5*2</f>
         <v>13.9895440098757</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
       <c r="I5">
         <v>1.04</v>
       </c>
@@ -1219,12 +1210,12 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>6.92751458181347</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
       <c r="I6">
         <v>1.03</v>
       </c>
@@ -1237,12 +1228,12 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>6.86025715868907</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
       <c r="I7">
         <v>1.02</v>
       </c>
@@ -1270,17 +1261,17 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>6.72574231244026</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>-9.30443575</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <f>C9+E9</f>
         <v>-9.28373072258981</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
         <v>0.0207050274101862</v>
       </c>
       <c r="G9">
@@ -1302,12 +1293,12 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>6.65848488931586</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
       <c r="I10">
         <v>0.99</v>
       </c>
@@ -1320,12 +1311,12 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="1">
         <v>6.59122746619145</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
       <c r="I11">
         <v>0.98</v>
       </c>
@@ -1338,12 +1329,12 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="1">
         <v>6.52397004306705</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
       <c r="I12">
         <v>0.97</v>
       </c>
@@ -1356,12 +1347,12 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="1">
         <v>6.45671261994265</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
       <c r="I13">
         <v>0.96</v>
       </c>
@@ -1374,17 +1365,17 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="1">
         <v>6.389455197</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>-9.2980065</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <f t="shared" ref="D14:D25" si="1">C14+E14</f>
         <v>-9.27720872289682</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="1">
         <v>0.0207977771031755</v>
       </c>
       <c r="G14">
@@ -1406,17 +1397,17 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="1">
         <v>6.05316808099999</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>-9.281312</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <f t="shared" si="1"/>
         <v>-9.26044924256136</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="1">
         <v>0.0208627574386438</v>
       </c>
       <c r="G15">
@@ -1431,17 +1422,17 @@
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="1">
         <v>5.71688096599999</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="1">
         <v>-9.24699775</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
         <f t="shared" si="1"/>
         <v>-9.22606542156227</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="1">
         <v>0.0209323284377305</v>
       </c>
       <c r="G16">
@@ -1456,17 +1447,17 @@
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="1">
         <v>5.38059385</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="1">
         <v>-9.18425575</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
         <f t="shared" si="1"/>
         <v>-9.16318770558089</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="1">
         <v>0.021068044419114</v>
       </c>
       <c r="G17">
@@ -1481,17 +1472,17 @@
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="1">
         <v>5.044306734</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="1">
         <v>-9.07655725</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
         <f t="shared" si="1"/>
         <v>-9.05542446500278</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="1">
         <v>0.0211327849972171</v>
       </c>
       <c r="G18">
@@ -1506,17 +1497,17 @@
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="1">
         <v>4.70801961899999</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="1">
         <v>-8.89676175</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="1">
         <f t="shared" si="1"/>
         <v>-8.87558418799888</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="1">
         <v>0.0211775620011249</v>
       </c>
       <c r="G19">
@@ -1531,17 +1522,17 @@
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="1">
         <v>4.37173250299999</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="1">
         <v>-8.610972</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="1">
         <f t="shared" si="1"/>
         <v>-8.5902008496981</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="1">
         <v>0.0207711503018963</v>
       </c>
       <c r="G20">
@@ -1556,17 +1547,17 @@
       <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="1">
         <v>4.035445387</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="1">
         <v>-8.184804</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="1">
         <f t="shared" si="1"/>
         <v>-8.16517022436926</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="1">
         <v>0.019633775630742</v>
       </c>
       <c r="G21">
@@ -1581,17 +1572,17 @@
       <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="1">
         <v>3.69915827100001</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="1">
         <v>-7.561232</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="1">
         <f t="shared" si="1"/>
         <v>-7.54303748961431</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="1">
         <v>0.0181945103856859</v>
       </c>
       <c r="G22">
@@ -1606,17 +1597,17 @@
       <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="1">
         <v>3.36287115500002</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="1">
         <v>-6.6218255</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="1">
         <f t="shared" si="1"/>
         <v>-6.60305319784747</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="1">
         <v>0.0187723021525279</v>
       </c>
       <c r="G23">
@@ -1631,17 +1622,17 @@
       <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="1">
         <v>3.02658403900003</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="1">
         <v>-5.380071</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="1">
         <f t="shared" si="1"/>
         <v>-5.36170195460927</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="1">
         <v>0.0183690453907337</v>
       </c>
       <c r="G24">
@@ -1656,17 +1647,17 @@
       <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="1">
         <v>2.69029692300004</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="1">
         <v>-3.654861</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="1">
         <f t="shared" si="1"/>
         <v>-3.63993343623513</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="1">
         <v>0.0149275637648665</v>
       </c>
       <c r="G25">
@@ -1706,725 +1697,562 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E2" sqref="E2:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="1"/>
-    <col min="4" max="4" width="13.75" style="1"/>
-    <col min="5" max="5" width="12.625" style="1"/>
-    <col min="6" max="7" width="9" style="1"/>
-    <col min="8" max="10" width="12.625" style="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="12.625"/>
+    <col min="4" max="4" width="13.75"/>
+    <col min="5" max="5" width="12.625"/>
+    <col min="8" max="10" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:5">
-      <c r="B1" s="1" t="s">
+    <row r="1" customFormat="1" spans="2:5">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:10">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="1" spans="1:10">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>7.62651333736756</v>
       </c>
-      <c r="C2" s="2">
-        <v>-9.29974075</v>
-      </c>
-      <c r="D2" s="2">
-        <f>C2+E2</f>
-        <v>-9.27945183302835</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.0202889169716493</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="I2">
         <v>1.15</v>
       </c>
-      <c r="J2" s="1">
-        <f>6.6317507281457*I2</f>
+      <c r="J2">
+        <f t="shared" ref="J2:J14" si="0">6.6317507281457*I2</f>
         <v>7.62651333736756</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:10">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="1" spans="1:10">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>7.29492580096027</v>
       </c>
-      <c r="C3" s="2">
-        <v>-9.303271</v>
-      </c>
-      <c r="D3" s="2">
-        <f>C3+E3</f>
-        <v>-9.2828467498425</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.0204242501574988</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="I3">
         <v>1.1</v>
       </c>
-      <c r="J3" s="1">
-        <f>6.6317507281457*I3</f>
+      <c r="J3">
+        <f t="shared" si="0"/>
         <v>7.29492580096027</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:10">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="1" spans="1:10">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>6.96333826455299</v>
       </c>
-      <c r="C4" s="2">
-        <v>-9.305298</v>
-      </c>
-      <c r="D4" s="2">
-        <f>C4+E4</f>
-        <v>-9.28467633679579</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.0206216632042114</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="G4">
         <v>0.95</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>1.05</v>
       </c>
-      <c r="J4" s="1">
-        <f>6.6317507281457*I4</f>
+      <c r="J4">
+        <f t="shared" si="0"/>
         <v>6.96333826455299</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:10">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="1" spans="1:10">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>6.89702075727153</v>
       </c>
-      <c r="C5" s="2">
-        <f>B5*2</f>
-        <v>13.7940415145431</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="I5">
         <v>1.04</v>
       </c>
-      <c r="J5" s="1">
-        <f>6.6317507281457*I5</f>
+      <c r="J5">
+        <f t="shared" si="0"/>
         <v>6.89702075727153</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:10">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="1" spans="1:10">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>6.83070324999007</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="I6">
         <v>1.03</v>
       </c>
-      <c r="J6" s="1">
-        <f>6.6317507281457*I6</f>
+      <c r="J6">
+        <f t="shared" si="0"/>
         <v>6.83070324999007</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:10">
-      <c r="A7" s="1" t="s">
+    <row r="7" customFormat="1" spans="1:10">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>6.76438574270861</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="I7">
         <v>1.02</v>
       </c>
-      <c r="J7" s="1">
-        <f>6.6317507281457*I7</f>
+      <c r="J7">
+        <f t="shared" si="0"/>
         <v>6.76438574270861</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:10">
-      <c r="A8" s="1" t="s">
+    <row r="8" customFormat="1" spans="1:10">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>6.69806823542716</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1">
+      <c r="I8">
         <v>1.01</v>
       </c>
-      <c r="J8" s="1">
-        <f>6.6317507281457*I8</f>
+      <c r="J8">
+        <f t="shared" si="0"/>
         <v>6.69806823542716</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:10">
-      <c r="A9" s="1" t="s">
+    <row r="9" customFormat="1" spans="1:10">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>6.6317507281457</v>
       </c>
-      <c r="C9" s="2">
-        <v>-9.30443575</v>
-      </c>
-      <c r="D9" s="2">
-        <f>C9+E9</f>
-        <v>-9.28373072258981</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.0207050274101862</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <f>6.72574231244026*G9</f>
         <v>6.72574231244026</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9" s="1">
-        <f>6.6317507281457*I9</f>
+      <c r="J9">
+        <f t="shared" si="0"/>
         <v>6.6317507281457</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:10">
-      <c r="A10" s="1" t="s">
+    <row r="10" customFormat="1" spans="1:10">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>6.56543322086424</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="I10">
         <v>0.99</v>
       </c>
-      <c r="J10" s="1">
-        <f>6.6317507281457*I10</f>
+      <c r="J10">
+        <f t="shared" si="0"/>
         <v>6.56543322086424</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:10">
-      <c r="A11" s="1" t="s">
+    <row r="11" customFormat="1" spans="1:10">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>6.49911571358279</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="I11">
         <v>0.98</v>
       </c>
-      <c r="J11" s="1">
-        <f>6.6317507281457*I11</f>
+      <c r="J11">
+        <f t="shared" si="0"/>
         <v>6.49911571358279</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:10">
-      <c r="A12" s="1" t="s">
+    <row r="12" customFormat="1" spans="1:10">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>6.43279820630133</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="I12">
         <v>0.97</v>
       </c>
-      <c r="J12" s="1">
-        <f>6.6317507281457*I12</f>
+      <c r="J12">
+        <f t="shared" si="0"/>
         <v>6.43279820630133</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:10">
-      <c r="A13" s="1" t="s">
+    <row r="13" customFormat="1" spans="1:10">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>6.36648069901987</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="I13">
         <v>0.96</v>
       </c>
-      <c r="J13" s="1">
-        <f>6.6317507281457*I13</f>
+      <c r="J13">
+        <f t="shared" si="0"/>
         <v>6.36648069901987</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:10">
-      <c r="A14" s="1" t="s">
+    <row r="14" customFormat="1" spans="1:10">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>6.30016319173841</v>
       </c>
-      <c r="C14" s="2">
-        <v>-9.2980065</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" ref="D14:D25" si="0">C14+E14</f>
-        <v>-9.27720872289682</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.0207977771031755</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="G14">
         <v>0.95</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14">
         <f t="shared" ref="H14:H25" si="1">6.72574231244026*G14</f>
         <v>6.38945519681825</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14">
         <v>0.95</v>
       </c>
-      <c r="J14" s="1">
-        <f>6.6317507281457*I14</f>
+      <c r="J14">
+        <f t="shared" si="0"/>
         <v>6.30016319173841</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:10">
-      <c r="A15" s="1" t="s">
+    <row r="15" customFormat="1" spans="1:10">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>5.96857565533113</v>
       </c>
-      <c r="C15" s="2">
-        <v>-9.281312</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>-9.26044924256136</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.0208627574386438</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="G15">
         <v>0.9</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15">
         <f t="shared" si="1"/>
         <v>6.05316808119623</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15">
         <v>0.9</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15">
         <f t="shared" ref="J15:J25" si="2">6.6317507281457*I15</f>
         <v>5.96857565533113</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:10">
-      <c r="A16" s="1" t="s">
+    <row r="16" customFormat="1" spans="1:10">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>5.63698811892385</v>
       </c>
-      <c r="C16" s="2">
-        <v>-9.24699775</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>-9.22606542156227</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.0209323284377305</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="G16">
         <v>0.85</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16">
         <f t="shared" si="1"/>
         <v>5.71688096557422</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16">
         <v>0.85</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16">
         <f t="shared" si="2"/>
         <v>5.63698811892385</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:10">
-      <c r="A17" s="1" t="s">
+    <row r="17" customFormat="1" spans="1:10">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>5.30540058251656</v>
       </c>
-      <c r="C17" s="2">
-        <v>-9.18425575</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>-9.16318770558089</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.021068044419114</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="G17">
         <v>0.8</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17">
         <f t="shared" si="1"/>
         <v>5.38059384995221</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
         <v>0.8</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17">
         <f t="shared" si="2"/>
         <v>5.30540058251656</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:10">
-      <c r="A18" s="1" t="s">
+    <row r="18" customFormat="1" spans="1:10">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>4.97381304610928</v>
       </c>
-      <c r="C18" s="2">
-        <v>-9.07655725</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>-9.05542446500278</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.0211327849972171</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="G18">
         <v>0.75</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18">
         <f t="shared" si="1"/>
         <v>5.04430673433019</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18">
         <v>0.75</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18">
         <f t="shared" si="2"/>
         <v>4.97381304610928</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:10">
-      <c r="A19" s="1" t="s">
+    <row r="19" customFormat="1" spans="1:10">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>4.64222550970199</v>
       </c>
-      <c r="C19" s="2">
-        <v>-8.89676175</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>-8.87558418799888</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.0211775620011249</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="G19">
         <v>0.7</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19">
         <f t="shared" si="1"/>
         <v>4.70801961870818</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19">
         <v>0.7</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19">
         <f t="shared" si="2"/>
         <v>4.64222550970199</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:10">
-      <c r="A20" s="1" t="s">
+    <row r="20" customFormat="1" spans="1:10">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>4.31063797329471</v>
       </c>
-      <c r="C20" s="2">
-        <v>-8.610972</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>-8.5902008496981</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.0207711503018963</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="G20">
         <v>0.65</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20">
         <f t="shared" si="1"/>
         <v>4.37173250308617</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20">
         <v>0.65</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20">
         <f t="shared" si="2"/>
         <v>4.31063797329471</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:10">
-      <c r="A21" s="1" t="s">
+    <row r="21" customFormat="1" spans="1:10">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>3.97905043688742</v>
       </c>
-      <c r="C21" s="2">
-        <v>-8.184804</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="0"/>
-        <v>-8.16517022436926</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.019633775630742</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="G21">
         <v>0.6</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21">
         <f t="shared" si="1"/>
         <v>4.03544538746416</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21">
         <v>0.6</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21">
         <f t="shared" si="2"/>
         <v>3.97905043688742</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:10">
-      <c r="A22" s="1" t="s">
+    <row r="22" customFormat="1" spans="1:10">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>3.64746290048014</v>
       </c>
-      <c r="C22" s="2">
-        <v>-7.561232</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="0"/>
-        <v>-7.54303748961431</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.0181945103856859</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="G22">
         <v>0.55</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22">
         <f t="shared" si="1"/>
         <v>3.69915827184214</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22">
         <v>0.55</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22">
         <f t="shared" si="2"/>
         <v>3.64746290048014</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:10">
-      <c r="A23" s="1" t="s">
+    <row r="23" customFormat="1" spans="1:10">
+      <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>3.31587536407285</v>
       </c>
-      <c r="C23" s="2">
-        <v>-6.6218255</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="0"/>
-        <v>-6.60305319784747</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.0187723021525279</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="G23">
         <v>0.5</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23">
         <f t="shared" si="1"/>
         <v>3.36287115622013</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23">
         <v>0.500000000000001</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23">
         <f t="shared" si="2"/>
         <v>3.31587536407285</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:10">
-      <c r="A24" s="1" t="s">
+    <row r="24" customFormat="1" spans="1:10">
+      <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>2.98428782766557</v>
       </c>
-      <c r="C24" s="2">
-        <v>-5.380071</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="0"/>
-        <v>-5.36170195460927</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0.0183690453907337</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="G24">
         <v>0.45</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24">
         <f t="shared" si="1"/>
         <v>3.02658404059812</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24">
         <v>0.450000000000001</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24">
         <f t="shared" si="2"/>
         <v>2.98428782766557</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:10">
-      <c r="A25" s="1" t="s">
+    <row r="25" customFormat="1" spans="1:10">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>2.65270029125828</v>
       </c>
-      <c r="C25" s="2">
-        <v>-3.654861</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="0"/>
-        <v>-3.63993343623513</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0.0149275637648665</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="G25">
         <v>0.399999999999999</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25">
         <f t="shared" si="1"/>
         <v>2.6902969249761</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25">
         <v>0.400000000000001</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25">
         <f t="shared" si="2"/>
         <v>2.65270029125828</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:1">
-      <c r="A26" s="1" t="s">
+    <row r="26" customFormat="1" spans="1:1">
+      <c r="A26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:1">
-      <c r="A27" s="1" t="s">
+    <row r="27" customFormat="1" spans="1:1">
+      <c r="A27" t="s">
         <v>29</v>
       </c>
     </row>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8400" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="20145" windowHeight="7395" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data11" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,14 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -550,155 +557,157 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1016,8 +1025,8 @@
   <sheetPr/>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
@@ -1030,370 +1039,378 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>7.734603659</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>-9.29974075</v>
       </c>
-      <c r="C2" s="1">
-        <f>B2+D2</f>
-        <v>-9.27945183302835</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.0202889169716493</v>
+      <c r="C2" s="4">
+        <f t="shared" ref="C2:C25" si="0">B2+D2</f>
+        <v>-9.27877112419782</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.0209696258021805</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>7.398316544</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>-9.303271</v>
       </c>
-      <c r="C3" s="1">
-        <f>B3+D3</f>
-        <v>-9.2828467498425</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.0204242501574988</v>
+      <c r="C3" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.28217704928256</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.0210939507174438</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>7.06202942799999</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>-9.305298</v>
       </c>
-      <c r="C4" s="1">
-        <f>B4+D4</f>
-        <v>-9.28467633679579</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.0206216632042114</v>
+      <c r="C4" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.28401399136472</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.0212840086352783</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <v>6.99477200493787</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>-9.30541825</v>
       </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.28414069068237</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.0212775593176295</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <v>6.92751458181347</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>-9.305416</v>
       </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.305416</v>
+      </c>
+      <c r="D6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <v>6.86025715868907</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>-9.305258</v>
       </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.28394005617462</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.0213179438253818</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>6.79299973556466</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>-9.30494375</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.28360454025992</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.0213392097400774</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
         <v>6.72574231244026</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>-9.30443575</v>
       </c>
-      <c r="C9" s="1">
-        <f>B9+D9</f>
-        <v>-9.28373072258981</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.0207050274101862</v>
+      <c r="C9" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.28085089283634</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.0235848571636644</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <v>6.65848488931586</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>-9.303711</v>
       </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C10" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.303711</v>
+      </c>
+      <c r="D10" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <v>6.59122746619145</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>-9.3027445</v>
       </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C11" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.3027445</v>
+      </c>
+      <c r="D11" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1">
+      <c r="A12" s="4">
         <v>6.52397004306705</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>-9.30149675</v>
       </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C12" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.30149675</v>
+      </c>
+      <c r="D12" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1">
+      <c r="A13" s="4">
         <v>6.45671261994265</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>-9.29993175</v>
       </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.29993175</v>
+      </c>
+      <c r="D13" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1">
+      <c r="A14" s="4">
         <v>6.389455197</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>-9.2980065</v>
       </c>
-      <c r="C14" s="1">
-        <f t="shared" ref="C14:C25" si="0">B14+D14</f>
-        <v>-9.27720872289682</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.0207977771031755</v>
+      <c r="C14" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.2765447062902</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.0214617937098034</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1">
+      <c r="A15" s="4">
         <v>6.05316808099999</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>-9.281312</v>
       </c>
-      <c r="C15" s="1">
-        <f t="shared" si="0"/>
-        <v>-9.26044924256136</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.0208627574386438</v>
+      <c r="C15" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.25981534941733</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.0214966505826721</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1">
+      <c r="A16" s="4">
         <v>5.71688096599999</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>-9.24699775</v>
       </c>
-      <c r="C16" s="1">
-        <f t="shared" si="0"/>
-        <v>-9.22606542156227</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.0209323284377305</v>
+      <c r="C16" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.22545581578752</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.0215419342124851</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1">
+      <c r="A17" s="4">
         <v>5.38059385</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>-9.18425575</v>
       </c>
-      <c r="C17" s="1">
-        <f t="shared" si="0"/>
-        <v>-9.16318770558089</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.021068044419114</v>
+      <c r="C17" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.16266257845306</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.0215931715469442</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1">
+      <c r="A18" s="4">
         <v>5.044306734</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>-9.07655725</v>
       </c>
-      <c r="C18" s="1">
-        <f t="shared" si="0"/>
-        <v>-9.05542446500278</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.0211327849972171</v>
+      <c r="C18" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.05490492455843</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.0216523254415718</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1">
+      <c r="A19" s="4">
         <v>4.70801961899999</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>-8.89676175</v>
       </c>
-      <c r="C19" s="1">
-        <f t="shared" si="0"/>
-        <v>-8.87558418799888</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.0211775620011249</v>
+      <c r="C19" s="4">
+        <f t="shared" si="0"/>
+        <v>-8.87509644543177</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.0216653045682302</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1">
+      <c r="A20" s="4">
         <v>4.37173250299999</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>-8.610972</v>
       </c>
-      <c r="C20" s="1">
-        <f t="shared" si="0"/>
-        <v>-8.5902008496981</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.0207711503018963</v>
+      <c r="C20" s="4">
+        <f t="shared" si="0"/>
+        <v>-8.58969112874629</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.021280871253706</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="1">
+      <c r="A21" s="4">
         <v>4.035445387</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>-8.184804</v>
       </c>
-      <c r="C21" s="1">
-        <f t="shared" si="0"/>
-        <v>-8.16517022436926</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.019633775630742</v>
+      <c r="C21" s="4">
+        <f t="shared" si="0"/>
+        <v>-8.1644223392305</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.0203816607694967</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="1">
+      <c r="A22" s="4">
         <v>3.69915827100001</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>-7.561232</v>
       </c>
-      <c r="C22" s="1">
-        <f t="shared" si="0"/>
-        <v>-7.54303748961431</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.0181945103856859</v>
+      <c r="C22" s="4">
+        <f t="shared" si="0"/>
+        <v>-7.54245840350752</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.0187735964924786</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="1">
+      <c r="A23" s="4">
         <v>3.36287115500002</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>-6.6218255</v>
       </c>
-      <c r="C23" s="1">
-        <f t="shared" si="0"/>
-        <v>-6.60305319784747</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.0187723021525279</v>
+      <c r="C23" s="4">
+        <f t="shared" si="0"/>
+        <v>-6.60562327498075</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.0162022250192528</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="1">
+      <c r="A24" s="4">
         <v>3.02658403900003</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>-5.380071</v>
       </c>
-      <c r="C24" s="1">
-        <f t="shared" si="0"/>
-        <v>-5.36170195460927</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.0183690453907337</v>
+      <c r="C24" s="4">
+        <f t="shared" si="0"/>
+        <v>-5.36397948973004</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.0160915102699602</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="1">
+      <c r="A25" s="4">
         <v>2.69029692300004</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>-3.654861</v>
       </c>
-      <c r="C25" s="1">
-        <f t="shared" si="0"/>
-        <v>-3.63993343623513</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.0149275637648665</v>
+      <c r="C25" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.63930487592718</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.0155561240728216</v>
       </c>
     </row>
   </sheetData>
@@ -1408,7 +1425,7 @@
   <sheetPr/>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B25"/>
     </sheetView>
   </sheetViews>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="data11" sheetId="1" r:id="rId1"/>
     <sheet name="data12" sheetId="2" r:id="rId2"/>
+    <sheet name="data12_modified" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -44,7 +45,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>C(A)</t>
   </si>
@@ -74,7 +75,88 @@
     <t>F(eV/atm)</t>
   </si>
   <si>
+    <t>zz(stress GPa)</t>
+  </si>
+  <si>
     <t>F from php(eV/atm)</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>z01</t>
+  </si>
+  <si>
+    <t>z02</t>
+  </si>
+  <si>
+    <t>z03</t>
+  </si>
+  <si>
+    <t>z04</t>
+  </si>
+  <si>
+    <t>z05</t>
+  </si>
+  <si>
+    <t>z06</t>
+  </si>
+  <si>
+    <t>z07</t>
+  </si>
+  <si>
+    <t>z08</t>
+  </si>
+  <si>
+    <t>z09</t>
+  </si>
+  <si>
+    <t>z10</t>
+  </si>
+  <si>
+    <t>z11</t>
+  </si>
+  <si>
+    <t>z12</t>
+  </si>
+  <si>
+    <t>z13</t>
+  </si>
+  <si>
+    <t>z14</t>
+  </si>
+  <si>
+    <t>z15</t>
+  </si>
+  <si>
+    <t>z16</t>
+  </si>
+  <si>
+    <t>z17</t>
+  </si>
+  <si>
+    <t>z18</t>
+  </si>
+  <si>
+    <t>z19</t>
   </si>
 </sst>
 </file>
@@ -82,10 +164,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -103,10 +185,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -119,61 +270,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,11 +291,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,18 +306,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,22 +323,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,13 +345,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,169 +423,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,6 +536,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -475,8 +611,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,60 +622,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,157 +639,160 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1023,395 +1108,501 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="12.625"/>
     <col min="3" max="3" width="13.75"/>
-    <col min="4" max="4" width="12.625"/>
-    <col min="7" max="9" width="12.625"/>
+    <col min="4" max="4" width="12.625" style="2"/>
+    <col min="5" max="5" width="12.625"/>
+    <col min="8" max="10" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="7">
         <v>7.734603659</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <v>-9.29974075</v>
       </c>
-      <c r="C2" s="4">
-        <f t="shared" ref="C2:C25" si="0">B2+D2</f>
+      <c r="C2" s="7">
+        <f t="shared" ref="C2:C25" si="0">B2+E2</f>
         <v>-9.27877112419782</v>
       </c>
       <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
         <v>0.0209696258021805</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4">
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="7">
         <v>7.398316544</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>-9.303271</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="7">
         <f t="shared" si="0"/>
         <v>-9.28217704928256</v>
       </c>
       <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
         <v>0.0210939507174438</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4">
+    <row r="4" spans="1:5">
+      <c r="A4" s="7">
         <v>7.06202942799999</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>-9.305298</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="7">
         <f t="shared" si="0"/>
         <v>-9.28401399136472</v>
       </c>
       <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
         <v>0.0212840086352783</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4">
+    <row r="5" spans="1:5">
+      <c r="A5" s="7">
         <v>6.99477200493787</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>-9.30541825</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="7">
         <f t="shared" si="0"/>
         <v>-9.28414069068237</v>
       </c>
       <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
         <v>0.0212775593176295</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4">
+    <row r="6" spans="1:5">
+      <c r="A6" s="7">
         <v>6.92751458181347</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>-9.305416</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="7">
         <f t="shared" si="0"/>
         <v>-9.305416</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4">
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="7">
         <v>6.86025715868907</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>-9.305258</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="7">
         <f t="shared" si="0"/>
         <v>-9.28394005617462</v>
       </c>
       <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
         <v>0.0213179438253818</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3">
+    <row r="8" spans="1:5">
+      <c r="A8">
         <v>6.79299973556466</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>-9.30494375</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="7">
         <f t="shared" si="0"/>
         <v>-9.28360454025992</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.0213392097400774</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4">
+    <row r="9" spans="1:5">
+      <c r="A9" s="7">
         <v>6.72574231244026</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>-9.30443575</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="7">
         <f t="shared" si="0"/>
         <v>-9.28085089283634</v>
       </c>
       <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
         <v>0.0235848571636644</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="4">
+    <row r="10" spans="1:5">
+      <c r="A10" s="7">
         <v>6.65848488931586</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>-9.303711</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="7">
         <f t="shared" si="0"/>
         <v>-9.303711</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="4">
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="7">
         <v>6.59122746619145</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>-9.3027445</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="7">
         <f t="shared" si="0"/>
         <v>-9.3027445</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="4">
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="7">
         <v>6.52397004306705</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>-9.30149675</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="7">
         <f t="shared" si="0"/>
         <v>-9.30149675</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="4">
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="7">
         <v>6.45671261994265</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>-9.29993175</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="7">
         <f t="shared" si="0"/>
         <v>-9.29993175</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="4">
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="7">
         <v>6.389455197</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>-9.2980065</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="7">
         <f t="shared" si="0"/>
         <v>-9.2765447062902</v>
       </c>
       <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7">
         <v>0.0214617937098034</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4">
+    <row r="15" spans="1:5">
+      <c r="A15" s="7">
         <v>6.05316808099999</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>-9.281312</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="7">
         <f t="shared" si="0"/>
         <v>-9.25981534941733</v>
       </c>
       <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
         <v>0.0214966505826721</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="4">
+    <row r="16" spans="1:5">
+      <c r="A16" s="7">
         <v>5.71688096599999</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16">
         <v>-9.24699775</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="7">
         <f t="shared" si="0"/>
         <v>-9.22545581578752</v>
       </c>
       <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7">
         <v>0.0215419342124851</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="4">
+    <row r="17" spans="1:5">
+      <c r="A17" s="7">
         <v>5.38059385</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17">
         <v>-9.18425575</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="7">
         <f t="shared" si="0"/>
         <v>-9.16266257845306</v>
       </c>
       <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
         <v>0.0215931715469442</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="4">
+    <row r="18" spans="1:5">
+      <c r="A18" s="7">
         <v>5.044306734</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18">
         <v>-9.07655725</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="7">
         <f t="shared" si="0"/>
         <v>-9.05490492455843</v>
       </c>
       <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7">
         <v>0.0216523254415718</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="4">
+    <row r="19" spans="1:5">
+      <c r="A19" s="7">
         <v>4.70801961899999</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19">
         <v>-8.89676175</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="7">
         <f t="shared" si="0"/>
         <v>-8.87509644543177</v>
       </c>
       <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
         <v>0.0216653045682302</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="4">
+    <row r="20" spans="1:5">
+      <c r="A20" s="7">
         <v>4.37173250299999</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20">
         <v>-8.610972</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="7">
         <f t="shared" si="0"/>
         <v>-8.58969112874629</v>
       </c>
       <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7">
         <v>0.021280871253706</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="4">
+    <row r="21" spans="1:5">
+      <c r="A21" s="7">
         <v>4.035445387</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21">
         <v>-8.184804</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="7">
         <f t="shared" si="0"/>
         <v>-8.1644223392305</v>
       </c>
       <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7">
         <v>0.0203816607694967</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="4">
+    <row r="22" spans="1:5">
+      <c r="A22" s="7">
         <v>3.69915827100001</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22">
         <v>-7.561232</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="7">
         <f t="shared" si="0"/>
         <v>-7.54245840350752</v>
       </c>
       <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7">
         <v>0.0187735964924786</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="4">
+    <row r="23" spans="1:5">
+      <c r="A23" s="7">
         <v>3.36287115500002</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23">
         <v>-6.6218255</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="7">
         <f t="shared" si="0"/>
         <v>-6.60562327498075</v>
       </c>
       <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7">
         <v>0.0162022250192528</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="4">
+    <row r="24" spans="1:5">
+      <c r="A24" s="7">
         <v>3.02658403900003</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24">
         <v>-5.380071</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="7">
         <f t="shared" si="0"/>
         <v>-5.36397948973004</v>
       </c>
       <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7">
         <v>0.0160915102699602</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="4">
+    <row r="25" spans="1:5">
+      <c r="A25" s="7">
         <v>2.69029692300004</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25">
         <v>-3.654861</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="7">
         <f t="shared" si="0"/>
         <v>-3.63930487592718</v>
       </c>
       <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7">
         <v>0.0155561240728216</v>
       </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1423,324 +1614,678 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="12.625"/>
-    <col min="3" max="3" width="13.75"/>
-    <col min="4" max="4" width="12.625"/>
+    <col min="3" max="4" width="13.75"/>
+    <col min="5" max="6" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="1" spans="1:4">
-      <c r="A2" s="1">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3">
         <v>7.62651333736756</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>-9.35571075</v>
       </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" customFormat="1" spans="1:4">
-      <c r="A3" s="1">
+      <c r="D2" s="4">
+        <f t="shared" ref="D2:D27" si="0">C2+F2</f>
+        <v>-9.35571075</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3">
         <v>7.29492580096027</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>-9.36041425</v>
       </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" customFormat="1" spans="1:4">
-      <c r="A4" s="1">
+      <c r="D3" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.36041425</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>7.0959732791159</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-9.36272175</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.36042330112505</v>
+      </c>
+      <c r="E4" s="4">
+        <v>-1.74798</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F10" si="1">B4*1000/6.022140857E+23*6242000000000000000/32</f>
+        <v>0.00229844887495222</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7.02965577183444</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-9.36334625</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.36106928195565</v>
+      </c>
+      <c r="E5" s="4">
+        <v>-1.37949</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.00227696804434519</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
         <v>6.96333826455299</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C6" s="2">
         <v>-9.36387875</v>
       </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" customFormat="1" spans="1:4">
-      <c r="A5" s="1">
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.36162326278626</v>
+      </c>
+      <c r="E6" s="4">
+        <v>-0.649711</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.00225548721373816</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
         <v>6.89702075727153</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C7" s="2">
         <v>-9.364291</v>
       </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" customFormat="1" spans="1:4">
-      <c r="A6" s="1">
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.36205699361687</v>
+      </c>
+      <c r="E7" s="4">
+        <v>-0.436941</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.00223400638313113</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3">
         <v>6.83070324999007</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C8" s="2">
         <v>-9.36458075</v>
       </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" customFormat="1" spans="1:4">
-      <c r="A7" s="1">
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.36236822444748</v>
+      </c>
+      <c r="E8" s="4">
+        <v>-0.194466</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.0022125255525241</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3">
         <v>6.76438574270861</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C9" s="2">
         <v>-9.36471925</v>
       </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" customFormat="1" spans="1:3">
-      <c r="A8">
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.36252820527808</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.083872</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.00219104472191707</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
         <v>6.69806823542716</v>
       </c>
-      <c r="B8" s="2">
+      <c r="C10" s="2">
         <v>-9.364684</v>
       </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:4">
-      <c r="A9" s="1">
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.36251443610869</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.40474</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.00216956389131004</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3">
         <v>6.6317507281457</v>
       </c>
-      <c r="B9" s="2">
+      <c r="C11" s="2">
         <v>-9.36446125</v>
       </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" customFormat="1" spans="1:4">
-      <c r="A10" s="1">
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.36446125</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.766066</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3">
         <v>6.56543322086424</v>
       </c>
-      <c r="B10" s="2">
+      <c r="C12" s="2">
         <v>-9.36401425</v>
       </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" customFormat="1" spans="1:4">
-      <c r="A11" s="1">
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.36401425</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1.209655</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3">
         <v>6.49911571358279</v>
       </c>
-      <c r="B11" s="2">
+      <c r="C13" s="2">
         <v>-9.363318</v>
       </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" customFormat="1" spans="1:4">
-      <c r="A12" s="1">
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.363318</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1.650845</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3">
         <v>6.43279820630133</v>
       </c>
-      <c r="B12" s="2">
+      <c r="C14" s="2">
         <v>-9.36232725</v>
       </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" customFormat="1" spans="1:4">
-      <c r="A13" s="1">
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.36232725</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2.184954</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3">
         <v>6.36648069901987</v>
       </c>
-      <c r="B13" s="2">
+      <c r="C15" s="2">
         <v>-9.3610255</v>
       </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" customFormat="1" spans="1:4">
-      <c r="A14" s="1">
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.3610255</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2.81936</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3">
         <v>6.30016319173841</v>
       </c>
-      <c r="B14" s="2">
+      <c r="C16" s="2">
         <v>-9.359363</v>
       </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" customFormat="1" spans="1:4">
-      <c r="A15" s="1">
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.359363</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3.470399</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2">
+        <v>6.23384568445696</v>
+      </c>
+      <c r="C17" s="2">
+        <v>-9.3572985</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.35527930192294</v>
+      </c>
+      <c r="E17" s="4">
+        <v>8.313759</v>
+      </c>
+      <c r="F17" s="2">
+        <f>B17*1000/6.022140857E+23*6242000000000000000/32</f>
+        <v>0.00201919807706083</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2">
+        <v>6.1675281771755</v>
+      </c>
+      <c r="C18" s="2">
+        <v>-9.35477725</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.35277953275355</v>
+      </c>
+      <c r="E18" s="4">
+        <v>16.364584</v>
+      </c>
+      <c r="F18" s="2">
+        <f>B18*1000/6.022140857E+23*6242000000000000000/32</f>
+        <v>0.0019977172464538</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3">
         <v>5.96857565533113</v>
       </c>
-      <c r="B15" s="2">
+      <c r="C19" s="2">
         <v>-9.3439195</v>
       </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" customFormat="1" spans="1:4">
-      <c r="A16" s="1">
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.3439195</v>
+      </c>
+      <c r="E19" s="4">
+        <v>29.162834</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3">
         <v>5.63698811892385</v>
       </c>
-      <c r="B16" s="2">
+      <c r="C20" s="2">
         <v>-9.31057675</v>
       </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" customFormat="1" spans="1:4">
-      <c r="A17" s="1">
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.31057675</v>
+      </c>
+      <c r="E20" s="4">
+        <v>49.590418</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3">
         <v>5.30540058251656</v>
       </c>
-      <c r="B17" s="2">
+      <c r="C21" s="2">
         <v>-9.2470915</v>
       </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" customFormat="1" spans="1:4">
-      <c r="A18" s="1">
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.2470915</v>
+      </c>
+      <c r="E21" s="4">
+        <v>81.795232</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3">
         <v>4.97381304610928</v>
       </c>
-      <c r="B18" s="2">
+      <c r="C22" s="2">
         <v>-9.13348925</v>
       </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" customFormat="1" spans="1:4">
-      <c r="A19" s="1">
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.13348925</v>
+      </c>
+      <c r="E22" s="4">
+        <v>126.264436</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="3">
         <v>4.64222550970199</v>
       </c>
-      <c r="B19" s="2">
+      <c r="C23" s="2">
         <v>-8.9380785</v>
       </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" customFormat="1" spans="1:4">
-      <c r="A20" s="1">
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>-8.9380785</v>
+      </c>
+      <c r="E23" s="4">
+        <v>184.537527</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="3">
         <v>4.31063797329471</v>
       </c>
-      <c r="B20" s="2">
+      <c r="C24" s="2">
         <v>-8.63161825</v>
       </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" customFormat="1" spans="1:4">
-      <c r="A21" s="1">
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>-8.63161825</v>
+      </c>
+      <c r="E24" s="4">
+        <v>278.177108</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:6">
+      <c r="A25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="3">
         <v>3.97905043688742</v>
       </c>
-      <c r="B21" s="2">
+      <c r="C25" s="2">
         <v>-8.18573275</v>
       </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" customFormat="1" spans="1:4">
-      <c r="A22" s="1">
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>-8.18573275</v>
+      </c>
+      <c r="E25" s="4">
+        <v>410.94174</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="3">
         <v>3.64746290048014</v>
       </c>
-      <c r="B22" s="2">
+      <c r="C26" s="2">
         <v>-7.534209</v>
       </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" customFormat="1" spans="1:4">
-      <c r="A23" s="1">
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>-7.534209</v>
+      </c>
+      <c r="E26" s="2">
+        <v>515.291824</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="3">
         <v>3.31587536407285</v>
       </c>
-      <c r="B23" s="2">
+      <c r="C27" s="2">
         <v>-6.56529875</v>
       </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" customFormat="1" spans="1:4">
-      <c r="A24" s="1">
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>-6.56529875</v>
+      </c>
+      <c r="E27" s="2">
+        <v>765.428943</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="5">
         <v>2.98428782766557</v>
       </c>
-      <c r="B24" s="2">
+      <c r="C28" s="2">
         <v>-5.3080285</v>
       </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" customFormat="1" spans="1:4">
-      <c r="A25" s="1">
+      <c r="D28" s="6">
+        <f>C28+F28</f>
+        <v>-5.3080285</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="5">
         <v>2.65270029125828</v>
       </c>
-      <c r="B25" s="2">
+      <c r="C29" s="2">
         <v>-3.53590775</v>
       </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1"/>
+      <c r="D29" s="6">
+        <f>C29+F29</f>
+        <v>-3.53590775</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="5:5">
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="5:5">
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="5:5">
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="5:5">
+      <c r="E37" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="3" width="12.625"/>
+    <col min="5" max="5" width="11.5"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20145" windowHeight="7395" tabRatio="500"/>
+    <workbookView windowWidth="20145" windowHeight="7395" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data11" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>C(A)</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>F from php(eV/atm)</t>
+  </si>
+  <si>
+    <t>F0(eV/atm)</t>
+  </si>
+  <si>
+    <t>F0 from php(eV/atm)</t>
+  </si>
+  <si>
+    <t>F300 from php(eV/atm)</t>
   </si>
   <si>
     <t>a</t>
@@ -1110,8 +1119,8 @@
   <sheetPr/>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:D29"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C8" sqref="A7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1614,21 +1623,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E$1:E$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="12.625"/>
     <col min="3" max="4" width="13.75"/>
-    <col min="5" max="6" width="12.625"/>
+    <col min="5" max="5" width="12.625"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="7" max="7" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:6">
+    <row r="1" customFormat="1" spans="1:7">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1637,16 +1648,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" spans="1:6">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:7">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>7.62651333736756</v>
@@ -1664,8 +1678,11 @@
       <c r="F2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:6">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:7">
       <c r="A3" s="2"/>
       <c r="B3" s="3">
         <v>7.29492580096027</v>
@@ -1683,10 +1700,13 @@
       <c r="F3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
         <v>7.0959732791159</v>
@@ -1696,19 +1716,21 @@
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
-        <v>-9.36042330112505</v>
+        <v>-9.34142444866186</v>
       </c>
       <c r="E4" s="4">
         <v>-1.74798</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F10" si="1">B4*1000/6.022140857E+23*6242000000000000000/32</f>
-        <v>0.00229844887495222</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:6">
+        <v>0.0212973013381394</v>
+      </c>
+      <c r="G4">
+        <v>0.0206405764390277</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2">
         <v>7.02965577183444</v>
@@ -1718,19 +1740,21 @@
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>-9.36106928195565</v>
+        <v>-9.34203116612822</v>
       </c>
       <c r="E5" s="4">
         <v>-1.37949</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="1"/>
-        <v>0.00227696804434519</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:6">
+        <v>0.0213150838717795</v>
+      </c>
+      <c r="G5">
+        <v>0.02066163725461</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3">
         <v>6.96333826455299</v>
@@ -1740,19 +1764,21 @@
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>-9.36162326278626</v>
+        <v>-9.34252731341168</v>
       </c>
       <c r="E6" s="4">
         <v>-0.649711</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="1"/>
-        <v>0.00225548721373816</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:6">
+        <v>0.0213514365883235</v>
+      </c>
+      <c r="G6">
+        <v>0.0206943201157467</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3">
         <v>6.89702075727153</v>
@@ -1762,19 +1788,21 @@
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>-9.36205699361687</v>
+        <v>-9.34292050564871</v>
       </c>
       <c r="E7" s="4">
         <v>-0.436941</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="1"/>
-        <v>0.00223400638313113</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:6">
+        <v>0.0213704943512894</v>
+      </c>
+      <c r="G7">
+        <v>0.0207214062522322</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3">
         <v>6.83070324999007</v>
@@ -1784,19 +1812,21 @@
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>-9.36236822444748</v>
+        <v>-9.34319526886993</v>
       </c>
       <c r="E8" s="4">
         <v>-0.194466</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="1"/>
-        <v>0.0022125255525241</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:6">
+        <v>0.0213854811300705</v>
+      </c>
+      <c r="G8">
+        <v>0.0207224978899954</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3">
         <v>6.76438574270861</v>
@@ -1806,19 +1836,21 @@
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
-        <v>-9.36252820527808</v>
+        <v>-9.34329465155856</v>
       </c>
       <c r="E9" s="4">
         <v>0.083872</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="1"/>
-        <v>0.00219104472191707</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:6">
+        <v>0.0214245984414376</v>
+      </c>
+      <c r="G9">
+        <v>0.0207691221463404</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
         <v>6.69806823542716</v>
@@ -1828,19 +1860,21 @@
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
-        <v>-9.36251443610869</v>
+        <v>-9.34324236527863</v>
       </c>
       <c r="E10" s="4">
         <v>0.40474</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="1"/>
-        <v>0.00216956389131004</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:6">
+        <v>0.0214416347213709</v>
+      </c>
+      <c r="G10">
+        <v>0.0207971474890624</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3">
         <v>6.6317507281457</v>
@@ -1850,18 +1884,21 @@
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>-9.36446125</v>
+        <v>-9.34298510923149</v>
       </c>
       <c r="E11" s="4">
         <v>0.766066</v>
       </c>
       <c r="F11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:6">
+        <v>0.0214761407685137</v>
+      </c>
+      <c r="G11">
+        <v>0.0208237304654679</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3">
         <v>6.56543322086424</v>
@@ -1871,18 +1908,21 @@
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
-        <v>-9.36401425</v>
+        <v>-9.3425189263749</v>
       </c>
       <c r="E12" s="4">
         <v>1.209655</v>
       </c>
       <c r="F12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:6">
+        <v>0.0214953236250955</v>
+      </c>
+      <c r="G12">
+        <v>0.0208437353704383</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3">
         <v>6.49911571358279</v>
@@ -1892,18 +1932,21 @@
       </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
-        <v>-9.363318</v>
+        <v>-9.34181344827522</v>
       </c>
       <c r="E13" s="4">
         <v>1.650845</v>
       </c>
       <c r="F13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:6">
+        <v>0.0215045517247771</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.0208632790939217</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14" s="3">
         <v>6.43279820630133</v>
@@ -1921,10 +1964,13 @@
       <c r="F14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:6">
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3">
         <v>6.36648069901987</v>
@@ -1942,10 +1988,13 @@
       <c r="F15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16" s="3">
         <v>6.30016319173841</v>
@@ -1963,10 +2012,13 @@
       <c r="F16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:6">
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
         <v>6.23384568445696</v>
@@ -1976,19 +2028,21 @@
       </c>
       <c r="D17" s="4">
         <f t="shared" si="0"/>
-        <v>-9.35527930192294</v>
+        <v>-9.33572266567675</v>
       </c>
       <c r="E17" s="4">
         <v>8.313759</v>
       </c>
       <c r="F17" s="2">
-        <f>B17*1000/6.022140857E+23*6242000000000000000/32</f>
-        <v>0.00201919807706083</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:6">
+        <v>0.0215758343232551</v>
+      </c>
+      <c r="G17">
+        <v>0.0209624503779583</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
         <v>6.1675281771755</v>
@@ -1998,19 +2052,21 @@
       </c>
       <c r="D18" s="4">
         <f t="shared" si="0"/>
-        <v>-9.35277953275355</v>
+        <v>-9.33318746929334</v>
       </c>
       <c r="E18" s="4">
         <v>16.364584</v>
       </c>
       <c r="F18" s="2">
-        <f>B18*1000/6.022140857E+23*6242000000000000000/32</f>
-        <v>0.0019977172464538</v>
+        <v>0.0215897807066604</v>
+      </c>
+      <c r="G18">
+        <v>0.0209664669130575</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19" s="3">
         <v>5.96857565533113</v>
@@ -2031,7 +2087,7 @@
     </row>
     <row r="20" customFormat="1" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20" s="3">
         <v>5.63698811892385</v>
@@ -2052,7 +2108,7 @@
     </row>
     <row r="21" customFormat="1" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21" s="3">
         <v>5.30540058251656</v>
@@ -2073,7 +2129,7 @@
     </row>
     <row r="22" customFormat="1" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22" s="3">
         <v>4.97381304610928</v>
@@ -2094,7 +2150,7 @@
     </row>
     <row r="23" customFormat="1" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23" s="3">
         <v>4.64222550970199</v>
@@ -2115,7 +2171,7 @@
     </row>
     <row r="24" customFormat="1" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24" s="3">
         <v>4.31063797329471</v>
@@ -2136,7 +2192,7 @@
     </row>
     <row r="25" customFormat="1" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25" s="3">
         <v>3.97905043688742</v>
@@ -2157,7 +2213,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26" s="3">
         <v>3.64746290048014</v>
@@ -2178,7 +2234,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27" s="3">
         <v>3.31587536407285</v>
@@ -2199,7 +2255,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28" s="5">
         <v>2.98428782766557</v>
@@ -2220,7 +2276,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29" s="5">
         <v>2.65270029125828</v>
@@ -2275,7 +2331,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -173,10 +173,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -194,9 +194,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,27 +215,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -238,9 +223,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,60 +240,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,7 +263,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,6 +307,43 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -360,13 +360,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,24 +480,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -408,25 +492,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,31 +510,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,67 +534,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,6 +557,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -572,17 +587,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,188 +640,165 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1128,7 +1125,7 @@
     <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="12.625"/>
     <col min="3" max="3" width="13.75"/>
-    <col min="4" max="4" width="12.625" style="2"/>
+    <col min="4" max="4" width="12.625"/>
     <col min="5" max="5" width="12.625"/>
     <col min="8" max="10" width="12.625"/>
   </cols>
@@ -1151,111 +1148,111 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="7">
+      <c r="A2" s="2">
         <v>7.734603659</v>
       </c>
       <c r="B2">
         <v>-9.29974075</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="2">
         <f t="shared" ref="C2:C25" si="0">B2+E2</f>
         <v>-9.27877112419782</v>
       </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
         <v>0.0209696258021805</v>
       </c>
-      <c r="I2" s="7"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="7">
+      <c r="A3" s="2">
         <v>7.398316544</v>
       </c>
       <c r="B3">
         <v>-9.303271</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="2">
         <f t="shared" si="0"/>
         <v>-9.28217704928256</v>
       </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
         <v>0.0210939507174438</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="7">
+      <c r="A4" s="2">
         <v>7.06202942799999</v>
       </c>
       <c r="B4">
         <v>-9.305298</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="2">
         <f t="shared" si="0"/>
         <v>-9.28401399136472</v>
       </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
         <v>0.0212840086352783</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="7">
+      <c r="A5" s="2">
         <v>6.99477200493787</v>
       </c>
       <c r="B5">
         <v>-9.30541825</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="2">
         <f t="shared" si="0"/>
         <v>-9.28414069068237</v>
       </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
         <v>0.0212775593176295</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="7">
+      <c r="A6" s="2">
         <v>6.92751458181347</v>
       </c>
       <c r="B6">
         <v>-9.305416</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="2">
         <f t="shared" si="0"/>
         <v>-9.305416</v>
       </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="7">
+      <c r="A7" s="2">
         <v>6.86025715868907</v>
       </c>
       <c r="B7">
         <v>-9.305258</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="2">
         <f t="shared" si="0"/>
         <v>-9.28394005617462</v>
       </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
         <v>0.0213179438253818</v>
       </c>
     </row>
@@ -1266,11 +1263,11 @@
       <c r="B8">
         <v>-9.30494375</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="2">
         <f t="shared" si="0"/>
         <v>-9.28360454025992</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>0</v>
       </c>
       <c r="E8">
@@ -1278,308 +1275,308 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="7">
+      <c r="A9" s="2">
         <v>6.72574231244026</v>
       </c>
       <c r="B9">
         <v>-9.30443575</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>-9.28085089283634</v>
       </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
         <v>0.0235848571636644</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="7">
+      <c r="A10" s="2">
         <v>6.65848488931586</v>
       </c>
       <c r="B10">
         <v>-9.303711</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>-9.303711</v>
       </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="7">
+      <c r="A11" s="2">
         <v>6.59122746619145</v>
       </c>
       <c r="B11">
         <v>-9.3027445</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>-9.3027445</v>
       </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="7">
+      <c r="A12" s="2">
         <v>6.52397004306705</v>
       </c>
       <c r="B12">
         <v>-9.30149675</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>-9.30149675</v>
       </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="7">
+      <c r="A13" s="2">
         <v>6.45671261994265</v>
       </c>
       <c r="B13">
         <v>-9.29993175</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>-9.29993175</v>
       </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="7">
+      <c r="A14" s="2">
         <v>6.389455197</v>
       </c>
       <c r="B14">
         <v>-9.2980065</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>-9.2765447062902</v>
       </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
         <v>0.0214617937098034</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="7">
+      <c r="A15" s="2">
         <v>6.05316808099999</v>
       </c>
       <c r="B15">
         <v>-9.281312</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>-9.25981534941733</v>
       </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
         <v>0.0214966505826721</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="7">
+      <c r="A16" s="2">
         <v>5.71688096599999</v>
       </c>
       <c r="B16">
         <v>-9.24699775</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>-9.22545581578752</v>
       </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
         <v>0.0215419342124851</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="7">
+      <c r="A17" s="2">
         <v>5.38059385</v>
       </c>
       <c r="B17">
         <v>-9.18425575</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="2">
         <f t="shared" si="0"/>
         <v>-9.16266257845306</v>
       </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
         <v>0.0215931715469442</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="7">
+      <c r="A18" s="2">
         <v>5.044306734</v>
       </c>
       <c r="B18">
         <v>-9.07655725</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="2">
         <f t="shared" si="0"/>
         <v>-9.05490492455843</v>
       </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
         <v>0.0216523254415718</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="7">
+      <c r="A19" s="2">
         <v>4.70801961899999</v>
       </c>
       <c r="B19">
         <v>-8.89676175</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="2">
         <f t="shared" si="0"/>
         <v>-8.87509644543177</v>
       </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7">
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
         <v>0.0216653045682302</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="7">
+      <c r="A20" s="2">
         <v>4.37173250299999</v>
       </c>
       <c r="B20">
         <v>-8.610972</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>-8.58969112874629</v>
       </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7">
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
         <v>0.021280871253706</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="7">
+      <c r="A21" s="2">
         <v>4.035445387</v>
       </c>
       <c r="B21">
         <v>-8.184804</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>-8.1644223392305</v>
       </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7">
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
         <v>0.0203816607694967</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="7">
+      <c r="A22" s="2">
         <v>3.69915827100001</v>
       </c>
       <c r="B22">
         <v>-7.561232</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>-7.54245840350752</v>
       </c>
-      <c r="D22" s="4">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7">
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
         <v>0.0187735964924786</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="7">
+      <c r="A23" s="2">
         <v>3.36287115500002</v>
       </c>
       <c r="B23">
         <v>-6.6218255</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>-6.60562327498075</v>
       </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-      <c r="E23" s="7">
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
         <v>0.0162022250192528</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="7">
+      <c r="A24" s="2">
         <v>3.02658403900003</v>
       </c>
       <c r="B24">
         <v>-5.380071</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>-5.36397948973004</v>
       </c>
-      <c r="D24" s="4">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7">
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
         <v>0.0160915102699602</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="7">
+      <c r="A25" s="2">
         <v>2.69029692300004</v>
       </c>
       <c r="B25">
         <v>-3.654861</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="2">
         <f t="shared" si="0"/>
         <v>-3.63930487592718</v>
       </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7">
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
         <v>0.0155561240728216</v>
       </c>
     </row>
@@ -1590,28 +1587,28 @@
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="4"/>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="4"/>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="4"/>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="4"/>
+      <c r="D33" s="3"/>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="4"/>
+      <c r="D34" s="3"/>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="4"/>
+      <c r="D35" s="3"/>
     </row>
     <row r="36" spans="4:4">
-      <c r="D36" s="4"/>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="4:4">
-      <c r="D37" s="4"/>
+      <c r="D37" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1626,7 +1623,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:G13"/>
+      <selection activeCell="F4" sqref="F4:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -1660,44 +1657,42 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:7">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3">
+    <row r="2" customFormat="1" spans="2:7">
+      <c r="B2" s="2">
         <v>7.62651333736756</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>-9.35571075</v>
       </c>
-      <c r="D2" s="4">
-        <f t="shared" ref="D2:D27" si="0">C2+F2</f>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2:D29" si="0">C2+F2</f>
         <v>-9.35571075</v>
       </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
         <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="1:7">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3">
+    <row r="3" customFormat="1" spans="2:7">
+      <c r="B3" s="2">
         <v>7.29492580096027</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>-9.36041425</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <f t="shared" si="0"/>
         <v>-9.36041425</v>
       </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>0</v>
       </c>
       <c r="G3">
@@ -1705,551 +1700,551 @@
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:7">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>7.0959732791159</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>-9.36272175</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>-9.34142444866186</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>-1.74798</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>0.0212973013381394</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>0.0206405764390277</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:7">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>7.02965577183444</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>-9.36334625</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>-9.34203116612822</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>-1.37949</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>0.0213150838717795</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <v>0.02066163725461</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:7">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>6.96333826455299</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>-9.36387875</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>-9.34252731341168</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>-0.649711</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>0.0213514365883235</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>0.0206943201157467</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>6.89702075727153</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>-9.364291</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>-9.34292050564871</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>-0.436941</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>0.0213704943512894</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <v>0.0207214062522322</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:7">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>6.83070324999007</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>-9.36458075</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>-9.34319526886993</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>-0.194466</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>0.0213854811300705</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <v>0.0207224978899954</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:7">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>6.76438574270861</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>-9.36471925</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>-9.34329465155856</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>0.083872</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>0.0214245984414376</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="4">
         <v>0.0207691221463404</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:7">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>6.69806823542716</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>-9.364684</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>-9.34324236527863</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>0.40474</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <v>0.0214416347213709</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <v>0.0207971474890624</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:7">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>6.6317507281457</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>-9.36446125</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>-9.34298510923149</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>0.766066</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="4">
         <v>0.0214761407685137</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="4">
         <v>0.0208237304654679</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:7">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>6.56543322086424</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>-9.36401425</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <f t="shared" si="0"/>
         <v>-9.3425189263749</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>1.209655</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="4">
         <v>0.0214953236250955</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="4">
         <v>0.0208437353704383</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:7">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>6.49911571358279</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>-9.363318</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <f t="shared" si="0"/>
         <v>-9.34181344827522</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>1.650845</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="4">
         <v>0.0215045517247771</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="4">
         <v>0.0208632790939217</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:7">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>6.43279820630133</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>-9.36232725</v>
       </c>
-      <c r="D14" s="4">
-        <f t="shared" si="0"/>
-        <v>-9.36232725</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>-9.34080128378352</v>
+      </c>
+      <c r="E14" s="3">
         <v>2.184954</v>
       </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
+      <c r="F14" s="4">
+        <v>0.0215259662164836</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.0208786517777622</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:7">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>6.36648069901987</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>-9.3610255</v>
       </c>
-      <c r="D15" s="4">
-        <f t="shared" si="0"/>
-        <v>-9.3610255</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>-9.33948007495655</v>
+      </c>
+      <c r="E15" s="3">
         <v>2.81936</v>
       </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
+      <c r="F15" s="4">
+        <v>0.0215454250434452</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.0209155631075892</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:7">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>6.30016319173841</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>-9.359363</v>
       </c>
-      <c r="D16" s="4">
-        <f t="shared" si="0"/>
-        <v>-9.359363</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>-9.33780344436616</v>
+      </c>
+      <c r="E16" s="3">
         <v>3.470399</v>
       </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
+      <c r="F16" s="4">
+        <v>0.02155955563384</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.02093910836919</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:7">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <v>6.23384568445696</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>-9.3572985</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <f t="shared" si="0"/>
         <v>-9.33572266567675</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>8.313759</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="4">
         <v>0.0215758343232551</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="4">
         <v>0.0209624503779583</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:7">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
         <v>6.1675281771755</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
         <v>-9.35477725</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <f t="shared" si="0"/>
         <v>-9.33318746929334</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>16.364584</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="4">
         <v>0.0215897807066604</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="4">
         <v>0.0209664669130575</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>5.96857565533113</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19">
         <v>-9.3439195</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <f t="shared" si="0"/>
         <v>-9.3439195</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>29.162834</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:6">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>5.63698811892385</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20">
         <v>-9.31057675</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <f t="shared" si="0"/>
         <v>-9.31057675</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>49.590418</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:6">
-      <c r="A21" s="2" t="s">
+      <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>5.30540058251656</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21">
         <v>-9.2470915</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <f t="shared" si="0"/>
         <v>-9.2470915</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>81.795232</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:6">
-      <c r="A22" s="2" t="s">
+      <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>4.97381304610928</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22">
         <v>-9.13348925</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <f t="shared" si="0"/>
         <v>-9.13348925</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>126.264436</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:6">
-      <c r="A23" s="2" t="s">
+      <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>4.64222550970199</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23">
         <v>-8.9380785</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <f t="shared" si="0"/>
         <v>-8.9380785</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>184.537527</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:6">
-      <c r="A24" s="2" t="s">
+      <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>4.31063797329471</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24">
         <v>-8.63161825</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <f t="shared" si="0"/>
         <v>-8.63161825</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>278.177108</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:6">
-      <c r="A25" s="2" t="s">
+      <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>3.97905043688742</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25">
         <v>-8.18573275</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <f t="shared" si="0"/>
         <v>-8.18573275</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>410.94174</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="2" t="s">
+      <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>3.64746290048014</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26">
         <v>-7.534209</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <f t="shared" si="0"/>
         <v>-7.534209</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26">
         <v>515.291824</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="2" t="s">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>3.31587536407285</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27">
         <v>-6.56529875</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <f t="shared" si="0"/>
         <v>-6.56529875</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27">
         <v>765.428943</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27">
         <v>0</v>
       </c>
     </row>
@@ -2257,20 +2252,20 @@
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="3">
         <v>2.98428782766557</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28">
         <v>-5.3080285</v>
       </c>
-      <c r="D28" s="6">
-        <f>C28+F28</f>
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
         <v>-5.3080285</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2278,46 +2273,46 @@
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="3">
         <v>2.65270029125828</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29">
         <v>-3.53590775</v>
       </c>
-      <c r="D29" s="6">
-        <f>C29+F29</f>
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
         <v>-3.53590775</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="5:5">
-      <c r="E30" s="4"/>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" spans="5:5">
-      <c r="E31" s="4"/>
+      <c r="E31" s="3"/>
     </row>
     <row r="32" spans="5:5">
-      <c r="E32" s="4"/>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="4"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="5:5">
-      <c r="E34" s="4"/>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="4"/>
+      <c r="E35" s="3"/>
     </row>
     <row r="36" spans="5:5">
-      <c r="E36" s="4"/>
+      <c r="E36" s="3"/>
     </row>
     <row r="37" spans="5:5">
-      <c r="E37" s="4"/>
+      <c r="E37" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20145" windowHeight="7395" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="9015" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data11" sheetId="1" r:id="rId1"/>
@@ -174,11 +174,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -187,10 +187,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,22 +226,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -230,17 +254,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,16 +269,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,52 +322,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -331,15 +330,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,187 +347,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,6 +538,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -572,6 +576,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -587,22 +600,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,21 +630,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -648,157 +641,156 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1125,8 +1117,7 @@
     <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="12.625"/>
     <col min="3" max="3" width="13.75"/>
-    <col min="4" max="4" width="12.625"/>
-    <col min="5" max="5" width="12.625"/>
+    <col min="4" max="5" width="12.625"/>
     <col min="8" max="10" width="12.625"/>
   </cols>
   <sheetData>
@@ -1622,8 +1613,8 @@
   <sheetPr/>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -1716,10 +1707,10 @@
       <c r="E4" s="3">
         <v>-1.74798</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="1">
         <v>0.0212973013381394</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="1">
         <v>0.0206405764390277</v>
       </c>
     </row>
@@ -1740,10 +1731,10 @@
       <c r="E5" s="3">
         <v>-1.37949</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="1">
         <v>0.0213150838717795</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="1">
         <v>0.02066163725461</v>
       </c>
     </row>
@@ -1764,10 +1755,10 @@
       <c r="E6" s="3">
         <v>-0.649711</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <v>0.0213514365883235</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="1">
         <v>0.0206943201157467</v>
       </c>
     </row>
@@ -1788,10 +1779,10 @@
       <c r="E7" s="3">
         <v>-0.436941</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="1">
         <v>0.0213704943512894</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="1">
         <v>0.0207214062522322</v>
       </c>
     </row>
@@ -1812,10 +1803,10 @@
       <c r="E8" s="3">
         <v>-0.194466</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
         <v>0.0213854811300705</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="1">
         <v>0.0207224978899954</v>
       </c>
     </row>
@@ -1836,10 +1827,10 @@
       <c r="E9" s="3">
         <v>0.083872</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="1">
         <v>0.0214245984414376</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="1">
         <v>0.0207691221463404</v>
       </c>
     </row>
@@ -1860,10 +1851,10 @@
       <c r="E10" s="3">
         <v>0.40474</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="1">
         <v>0.0214416347213709</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="1">
         <v>0.0207971474890624</v>
       </c>
     </row>
@@ -1884,10 +1875,10 @@
       <c r="E11" s="3">
         <v>0.766066</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="1">
         <v>0.0214761407685137</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="1">
         <v>0.0208237304654679</v>
       </c>
     </row>
@@ -1908,10 +1899,10 @@
       <c r="E12" s="3">
         <v>1.209655</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="1">
         <v>0.0214953236250955</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="1">
         <v>0.0208437353704383</v>
       </c>
     </row>
@@ -1932,10 +1923,10 @@
       <c r="E13" s="3">
         <v>1.650845</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="1">
         <v>0.0215045517247771</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="1">
         <v>0.0208632790939217</v>
       </c>
     </row>
@@ -1956,10 +1947,10 @@
       <c r="E14" s="3">
         <v>2.184954</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="1">
         <v>0.0215259662164836</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="1">
         <v>0.0208786517777622</v>
       </c>
     </row>
@@ -1980,10 +1971,10 @@
       <c r="E15" s="3">
         <v>2.81936</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="1">
         <v>0.0215454250434452</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="1">
         <v>0.0209155631075892</v>
       </c>
     </row>
@@ -2004,10 +1995,10 @@
       <c r="E16" s="3">
         <v>3.470399</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="1">
         <v>0.02155955563384</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="1">
         <v>0.02093910836919</v>
       </c>
     </row>
@@ -2028,10 +2019,10 @@
       <c r="E17" s="3">
         <v>8.313759</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="1">
         <v>0.0215758343232551</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="1">
         <v>0.0209624503779583</v>
       </c>
     </row>
@@ -2052,10 +2043,10 @@
       <c r="E18" s="3">
         <v>16.364584</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="1">
         <v>0.0215897807066604</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="1">
         <v>0.0209664669130575</v>
       </c>
     </row>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yerong/Documents/William/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="9015" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3540" yWindow="740" windowWidth="24880" windowHeight="15540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data11" sheetId="1" r:id="rId1"/>
     <sheet name="data12" sheetId="2" r:id="rId2"/>
-    <sheet name="data12_modified" sheetId="3" r:id="rId3"/>
+    <sheet name="CCmd" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -64,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>C(A)</t>
   </si>
@@ -166,373 +179,76 @@
   </si>
   <si>
     <t>z19</t>
+  </si>
+  <si>
+    <t>QM</t>
+  </si>
+  <si>
+    <t>X6S-optimized</t>
+  </si>
+  <si>
+    <t>LJ-optimized</t>
+  </si>
+  <si>
+    <t>X6</t>
+  </si>
+  <si>
+    <t>X6-optimized</t>
+  </si>
+  <si>
+    <t>X6S-original</t>
+  </si>
+  <si>
+    <t>LJ-original</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -540,310 +256,39 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Comma[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
-    <cellStyle name="Currency[0]" xfId="6" builtinId="7"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1104,24 +549,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="C8" sqref="A7:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.25" customWidth="1"/>
-    <col min="2" max="2" width="12.625"/>
-    <col min="3" max="3" width="13.75"/>
-    <col min="4" max="5" width="12.625"/>
-    <col min="8" max="10" width="12.625"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1138,89 +578,89 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>7.734603659</v>
+        <v>7.7346036590000002</v>
       </c>
       <c r="B2">
-        <v>-9.29974075</v>
+        <v>-9.2997407499999998</v>
       </c>
       <c r="C2" s="2">
         <f t="shared" ref="C2:C25" si="0">B2+E2</f>
-        <v>-9.27877112419782</v>
+        <v>-9.278771124197819</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>0.0209696258021805</v>
+        <v>2.0969625802180501E-2</v>
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>7.398316544</v>
+        <v>7.3983165440000001</v>
       </c>
       <c r="B3">
-        <v>-9.303271</v>
+        <v>-9.3032710000000005</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" si="0"/>
-        <v>-9.28217704928256</v>
+        <v>-9.2821770492825575</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>0.0210939507174438</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>2.1093950717443799E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>7.06202942799999</v>
       </c>
       <c r="B4">
-        <v>-9.305298</v>
+        <v>-9.3052980000000005</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>-9.28401399136472</v>
+        <v>-9.2840139913647217</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>0.0212840086352783</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>2.1284008635278299E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>6.99477200493787</v>
+        <v>6.9947720049378699</v>
       </c>
       <c r="B5">
-        <v>-9.30541825</v>
+        <v>-9.3054182500000007</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>-9.28414069068237</v>
+        <v>-9.2841406906823707</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>0.0212775593176295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>2.1277559317629501E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>6.92751458181347</v>
+        <v>6.9275145818134698</v>
       </c>
       <c r="B6">
-        <v>-9.305416</v>
+        <v>-9.3054159999999992</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>-9.305416</v>
+        <v>-9.3054159999999992</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
@@ -1229,70 +669,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>6.86025715868907</v>
+        <v>6.8602571586890697</v>
       </c>
       <c r="B7">
-        <v>-9.305258</v>
+        <v>-9.3052580000000003</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>-9.28394005617462</v>
+        <v>-9.2839400561746181</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>0.0213179438253818</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>2.13179438253818E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>6.79299973556466</v>
+        <v>6.7929997355646599</v>
       </c>
       <c r="B8">
-        <v>-9.30494375</v>
+        <v>-9.3049437499999996</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>-9.28360454025992</v>
+        <v>-9.2836045402599225</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0213392097400774</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>2.13392097400774E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>6.72574231244026</v>
+        <v>6.7257423124402598</v>
       </c>
       <c r="B9">
-        <v>-9.30443575</v>
+        <v>-9.3044357499999997</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>-9.28085089283634</v>
+        <v>-9.2808508928363356</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>0.0235848571636644</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>2.3584857163664399E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>6.65848488931586</v>
+        <v>6.6584848893158597</v>
       </c>
       <c r="B10">
-        <v>-9.303711</v>
+        <v>-9.3037109999999998</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>-9.303711</v>
+        <v>-9.3037109999999998</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
@@ -1301,16 +741,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>6.59122746619145</v>
+        <v>6.5912274661914498</v>
       </c>
       <c r="B11">
-        <v>-9.3027445</v>
+        <v>-9.3027444999999993</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>-9.3027445</v>
+        <v>-9.3027444999999993</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
@@ -1319,16 +759,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>6.52397004306705</v>
+        <v>6.5239700430670498</v>
       </c>
       <c r="B12">
-        <v>-9.30149675</v>
+        <v>-9.3014967500000001</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>-9.30149675</v>
+        <v>-9.3014967500000001</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
@@ -1337,16 +777,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>6.45671261994265</v>
+        <v>6.4567126199426497</v>
       </c>
       <c r="B13">
-        <v>-9.29993175</v>
+        <v>-9.2999317500000007</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>-9.29993175</v>
+        <v>-9.2999317500000007</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
@@ -1355,187 +795,187 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>6.389455197</v>
+        <v>6.3894551970000002</v>
       </c>
       <c r="B14">
-        <v>-9.2980065</v>
+        <v>-9.2980064999999996</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>-9.2765447062902</v>
+        <v>-9.2765447062901956</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>0.0214617937098034</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>2.14617937098034E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>6.05316808099999</v>
+        <v>6.0531680809999902</v>
       </c>
       <c r="B15">
-        <v>-9.281312</v>
+        <v>-9.2813119999999998</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>-9.25981534941733</v>
+        <v>-9.2598153494173285</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>0.0214966505826721</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>2.1496650582672101E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>5.71688096599999</v>
       </c>
       <c r="B16">
-        <v>-9.24699775</v>
+        <v>-9.2469977500000002</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="0"/>
-        <v>-9.22545581578752</v>
+        <v>-9.2254558157875159</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>0.0215419342124851</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>2.1541934212485101E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>5.38059385</v>
+        <v>5.3805938500000003</v>
       </c>
       <c r="B17">
-        <v>-9.18425575</v>
+        <v>-9.1842557500000002</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>-9.16266257845306</v>
+        <v>-9.1626625784530553</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>0.0215931715469442</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>2.15931715469442E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>5.044306734</v>
+        <v>5.0443067340000001</v>
       </c>
       <c r="B18">
-        <v>-9.07655725</v>
+        <v>-9.0765572500000005</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>-9.05490492455843</v>
+        <v>-9.0549049245584285</v>
       </c>
       <c r="D18" s="3">
         <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>0.0216523254415718</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>2.16523254415718E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>4.70801961899999</v>
+        <v>4.7080196189999901</v>
       </c>
       <c r="B19">
-        <v>-8.89676175</v>
+        <v>-8.8967617499999996</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="0"/>
-        <v>-8.87509644543177</v>
+        <v>-8.8750964454317689</v>
       </c>
       <c r="D19" s="3">
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>0.0216653045682302</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>2.1665304568230199E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>4.37173250299999</v>
+        <v>4.3717325029999898</v>
       </c>
       <c r="B20">
-        <v>-8.610972</v>
+        <v>-8.6109720000000003</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="0"/>
-        <v>-8.58969112874629</v>
+        <v>-8.5896911287462938</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>0.021280871253706</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>2.1280871253706E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>4.035445387</v>
+        <v>4.0354453870000002</v>
       </c>
       <c r="B21">
-        <v>-8.184804</v>
+        <v>-8.1848039999999997</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="0"/>
-        <v>-8.1644223392305</v>
+        <v>-8.1644223392305033</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>0.0203816607694967</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>2.0381660769496698E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>3.69915827100001</v>
+        <v>3.6991582710000102</v>
       </c>
       <c r="B22">
-        <v>-7.561232</v>
+        <v>-7.5612320000000004</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="0"/>
-        <v>-7.54245840350752</v>
+        <v>-7.5424584035075215</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>0.0187735964924786</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>1.87735964924786E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>3.36287115500002</v>
+        <v>3.3628711550000201</v>
       </c>
       <c r="B23">
-        <v>-6.6218255</v>
+        <v>-6.6218254999999999</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="0"/>
-        <v>-6.60562327498075</v>
+        <v>-6.6056232749807471</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>0.0162022250192528</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>1.6202225019252801E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>3.02658403900003</v>
       </c>
@@ -1544,90 +984,84 @@
       </c>
       <c r="C24" s="2">
         <f t="shared" si="0"/>
-        <v>-5.36397948973004</v>
+        <v>-5.3639794897300401</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>0.0160915102699602</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>1.60915102699602E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>2.69029692300004</v>
       </c>
       <c r="B25">
-        <v>-3.654861</v>
+        <v>-3.6548609999999999</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="0"/>
-        <v>-3.63930487592718</v>
+        <v>-3.6393048759271784</v>
       </c>
       <c r="D25" s="3">
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>0.0155561240728216</v>
-      </c>
-    </row>
-    <row r="28" spans="4:4">
+        <v>1.55561240728216E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="4:4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="4:4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="4:4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="4:4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="4:4">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="4:4">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="4:4">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="4:4">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D37" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.25" customWidth="1"/>
-    <col min="2" max="2" width="12.625"/>
-    <col min="3" max="4" width="13.75"/>
-    <col min="5" max="5" width="12.625"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
-    <col min="7" max="7" width="12.625"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1648,16 +1082,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="2:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" s="2">
-        <v>7.62651333736756</v>
+        <v>7.6265133373675598</v>
       </c>
       <c r="C2">
-        <v>-9.35571075</v>
+        <v>-9.3557107500000001</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D29" si="0">C2+F2</f>
-        <v>-9.35571075</v>
+        <v>-9.3557107500000001</v>
       </c>
       <c r="E2" s="3">
         <v>0</v>
@@ -1669,16 +1103,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="2:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
-        <v>7.29492580096027</v>
+        <v>7.2949258009602698</v>
       </c>
       <c r="C3">
-        <v>-9.36041425</v>
+        <v>-9.3604142499999998</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>-9.36041425</v>
+        <v>-9.3604142499999998</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
@@ -1690,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1698,119 +1132,119 @@
         <v>7.0959732791159</v>
       </c>
       <c r="C4">
-        <v>-9.36272175</v>
+        <v>-9.3627217500000004</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>-9.34142444866186</v>
+        <v>-9.3414244486618614</v>
       </c>
       <c r="E4" s="3">
-        <v>-1.74798</v>
+        <v>-1.7479800000000001</v>
       </c>
       <c r="F4" s="1">
-        <v>0.0212973013381394</v>
+        <v>2.12973013381394E-2</v>
       </c>
       <c r="G4" s="1">
-        <v>0.0206405764390277</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:7">
+        <v>2.06405764390277E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>7.02965577183444</v>
+        <v>7.0296557718344399</v>
       </c>
       <c r="C5">
-        <v>-9.36334625</v>
+        <v>-9.3633462499999993</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>-9.34203116612822</v>
+        <v>-9.3420311661282192</v>
       </c>
       <c r="E5" s="3">
-        <v>-1.37949</v>
+        <v>-1.3794900000000001</v>
       </c>
       <c r="F5" s="1">
-        <v>0.0213150838717795</v>
+        <v>2.1315083871779501E-2</v>
       </c>
       <c r="G5" s="1">
-        <v>0.02066163725461</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:7">
+        <v>2.066163725461E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>6.96333826455299</v>
+        <v>6.9633382645529904</v>
       </c>
       <c r="C6">
-        <v>-9.36387875</v>
+        <v>-9.3638787499999996</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>-9.34252731341168</v>
+        <v>-9.3425273134116757</v>
       </c>
       <c r="E6" s="3">
-        <v>-0.649711</v>
+        <v>-0.64971100000000004</v>
       </c>
       <c r="F6" s="1">
-        <v>0.0213514365883235</v>
+        <v>2.1351436588323499E-2</v>
       </c>
       <c r="G6" s="1">
-        <v>0.0206943201157467</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:7">
+        <v>2.0694320115746699E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>6.89702075727153</v>
+        <v>6.8970207572715303</v>
       </c>
       <c r="C7">
-        <v>-9.364291</v>
+        <v>-9.3642909999999997</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>-9.34292050564871</v>
+        <v>-9.3429205056487099</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.436941</v>
+        <v>-0.43694100000000002</v>
       </c>
       <c r="F7" s="1">
-        <v>0.0213704943512894</v>
+        <v>2.1370494351289401E-2</v>
       </c>
       <c r="G7" s="1">
-        <v>0.0207214062522322</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:7">
+        <v>2.0721406252232202E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>6.83070324999007</v>
+        <v>6.8307032499900702</v>
       </c>
       <c r="C8">
         <v>-9.36458075</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>-9.34319526886993</v>
+        <v>-9.3431952688699287</v>
       </c>
       <c r="E8" s="3">
         <v>-0.194466</v>
       </c>
       <c r="F8" s="1">
-        <v>0.0213854811300705</v>
+        <v>2.1385481130070501E-2</v>
       </c>
       <c r="G8" s="1">
-        <v>0.0207224978899954</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:7">
+        <v>2.07224978899954E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1818,251 +1252,251 @@
         <v>6.76438574270861</v>
       </c>
       <c r="C9">
-        <v>-9.36471925</v>
+        <v>-9.3647192500000003</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>-9.34329465155856</v>
+        <v>-9.343294651558562</v>
       </c>
       <c r="E9" s="3">
-        <v>0.083872</v>
+        <v>8.3872000000000002E-2</v>
       </c>
       <c r="F9" s="1">
-        <v>0.0214245984414376</v>
+        <v>2.1424598441437601E-2</v>
       </c>
       <c r="G9" s="1">
-        <v>0.0207691221463404</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:7">
+        <v>2.0769122146340399E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10">
-        <v>6.69806823542716</v>
+        <v>6.6980682354271597</v>
       </c>
       <c r="C10">
-        <v>-9.364684</v>
+        <v>-9.3646840000000005</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
-        <v>-9.34324236527863</v>
+        <v>-9.3432423652786287</v>
       </c>
       <c r="E10" s="3">
-        <v>0.40474</v>
+        <v>0.40473999999999999</v>
       </c>
       <c r="F10" s="1">
-        <v>0.0214416347213709</v>
+        <v>2.1441634721370902E-2</v>
       </c>
       <c r="G10" s="1">
-        <v>0.0207971474890624</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:7">
+        <v>2.07971474890624E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>6.6317507281457</v>
+        <v>6.6317507281457004</v>
       </c>
       <c r="C11">
-        <v>-9.36446125</v>
+        <v>-9.3644612499999997</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="0"/>
-        <v>-9.34298510923149</v>
+        <v>-9.3429851092314866</v>
       </c>
       <c r="E11" s="3">
-        <v>0.766066</v>
+        <v>0.76606600000000002</v>
       </c>
       <c r="F11" s="1">
-        <v>0.0214761407685137</v>
+        <v>2.1476140768513698E-2</v>
       </c>
       <c r="G11" s="1">
-        <v>0.0208237304654679</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:7">
+        <v>2.0823730465467899E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>6.56543322086424</v>
+        <v>6.5654332208642403</v>
       </c>
       <c r="C12">
-        <v>-9.36401425</v>
+        <v>-9.3640142500000003</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" si="0"/>
-        <v>-9.3425189263749</v>
+        <v>-9.342518926374904</v>
       </c>
       <c r="E12" s="3">
-        <v>1.209655</v>
+        <v>1.2096549999999999</v>
       </c>
       <c r="F12" s="1">
-        <v>0.0214953236250955</v>
+        <v>2.14953236250955E-2</v>
       </c>
       <c r="G12" s="1">
-        <v>0.0208437353704383</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:7">
+        <v>2.08437353704383E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>6.49911571358279</v>
+        <v>6.4991157135827899</v>
       </c>
       <c r="C13">
-        <v>-9.363318</v>
+        <v>-9.3633179999999996</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" si="0"/>
-        <v>-9.34181344827522</v>
+        <v>-9.3418134482752233</v>
       </c>
       <c r="E13" s="3">
-        <v>1.650845</v>
+        <v>1.6508449999999999</v>
       </c>
       <c r="F13" s="1">
-        <v>0.0215045517247771</v>
+        <v>2.15045517247771E-2</v>
       </c>
       <c r="G13" s="1">
-        <v>0.0208632790939217</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:7">
+        <v>2.0863279093921699E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>6.43279820630133</v>
+        <v>6.4327982063013298</v>
       </c>
       <c r="C14">
-        <v>-9.36232725</v>
+        <v>-9.3623272499999999</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" si="0"/>
-        <v>-9.34080128378352</v>
+        <v>-9.3408012837835166</v>
       </c>
       <c r="E14" s="3">
-        <v>2.184954</v>
+        <v>2.1849539999999998</v>
       </c>
       <c r="F14" s="1">
-        <v>0.0215259662164836</v>
+        <v>2.1525966216483599E-2</v>
       </c>
       <c r="G14" s="1">
-        <v>0.0208786517777622</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:7">
+        <v>2.08786517777622E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>6.36648069901987</v>
+        <v>6.3664806990198697</v>
       </c>
       <c r="C15">
-        <v>-9.3610255</v>
+        <v>-9.3610255000000002</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="0"/>
-        <v>-9.33948007495655</v>
+        <v>-9.3394800749565547</v>
       </c>
       <c r="E15" s="3">
-        <v>2.81936</v>
+        <v>2.8193600000000001</v>
       </c>
       <c r="F15" s="1">
-        <v>0.0215454250434452</v>
+        <v>2.1545425043445199E-2</v>
       </c>
       <c r="G15" s="1">
-        <v>0.0209155631075892</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:7">
+        <v>2.09155631075892E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>6.30016319173841</v>
+        <v>6.3001631917384104</v>
       </c>
       <c r="C16">
-        <v>-9.359363</v>
+        <v>-9.3593630000000001</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" si="0"/>
-        <v>-9.33780344436616</v>
+        <v>-9.3378034443661608</v>
       </c>
       <c r="E16" s="3">
         <v>3.470399</v>
       </c>
       <c r="F16" s="1">
-        <v>0.02155955563384</v>
+        <v>2.1559555633839999E-2</v>
       </c>
       <c r="G16" s="1">
-        <v>0.02093910836919</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:7">
+        <v>2.0939108369189999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17">
-        <v>6.23384568445696</v>
+        <v>6.2338456844569601</v>
       </c>
       <c r="C17">
-        <v>-9.3572985</v>
+        <v>-9.3572985000000006</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" si="0"/>
-        <v>-9.33572266567675</v>
+        <v>-9.3357226656767462</v>
       </c>
       <c r="E17" s="3">
-        <v>8.313759</v>
+        <v>8.3137589999999992</v>
       </c>
       <c r="F17" s="1">
-        <v>0.0215758343232551</v>
+        <v>2.1575834323255098E-2</v>
       </c>
       <c r="G17" s="1">
-        <v>0.0209624503779583</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:7">
+        <v>2.0962450377958301E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
       <c r="B18">
-        <v>6.1675281771755</v>
+        <v>6.1675281771754999</v>
       </c>
       <c r="C18">
-        <v>-9.35477725</v>
+        <v>-9.3547772499999997</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" si="0"/>
-        <v>-9.33318746929334</v>
+        <v>-9.333187469293339</v>
       </c>
       <c r="E18" s="3">
-        <v>16.364584</v>
+        <v>16.364584000000001</v>
       </c>
       <c r="F18" s="1">
-        <v>0.0215897807066604</v>
+        <v>2.15897807066604E-2</v>
       </c>
       <c r="G18" s="1">
-        <v>0.0209664669130575</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:6">
+        <v>2.0966466913057501E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>5.96857565533113</v>
+        <v>5.9685756553311302</v>
       </c>
       <c r="C19">
-        <v>-9.3439195</v>
+        <v>-9.3439195000000002</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" si="0"/>
-        <v>-9.3439195</v>
+        <v>-9.3439195000000002</v>
       </c>
       <c r="E19" s="3">
         <v>29.162834</v>
@@ -2071,7 +1505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="1:6">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -2079,11 +1513,11 @@
         <v>5.63698811892385</v>
       </c>
       <c r="C20">
-        <v>-9.31057675</v>
+        <v>-9.3105767499999992</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" si="0"/>
-        <v>-9.31057675</v>
+        <v>-9.3105767499999992</v>
       </c>
       <c r="E20" s="3">
         <v>49.590418</v>
@@ -2092,7 +1526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="1" spans="1:6">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2100,32 +1534,32 @@
         <v>5.30540058251656</v>
       </c>
       <c r="C21">
-        <v>-9.2470915</v>
+        <v>-9.2470914999999998</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" si="0"/>
-        <v>-9.2470915</v>
+        <v>-9.2470914999999998</v>
       </c>
       <c r="E21" s="3">
-        <v>81.795232</v>
+        <v>81.795231999999999</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" customFormat="1" spans="1:6">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>4.97381304610928</v>
+        <v>4.9738130461092798</v>
       </c>
       <c r="C22">
-        <v>-9.13348925</v>
+        <v>-9.1334892500000002</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" si="0"/>
-        <v>-9.13348925</v>
+        <v>-9.1334892500000002</v>
       </c>
       <c r="E22" s="3">
         <v>126.264436</v>
@@ -2134,49 +1568,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" customFormat="1" spans="1:6">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="2">
-        <v>4.64222550970199</v>
+        <v>4.6422255097019898</v>
       </c>
       <c r="C23">
-        <v>-8.9380785</v>
+        <v>-8.9380784999999996</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" si="0"/>
-        <v>-8.9380785</v>
+        <v>-8.9380784999999996</v>
       </c>
       <c r="E23" s="3">
-        <v>184.537527</v>
+        <v>184.53752700000001</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" customFormat="1" spans="1:6">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="2">
-        <v>4.31063797329471</v>
+        <v>4.3106379732947104</v>
       </c>
       <c r="C24">
-        <v>-8.63161825</v>
+        <v>-8.6316182500000007</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" si="0"/>
-        <v>-8.63161825</v>
+        <v>-8.6316182500000007</v>
       </c>
       <c r="E24" s="3">
-        <v>278.177108</v>
+        <v>278.17710799999998</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" customFormat="1" spans="1:6">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -2184,53 +1618,53 @@
         <v>3.97905043688742</v>
       </c>
       <c r="C25">
-        <v>-8.18573275</v>
+        <v>-8.1857327499999997</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" si="0"/>
-        <v>-8.18573275</v>
+        <v>-8.1857327499999997</v>
       </c>
       <c r="E25" s="3">
-        <v>410.94174</v>
+        <v>410.94173999999998</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="2">
-        <v>3.64746290048014</v>
+        <v>3.6474629004801402</v>
       </c>
       <c r="C26">
-        <v>-7.534209</v>
+        <v>-7.5342089999999997</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" si="0"/>
-        <v>-7.534209</v>
+        <v>-7.5342089999999997</v>
       </c>
       <c r="E26">
-        <v>515.291824</v>
+        <v>515.29182400000002</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
       <c r="B27" s="2">
-        <v>3.31587536407285</v>
+        <v>3.3158753640728502</v>
       </c>
       <c r="C27">
-        <v>-6.56529875</v>
+        <v>-6.5652987500000002</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" si="0"/>
-        <v>-6.56529875</v>
+        <v>-6.5652987500000002</v>
       </c>
       <c r="E27">
         <v>765.428943</v>
@@ -2239,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
@@ -2247,11 +1681,11 @@
         <v>2.98428782766557</v>
       </c>
       <c r="C28">
-        <v>-5.3080285</v>
+        <v>-5.3080284999999998</v>
       </c>
       <c r="D28" s="3">
         <f t="shared" si="0"/>
-        <v>-5.3080285</v>
+        <v>-5.3080284999999998</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -2260,7 +1694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
@@ -2268,11 +1702,11 @@
         <v>2.65270029125828</v>
       </c>
       <c r="C29">
-        <v>-3.53590775</v>
+        <v>-3.5359077499999998</v>
       </c>
       <c r="D29" s="3">
         <f t="shared" si="0"/>
-        <v>-3.53590775</v>
+        <v>-3.5359077499999998</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -2281,53 +1715,515 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="5:5">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="5:5">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="5:5">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="5:5">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="5:5">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="5:5">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="5:5">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="5:5">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E37" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="12.625"/>
-    <col min="5" max="5" width="11.5"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>7.0959732791159</v>
+      </c>
+      <c r="C2">
+        <v>-1.1932500000000346</v>
+      </c>
+      <c r="D2">
+        <v>1.11E-2</v>
+      </c>
+      <c r="E2">
+        <v>-0.2087</v>
+      </c>
+      <c r="F2">
+        <v>-0.48899999999999999</v>
+      </c>
+      <c r="G2">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="H2">
+        <v>-0.43709999999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.22750000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>7.0296557718344399</v>
+      </c>
+      <c r="C3">
+        <v>-1.2076486595174174</v>
+      </c>
+      <c r="D3">
+        <v>-1.0699999999999999E-2</v>
+      </c>
+      <c r="E3">
+        <v>-0.2175</v>
+      </c>
+      <c r="F3">
+        <v>-0.50070000000000003</v>
+      </c>
+      <c r="G3">
+        <v>0.22689999999999999</v>
+      </c>
+      <c r="H3">
+        <v>-0.44840000000000002</v>
+      </c>
+      <c r="I3">
+        <v>0.22739999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6.9633382645529904</v>
+      </c>
+      <c r="C4">
+        <v>-1.2199261394102052</v>
+      </c>
+      <c r="D4">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="E4">
+        <v>-0.22639999999999999</v>
+      </c>
+      <c r="F4">
+        <v>-0.51090000000000002</v>
+      </c>
+      <c r="G4">
+        <v>0.2268</v>
+      </c>
+      <c r="H4">
+        <v>-0.4582</v>
+      </c>
+      <c r="I4">
+        <v>0.2273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6.8970207572715303</v>
+      </c>
+      <c r="C5">
+        <v>-1.2294310991957218</v>
+      </c>
+      <c r="D5">
+        <v>-5.91E-2</v>
+      </c>
+      <c r="E5">
+        <v>-0.23549999999999999</v>
+      </c>
+      <c r="F5">
+        <v>-0.51939999999999997</v>
+      </c>
+      <c r="G5">
+        <v>0.22670000000000001</v>
+      </c>
+      <c r="H5">
+        <v>-0.46600000000000003</v>
+      </c>
+      <c r="I5">
+        <v>0.2273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6.8307032499900702</v>
+      </c>
+      <c r="C6">
+        <v>-1.2361116621983967</v>
+      </c>
+      <c r="D6">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="E6">
+        <v>-0.24479999999999999</v>
+      </c>
+      <c r="F6">
+        <v>-0.52569999999999995</v>
+      </c>
+      <c r="G6">
+        <v>0.2266</v>
+      </c>
+      <c r="H6">
+        <v>-0.47139999999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.22720000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6.76438574270861</v>
+      </c>
+      <c r="C7">
+        <v>-1.2393049597855281</v>
+      </c>
+      <c r="D7">
+        <v>-0.1149</v>
+      </c>
+      <c r="E7">
+        <v>-0.25430000000000003</v>
+      </c>
+      <c r="F7">
+        <v>-0.52949999999999997</v>
+      </c>
+      <c r="G7">
+        <v>0.22650000000000001</v>
+      </c>
+      <c r="H7">
+        <v>-0.47389999999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.2271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>6.6980682354271597</v>
+      </c>
+      <c r="C8">
+        <v>-1.2384922252011279</v>
+      </c>
+      <c r="D8">
+        <v>-0.1459</v>
+      </c>
+      <c r="E8">
+        <v>-0.2641</v>
+      </c>
+      <c r="F8">
+        <v>-0.53010000000000002</v>
+      </c>
+      <c r="G8">
+        <v>0.22639999999999999</v>
+      </c>
+      <c r="H8">
+        <v>-0.47289999999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.2271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2">
+        <v>6.6317507281457004</v>
+      </c>
+      <c r="C9">
+        <v>-1.2333564343163914</v>
+      </c>
+      <c r="D9">
+        <v>-0.17910000000000001</v>
+      </c>
+      <c r="E9">
+        <v>-0.27400000000000002</v>
+      </c>
+      <c r="F9">
+        <v>-0.52690000000000003</v>
+      </c>
+      <c r="G9">
+        <v>0.22620000000000001</v>
+      </c>
+      <c r="H9">
+        <v>-0.46760000000000002</v>
+      </c>
+      <c r="I9">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6.5654332208642403</v>
+      </c>
+      <c r="C10">
+        <v>-1.2230502680965287</v>
+      </c>
+      <c r="D10">
+        <v>-0.2147</v>
+      </c>
+      <c r="E10">
+        <v>-0.28420000000000001</v>
+      </c>
+      <c r="F10">
+        <v>-0.51939999999999997</v>
+      </c>
+      <c r="G10">
+        <v>0.2261</v>
+      </c>
+      <c r="H10">
+        <v>-0.4572</v>
+      </c>
+      <c r="I10">
+        <v>0.22689999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2">
+        <v>6.4991157135827899</v>
+      </c>
+      <c r="C11">
+        <v>-1.2069973190348833</v>
+      </c>
+      <c r="D11">
+        <v>-0.25290000000000001</v>
+      </c>
+      <c r="E11">
+        <v>-0.29449999999999998</v>
+      </c>
+      <c r="F11">
+        <v>-0.50649999999999995</v>
+      </c>
+      <c r="G11">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="H11">
+        <v>-0.44080000000000003</v>
+      </c>
+      <c r="I11">
+        <v>0.2268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2">
+        <v>6.4327982063013298</v>
+      </c>
+      <c r="C12">
+        <v>-1.1841542895442672</v>
+      </c>
+      <c r="D12">
+        <v>-0.29380000000000001</v>
+      </c>
+      <c r="E12">
+        <v>-0.30509999999999998</v>
+      </c>
+      <c r="F12">
+        <v>-0.4874</v>
+      </c>
+      <c r="G12">
+        <v>0.2258</v>
+      </c>
+      <c r="H12">
+        <v>-0.4173</v>
+      </c>
+      <c r="I12">
+        <v>0.22670000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2">
+        <v>6.3664806990198697</v>
+      </c>
+      <c r="C13">
+        <v>-1.1541407506702797</v>
+      </c>
+      <c r="D13">
+        <v>-0.3377</v>
+      </c>
+      <c r="E13">
+        <v>-0.316</v>
+      </c>
+      <c r="F13">
+        <v>-0.46100000000000002</v>
+      </c>
+      <c r="G13">
+        <v>0.22570000000000001</v>
+      </c>
+      <c r="H13">
+        <v>-0.38540000000000002</v>
+      </c>
+      <c r="I13">
+        <v>0.2266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2">
+        <v>6.3001631917384104</v>
+      </c>
+      <c r="C14">
+        <v>-1.1158096514745637</v>
+      </c>
+      <c r="D14">
+        <v>-0.38479999999999998</v>
+      </c>
+      <c r="E14">
+        <v>-0.32700000000000001</v>
+      </c>
+      <c r="F14">
+        <v>-0.4259</v>
+      </c>
+      <c r="G14">
+        <v>0.22550000000000001</v>
+      </c>
+      <c r="H14">
+        <v>-0.34350000000000003</v>
+      </c>
+      <c r="I14">
+        <v>0.22650000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>6.2338456844569601</v>
+      </c>
+      <c r="C15">
+        <v>-1.0682099195710748</v>
+      </c>
+      <c r="D15">
+        <v>-0.43519999999999998</v>
+      </c>
+      <c r="E15">
+        <v>-0.33829999999999999</v>
+      </c>
+      <c r="F15">
+        <v>-0.38069999999999998</v>
+      </c>
+      <c r="G15">
+        <v>0.22539999999999999</v>
+      </c>
+      <c r="H15">
+        <v>-0.29020000000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.2263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>6.1675281771754999</v>
+      </c>
+      <c r="C16">
+        <v>-1.0100792225201189</v>
+      </c>
+      <c r="D16">
+        <v>-0.48930000000000001</v>
+      </c>
+      <c r="E16">
+        <v>-0.34989999999999999</v>
+      </c>
+      <c r="F16">
+        <v>-0.3236</v>
+      </c>
+      <c r="G16">
+        <v>0.22520000000000001</v>
+      </c>
+      <c r="H16">
+        <v>-0.2233</v>
+      </c>
+      <c r="I16">
+        <v>0.22620000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="740" windowWidth="24880" windowHeight="15540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="6060" yWindow="3540" windowWidth="24680" windowHeight="15540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data11" sheetId="1" r:id="rId1"/>
@@ -1750,7 +1750,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1807,13 +1807,13 @@
         <v>-0.48899999999999999</v>
       </c>
       <c r="G2">
-        <v>0.22700000000000001</v>
+        <v>-1.1224000000000001</v>
       </c>
       <c r="H2">
         <v>-0.43709999999999999</v>
       </c>
       <c r="I2">
-        <v>0.22750000000000001</v>
+        <v>-1.1273</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1836,13 +1836,13 @@
         <v>-0.50070000000000003</v>
       </c>
       <c r="G3">
-        <v>0.22689999999999999</v>
+        <v>-1.1551</v>
       </c>
       <c r="H3">
         <v>-0.44840000000000002</v>
       </c>
       <c r="I3">
-        <v>0.22739999999999999</v>
+        <v>-1.1593</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1865,13 +1865,13 @@
         <v>-0.51090000000000002</v>
       </c>
       <c r="G4">
-        <v>0.2268</v>
+        <v>-1.1852</v>
       </c>
       <c r="H4">
         <v>-0.4582</v>
       </c>
       <c r="I4">
-        <v>0.2273</v>
+        <v>-1.1886000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1894,13 +1894,13 @@
         <v>-0.51939999999999997</v>
       </c>
       <c r="G5">
-        <v>0.22670000000000001</v>
+        <v>-1.2121999999999999</v>
       </c>
       <c r="H5">
         <v>-0.46600000000000003</v>
       </c>
       <c r="I5">
-        <v>0.2273</v>
+        <v>-1.2143999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1923,13 +1923,13 @@
         <v>-0.52569999999999995</v>
       </c>
       <c r="G6">
-        <v>0.2266</v>
+        <v>-1.2352000000000001</v>
       </c>
       <c r="H6">
         <v>-0.47139999999999999</v>
       </c>
       <c r="I6">
-        <v>0.22720000000000001</v>
+        <v>-1.2361</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1952,13 +1952,13 @@
         <v>-0.52949999999999997</v>
       </c>
       <c r="G7">
-        <v>0.22650000000000001</v>
+        <v>-1.2532000000000001</v>
       </c>
       <c r="H7">
         <v>-0.47389999999999999</v>
       </c>
       <c r="I7">
-        <v>0.2271</v>
+        <v>-1.2525999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1981,13 +1981,13 @@
         <v>-0.53010000000000002</v>
       </c>
       <c r="G8">
-        <v>0.22639999999999999</v>
+        <v>-1.2652000000000001</v>
       </c>
       <c r="H8">
         <v>-0.47289999999999999</v>
       </c>
       <c r="I8">
-        <v>0.2271</v>
+        <v>-1.2632000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2010,13 +2010,13 @@
         <v>-0.52690000000000003</v>
       </c>
       <c r="G9">
-        <v>0.22620000000000001</v>
+        <v>-1.27</v>
       </c>
       <c r="H9">
         <v>-0.46760000000000002</v>
       </c>
       <c r="I9">
-        <v>0.22700000000000001</v>
+        <v>-1.2665</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2039,13 +2039,13 @@
         <v>-0.51939999999999997</v>
       </c>
       <c r="G10">
-        <v>0.2261</v>
+        <v>-1.266</v>
       </c>
       <c r="H10">
         <v>-0.4572</v>
       </c>
       <c r="I10">
-        <v>0.22689999999999999</v>
+        <v>-1.2613000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2068,13 +2068,13 @@
         <v>-0.50649999999999995</v>
       </c>
       <c r="G11">
-        <v>0.22600000000000001</v>
+        <v>-1.2516</v>
       </c>
       <c r="H11">
         <v>-0.44080000000000003</v>
       </c>
       <c r="I11">
-        <v>0.2268</v>
+        <v>-1.2462</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2097,13 +2097,13 @@
         <v>-0.4874</v>
       </c>
       <c r="G12">
-        <v>0.2258</v>
+        <v>-1.2246999999999999</v>
       </c>
       <c r="H12">
         <v>-0.4173</v>
       </c>
       <c r="I12">
-        <v>0.22670000000000001</v>
+        <v>-1.2194</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2126,13 +2126,13 @@
         <v>-0.46100000000000002</v>
       </c>
       <c r="G13">
-        <v>0.22570000000000001</v>
+        <v>-1.1832</v>
       </c>
       <c r="H13">
         <v>-0.38540000000000002</v>
       </c>
       <c r="I13">
-        <v>0.2266</v>
+        <v>-1.1791</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2155,13 +2155,13 @@
         <v>-0.4259</v>
       </c>
       <c r="G14">
-        <v>0.22550000000000001</v>
+        <v>-1.1243000000000001</v>
       </c>
       <c r="H14">
         <v>-0.34350000000000003</v>
       </c>
       <c r="I14">
-        <v>0.22650000000000001</v>
+        <v>-1.1232</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2184,13 +2184,13 @@
         <v>-0.38069999999999998</v>
       </c>
       <c r="G15">
-        <v>0.22539999999999999</v>
+        <v>-1.0448999999999999</v>
       </c>
       <c r="H15">
         <v>-0.29020000000000001</v>
       </c>
       <c r="I15">
-        <v>0.2263</v>
+        <v>-1.0491999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2213,13 +2213,13 @@
         <v>-0.3236</v>
       </c>
       <c r="G16">
-        <v>0.22520000000000001</v>
+        <v>-0.94140000000000001</v>
       </c>
       <c r="H16">
         <v>-0.2233</v>
       </c>
       <c r="I16">
-        <v>0.22620000000000001</v>
+        <v>-0.95450000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17835" windowHeight="8985" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="7950" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data11" sheetId="1" r:id="rId1"/>
     <sheet name="data12" sheetId="2" r:id="rId2"/>
     <sheet name="CCmd" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="ExternalData_1" localSheetId="2">CCmd!$K$2:$K$16</definedName>
+  </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
@@ -61,8 +64,20 @@
 </comments>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="tmp" type="6" background="1" refreshedVersion="2" saveData="1">
+    <textPr sourceFile="F:\William\tmp\tmp.txt">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>C(A)</t>
   </si>
@@ -192,36 +207,24 @@
   <si>
     <t>Vop-optimized</t>
   </si>
+  <si>
+    <t>EXP2-optimized</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -236,10 +239,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -250,48 +253,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -312,22 +293,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,8 +314,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,10 +330,54 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -372,43 +390,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,7 +408,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,31 +516,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,79 +570,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,16 +594,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,15 +630,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,16 +650,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,173 +675,167 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -876,6 +890,16 @@
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
+    <queryTableFields count="1">
+      <queryTableField id="1" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1157,7 +1181,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1165,111 +1189,111 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="8">
+      <c r="A2" s="5">
         <v>7.734603659</v>
       </c>
       <c r="B2">
         <v>-9.29974075</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="5">
         <f t="shared" ref="C2:C25" si="0">B2+E2</f>
         <v>-9.27877112419782</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="4">
         <v>0</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="5">
         <v>0.0209696258021805</v>
       </c>
-      <c r="I2" s="8"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="8">
+      <c r="A3" s="5">
         <v>7.398316544</v>
       </c>
       <c r="B3">
         <v>-9.303271</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="5">
         <f t="shared" si="0"/>
         <v>-9.28217704928256</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="4">
         <v>0</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="5">
         <v>0.0210939507174438</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="8">
+      <c r="A4" s="5">
         <v>7.06202942799999</v>
       </c>
       <c r="B4">
         <v>-9.305298</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="5">
         <f t="shared" si="0"/>
         <v>-9.28401399136472</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="4">
         <v>0</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="5">
         <v>0.0212840086352783</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="8">
+      <c r="A5" s="5">
         <v>6.99477200493787</v>
       </c>
       <c r="B5">
         <v>-9.30541825</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <f t="shared" si="0"/>
         <v>-9.28414069068237</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="4">
         <v>0</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="5">
         <v>0.0212775593176295</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="8">
+      <c r="A6" s="5">
         <v>6.92751458181347</v>
       </c>
       <c r="B6">
         <v>-9.305416</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="5">
         <f t="shared" si="0"/>
         <v>-9.305416</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="4">
         <v>0</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="8">
+      <c r="A7" s="5">
         <v>6.86025715868907</v>
       </c>
       <c r="B7">
         <v>-9.305258</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <f t="shared" si="0"/>
         <v>-9.28394005617462</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="4">
         <v>0</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="5">
         <v>0.0213179438253818</v>
       </c>
     </row>
@@ -1280,11 +1304,11 @@
       <c r="B8">
         <v>-9.30494375</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="5">
         <f t="shared" si="0"/>
         <v>-9.28360454025992</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="4">
         <v>0</v>
       </c>
       <c r="E8">
@@ -1292,340 +1316,340 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="8">
+      <c r="A9" s="5">
         <v>6.72574231244026</v>
       </c>
       <c r="B9">
         <v>-9.30443575</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="5">
         <f t="shared" si="0"/>
         <v>-9.28085089283634</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="4">
         <v>0</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="5">
         <v>0.0235848571636644</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="8">
+      <c r="A10" s="5">
         <v>6.65848488931586</v>
       </c>
       <c r="B10">
         <v>-9.303711</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="5">
         <f t="shared" si="0"/>
         <v>-9.303711</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="4">
         <v>0</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="8">
+      <c r="A11" s="5">
         <v>6.59122746619145</v>
       </c>
       <c r="B11">
         <v>-9.3027445</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="5">
         <f t="shared" si="0"/>
         <v>-9.3027445</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="4">
         <v>0</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="8">
+      <c r="A12" s="5">
         <v>6.52397004306705</v>
       </c>
       <c r="B12">
         <v>-9.30149675</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="5">
         <f t="shared" si="0"/>
         <v>-9.30149675</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="4">
         <v>0</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="8">
+      <c r="A13" s="5">
         <v>6.45671261994265</v>
       </c>
       <c r="B13">
         <v>-9.29993175</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="5">
         <f t="shared" si="0"/>
         <v>-9.29993175</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="4">
         <v>0</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="8">
+      <c r="A14" s="5">
         <v>6.389455197</v>
       </c>
       <c r="B14">
         <v>-9.2980065</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="5">
         <f t="shared" si="0"/>
         <v>-9.2765447062902</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="4">
         <v>0</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="5">
         <v>0.0214617937098034</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="8">
+      <c r="A15" s="5">
         <v>6.05316808099999</v>
       </c>
       <c r="B15">
         <v>-9.281312</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="5">
         <f t="shared" si="0"/>
         <v>-9.25981534941733</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="4">
         <v>0</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="5">
         <v>0.0214966505826721</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="8">
+      <c r="A16" s="5">
         <v>5.71688096599999</v>
       </c>
       <c r="B16">
         <v>-9.24699775</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="5">
         <f t="shared" si="0"/>
         <v>-9.22545581578752</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="4">
         <v>0</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="5">
         <v>0.0215419342124851</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="8">
+      <c r="A17" s="5">
         <v>5.38059385</v>
       </c>
       <c r="B17">
         <v>-9.18425575</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="5">
         <f t="shared" si="0"/>
         <v>-9.16266257845306</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="4">
         <v>0</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="5">
         <v>0.0215931715469442</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="8">
+      <c r="A18" s="5">
         <v>5.044306734</v>
       </c>
       <c r="B18">
         <v>-9.07655725</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="5">
         <f t="shared" si="0"/>
         <v>-9.05490492455843</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="4">
         <v>0</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="5">
         <v>0.0216523254415718</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="8">
+      <c r="A19" s="5">
         <v>4.70801961899999</v>
       </c>
       <c r="B19">
         <v>-8.89676175</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="5">
         <f t="shared" si="0"/>
         <v>-8.87509644543177</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="4">
         <v>0</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="5">
         <v>0.0216653045682302</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="8">
+      <c r="A20" s="5">
         <v>4.37173250299999</v>
       </c>
       <c r="B20">
         <v>-8.610972</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="5">
         <f t="shared" si="0"/>
         <v>-8.58969112874629</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="4">
         <v>0</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="5">
         <v>0.021280871253706</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="8">
+      <c r="A21" s="5">
         <v>4.035445387</v>
       </c>
       <c r="B21">
         <v>-8.184804</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="5">
         <f t="shared" si="0"/>
         <v>-8.1644223392305</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="4">
         <v>0</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="5">
         <v>0.0203816607694967</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="8">
+      <c r="A22" s="5">
         <v>3.69915827100001</v>
       </c>
       <c r="B22">
         <v>-7.561232</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="5">
         <f t="shared" si="0"/>
         <v>-7.54245840350752</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="4">
         <v>0</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="5">
         <v>0.0187735964924786</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="8">
+      <c r="A23" s="5">
         <v>3.36287115500002</v>
       </c>
       <c r="B23">
         <v>-6.6218255</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="5">
         <f t="shared" si="0"/>
         <v>-6.60562327498075</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="4">
         <v>0</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="5">
         <v>0.0162022250192528</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="8">
+      <c r="A24" s="5">
         <v>3.02658403900003</v>
       </c>
       <c r="B24">
         <v>-5.380071</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="5">
         <f t="shared" si="0"/>
         <v>-5.36397948973004</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="4">
         <v>0</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="5">
         <v>0.0160915102699602</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="8">
+      <c r="A25" s="5">
         <v>2.69029692300004</v>
       </c>
       <c r="B25">
         <v>-3.654861</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="5">
         <f t="shared" si="0"/>
         <v>-3.63930487592718</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="4">
         <v>0</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="5">
         <v>0.0155561240728216</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="7"/>
+      <c r="D28" s="1"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="7"/>
+      <c r="D29" s="1"/>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="9"/>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="9"/>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="9"/>
+      <c r="D32" s="4"/>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="9"/>
+      <c r="D33" s="4"/>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="9"/>
+      <c r="D34" s="4"/>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="9"/>
+      <c r="D35" s="4"/>
     </row>
     <row r="36" spans="4:4">
-      <c r="D36" s="9"/>
+      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="4:4">
-      <c r="D37" s="9"/>
+      <c r="D37" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1650,41 +1674,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="8">
+      <c r="B2" s="5">
         <v>7.62651333736756</v>
       </c>
       <c r="C2">
         <v>-9.35571075</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="4">
         <f t="shared" ref="D2:D29" si="0">C2+F2</f>
         <v>-9.35571075</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="5">
         <v>0</v>
       </c>
       <c r="G2">
@@ -1692,20 +1716,20 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="8">
+      <c r="B3" s="5">
         <v>7.29492580096027</v>
       </c>
       <c r="C3">
         <v>-9.36041425</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="4">
         <f t="shared" si="0"/>
         <v>-9.36041425</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="5">
         <v>0</v>
       </c>
       <c r="G3">
@@ -1722,17 +1746,17 @@
       <c r="C4">
         <v>-9.36272175</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="4">
         <f t="shared" si="0"/>
         <v>-9.34142444866186</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="4">
         <v>-1.74798</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="1">
         <v>0.0212973013381394</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="1">
         <v>0.0206405764390277</v>
       </c>
     </row>
@@ -1746,17 +1770,17 @@
       <c r="C5">
         <v>-9.36334625</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="4">
         <f t="shared" si="0"/>
         <v>-9.34203116612822</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="4">
         <v>-1.37949</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="1">
         <v>0.0213150838717795</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="1">
         <v>0.02066163725461</v>
       </c>
     </row>
@@ -1764,23 +1788,23 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="5">
         <v>6.96333826455299</v>
       </c>
       <c r="C6">
         <v>-9.36387875</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="4">
         <f t="shared" si="0"/>
         <v>-9.34252731341168</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="4">
         <v>-0.649711</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="1">
         <v>0.0213514365883235</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="1">
         <v>0.0206943201157467</v>
       </c>
     </row>
@@ -1788,23 +1812,23 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="5">
         <v>6.89702075727153</v>
       </c>
       <c r="C7">
         <v>-9.364291</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="4">
         <f t="shared" si="0"/>
         <v>-9.34292050564871</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="4">
         <v>-0.436941</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="1">
         <v>0.0213704943512894</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="1">
         <v>0.0207214062522322</v>
       </c>
     </row>
@@ -1812,23 +1836,23 @@
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="5">
         <v>6.83070324999007</v>
       </c>
       <c r="C8">
         <v>-9.36458075</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="4">
         <f t="shared" si="0"/>
         <v>-9.34319526886993</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="4">
         <v>-0.194466</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="1">
         <v>0.0213854811300705</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="1">
         <v>0.0207224978899954</v>
       </c>
     </row>
@@ -1836,23 +1860,23 @@
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="5">
         <v>6.76438574270861</v>
       </c>
       <c r="C9">
         <v>-9.36471925</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="4">
         <f t="shared" si="0"/>
         <v>-9.34329465155856</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="4">
         <v>0.083872</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="1">
         <v>0.0214245984414376</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="1">
         <v>0.0207691221463404</v>
       </c>
     </row>
@@ -1866,17 +1890,17 @@
       <c r="C10">
         <v>-9.364684</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="4">
         <f t="shared" si="0"/>
         <v>-9.34324236527863</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="4">
         <v>0.40474</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="1">
         <v>0.0214416347213709</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="1">
         <v>0.0207971474890624</v>
       </c>
     </row>
@@ -1884,23 +1908,23 @@
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="5">
         <v>6.6317507281457</v>
       </c>
       <c r="C11">
         <v>-9.36446125</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="4">
         <f t="shared" si="0"/>
         <v>-9.34298510923149</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="4">
         <v>0.766066</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="1">
         <v>0.0214761407685137</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="1">
         <v>0.0208237304654679</v>
       </c>
     </row>
@@ -1908,23 +1932,23 @@
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="5">
         <v>6.56543322086424</v>
       </c>
       <c r="C12">
         <v>-9.36401425</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="4">
         <f t="shared" si="0"/>
         <v>-9.3425189263749</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="4">
         <v>1.209655</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="1">
         <v>0.0214953236250955</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="1">
         <v>0.0208437353704383</v>
       </c>
     </row>
@@ -1932,23 +1956,23 @@
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="5">
         <v>6.49911571358279</v>
       </c>
       <c r="C13">
         <v>-9.363318</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="4">
         <f t="shared" si="0"/>
         <v>-9.34181344827522</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="4">
         <v>1.650845</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="1">
         <v>0.0215045517247771</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="1">
         <v>0.0208632790939217</v>
       </c>
     </row>
@@ -1956,23 +1980,23 @@
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="5">
         <v>6.43279820630133</v>
       </c>
       <c r="C14">
         <v>-9.36232725</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="4">
         <f t="shared" si="0"/>
         <v>-9.34080128378352</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="4">
         <v>2.184954</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="1">
         <v>0.0215259662164836</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="1">
         <v>0.0208786517777622</v>
       </c>
     </row>
@@ -1980,23 +2004,23 @@
       <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="5">
         <v>6.36648069901987</v>
       </c>
       <c r="C15">
         <v>-9.3610255</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="4">
         <f t="shared" si="0"/>
         <v>-9.33948007495655</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="4">
         <v>2.81936</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="1">
         <v>0.0215454250434452</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="1">
         <v>0.0209155631075892</v>
       </c>
     </row>
@@ -2004,23 +2028,23 @@
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="5">
         <v>6.30016319173841</v>
       </c>
       <c r="C16">
         <v>-9.359363</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="4">
         <f t="shared" si="0"/>
         <v>-9.33780344436616</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="4">
         <v>3.470399</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="1">
         <v>0.02155955563384</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="1">
         <v>0.02093910836919</v>
       </c>
     </row>
@@ -2034,17 +2058,17 @@
       <c r="C17">
         <v>-9.3572985</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="4">
         <f t="shared" si="0"/>
         <v>-9.33572266567675</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="4">
         <v>8.313759</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="1">
         <v>0.0215758343232551</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="1">
         <v>0.0209624503779583</v>
       </c>
     </row>
@@ -2058,17 +2082,17 @@
       <c r="C18">
         <v>-9.35477725</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="4">
         <f t="shared" si="0"/>
         <v>-9.33318746929334</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="4">
         <v>16.364584</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="1">
         <v>0.0215897807066604</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="1">
         <v>0.0209664669130575</v>
       </c>
     </row>
@@ -2076,17 +2100,17 @@
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="5">
         <v>5.96857565533113</v>
       </c>
       <c r="C19">
         <v>-9.3439195</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="4">
         <f t="shared" si="0"/>
         <v>-9.3439195</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="4">
         <v>29.162834</v>
       </c>
       <c r="F19">
@@ -2097,17 +2121,17 @@
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="5">
         <v>5.63698811892385</v>
       </c>
       <c r="C20">
         <v>-9.31057675</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="4">
         <f t="shared" si="0"/>
         <v>-9.31057675</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="4">
         <v>49.590418</v>
       </c>
       <c r="F20">
@@ -2118,17 +2142,17 @@
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="5">
         <v>5.30540058251656</v>
       </c>
       <c r="C21">
         <v>-9.2470915</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="4">
         <f t="shared" si="0"/>
         <v>-9.2470915</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="4">
         <v>81.795232</v>
       </c>
       <c r="F21">
@@ -2139,17 +2163,17 @@
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="5">
         <v>4.97381304610928</v>
       </c>
       <c r="C22">
         <v>-9.13348925</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="4">
         <f t="shared" si="0"/>
         <v>-9.13348925</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="4">
         <v>126.264436</v>
       </c>
       <c r="F22">
@@ -2160,17 +2184,17 @@
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="5">
         <v>4.64222550970199</v>
       </c>
       <c r="C23">
         <v>-8.9380785</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="4">
         <f t="shared" si="0"/>
         <v>-8.9380785</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="4">
         <v>184.537527</v>
       </c>
       <c r="F23">
@@ -2181,17 +2205,17 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="5">
         <v>4.31063797329471</v>
       </c>
       <c r="C24">
         <v>-8.63161825</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="4">
         <f t="shared" si="0"/>
         <v>-8.63161825</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="4">
         <v>278.177108</v>
       </c>
       <c r="F24">
@@ -2202,17 +2226,17 @@
       <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="5">
         <v>3.97905043688742</v>
       </c>
       <c r="C25">
         <v>-8.18573275</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="4">
         <f t="shared" si="0"/>
         <v>-8.18573275</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="4">
         <v>410.94174</v>
       </c>
       <c r="F25">
@@ -2223,13 +2247,13 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="5">
         <v>3.64746290048014</v>
       </c>
       <c r="C26">
         <v>-7.534209</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="4">
         <f t="shared" si="0"/>
         <v>-7.534209</v>
       </c>
@@ -2244,13 +2268,13 @@
       <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="5">
         <v>3.31587536407285</v>
       </c>
       <c r="C27">
         <v>-6.56529875</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="4">
         <f t="shared" si="0"/>
         <v>-6.56529875</v>
       </c>
@@ -2262,70 +2286,70 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="4">
         <v>2.98428782766557</v>
       </c>
       <c r="C28">
         <v>-5.3080285</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="4">
         <f t="shared" si="0"/>
         <v>-5.3080285</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="1">
         <v>0</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="4">
         <v>2.65270029125828</v>
       </c>
       <c r="C29">
         <v>-3.53590775</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="4">
         <f t="shared" si="0"/>
         <v>-3.53590775</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="1">
         <v>0</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="5:5">
-      <c r="E30" s="9"/>
+      <c r="E30" s="4"/>
     </row>
     <row r="31" spans="5:5">
-      <c r="E31" s="9"/>
+      <c r="E31" s="4"/>
     </row>
     <row r="32" spans="5:5">
-      <c r="E32" s="9"/>
+      <c r="E32" s="4"/>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="9"/>
+      <c r="E33" s="4"/>
     </row>
     <row r="34" spans="5:5">
-      <c r="E34" s="9"/>
+      <c r="E34" s="4"/>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="9"/>
+      <c r="E35" s="4"/>
     </row>
     <row r="36" spans="5:5">
-      <c r="E36" s="9"/>
+      <c r="E36" s="4"/>
     </row>
     <row r="37" spans="5:5">
-      <c r="E37" s="9"/>
+      <c r="E37" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2337,10 +2361,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J16384"/>
+  <dimension ref="A1:K16384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2350,11 +2374,12 @@
     <col min="4" max="4" width="12.8333333333333" customWidth="1"/>
     <col min="6" max="6" width="11.3333333333333" customWidth="1"/>
     <col min="8" max="8" width="11.8333333333333" customWidth="1"/>
+    <col min="11" max="11" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2381,30 +2406,33 @@
       <c r="J1" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:10">
+    <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="1">
         <v>7.0959732791159</v>
       </c>
       <c r="C2" s="1">
         <v>-1.19325000000003</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>-0.4985</v>
       </c>
       <c r="E2" s="1">
         <v>-1.1389</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>-0.5643</v>
       </c>
       <c r="G2" s="1">
         <v>-1.1224</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="3">
         <v>-0.5127</v>
       </c>
       <c r="I2" s="1">
@@ -2413,30 +2441,33 @@
       <c r="J2" s="1">
         <v>-1.1683</v>
       </c>
+      <c r="K2" s="1">
+        <v>-1.2108</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:10">
+    <row r="3" s="1" customFormat="1" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="1">
         <v>7.02965577183444</v>
       </c>
       <c r="C3" s="1">
         <v>-1.20764865951742</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>-0.509</v>
       </c>
       <c r="E3" s="1">
         <v>-1.1675</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>-0.5759</v>
       </c>
       <c r="G3" s="1">
         <v>-1.1551</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>-0.524</v>
       </c>
       <c r="I3" s="1">
@@ -2445,30 +2476,33 @@
       <c r="J3" s="1">
         <v>-1.1884</v>
       </c>
+      <c r="K3" s="1">
+        <v>-1.2301</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:10">
+    <row r="4" s="1" customFormat="1" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>6.96333826455299</v>
       </c>
       <c r="C4" s="1">
         <v>-1.21992613941021</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>-0.5176</v>
       </c>
       <c r="E4" s="1">
         <v>-1.1937</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>-0.586</v>
       </c>
       <c r="G4" s="1">
         <v>-1.1852</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>-0.5337</v>
       </c>
       <c r="I4" s="1">
@@ -2477,30 +2511,33 @@
       <c r="J4" s="1">
         <v>-1.2062</v>
       </c>
+      <c r="K4" s="1">
+        <v>-1.2457</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:10">
+    <row r="5" s="1" customFormat="1" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>6.89702075727153</v>
       </c>
       <c r="C5" s="1">
         <v>-1.22943109919572</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>-0.5239</v>
       </c>
       <c r="E5" s="1">
         <v>-1.2169</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>-0.5944</v>
       </c>
       <c r="G5" s="1">
         <v>-1.2122</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>-0.5414</v>
       </c>
       <c r="I5" s="1">
@@ -2509,30 +2546,33 @@
       <c r="J5" s="1">
         <v>-1.221</v>
       </c>
+      <c r="K5" s="1">
+        <v>-1.2568</v>
+      </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:10">
+    <row r="6" s="1" customFormat="1" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>6.83070324999007</v>
       </c>
       <c r="C6" s="1">
         <v>-1.2361116621984</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>-0.5273</v>
       </c>
       <c r="E6" s="1">
         <v>-1.2365</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>-0.6007</v>
       </c>
       <c r="G6" s="1">
         <v>-1.2352</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>-0.5467</v>
       </c>
       <c r="I6" s="1">
@@ -2541,30 +2581,33 @@
       <c r="J6" s="1">
         <v>-1.2324</v>
       </c>
+      <c r="K6" s="1">
+        <v>-1.2622</v>
+      </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:10">
+    <row r="7" s="1" customFormat="1" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>6.76438574270861</v>
       </c>
       <c r="C7" s="1">
         <v>-1.23930495978553</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>-0.527</v>
       </c>
       <c r="E7" s="1">
         <v>-1.2514</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>-0.6043</v>
       </c>
       <c r="G7" s="1">
         <v>-1.2532</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <v>-0.5491</v>
       </c>
       <c r="I7" s="1">
@@ -2573,30 +2616,33 @@
       <c r="J7" s="1">
         <v>-1.2398</v>
       </c>
+      <c r="K7" s="1">
+        <v>-1.261</v>
+      </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:10">
+    <row r="8" s="1" customFormat="1" spans="1:11">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="1">
         <v>6.69806823542716</v>
       </c>
       <c r="C8" s="1">
         <v>-1.23849222520113</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>-0.5223</v>
       </c>
       <c r="E8" s="1">
         <v>-1.2608</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>-0.6047</v>
       </c>
       <c r="G8" s="1">
         <v>-1.2652</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>-0.5479</v>
       </c>
       <c r="I8" s="1">
@@ -2605,30 +2651,33 @@
       <c r="J8" s="1">
         <v>-1.2425</v>
       </c>
+      <c r="K8" s="1">
+        <v>-1.2518</v>
+      </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:10">
+    <row r="9" s="1" customFormat="1" spans="1:11">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>6.6317507281457</v>
       </c>
       <c r="C9" s="1">
         <v>-1.23335643431639</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>-0.5122</v>
       </c>
       <c r="E9" s="1">
         <v>-1.2636</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>-0.6014</v>
       </c>
       <c r="G9" s="1">
         <v>-1.27</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>-0.5424</v>
       </c>
       <c r="I9" s="1">
@@ -2637,30 +2686,33 @@
       <c r="J9" s="1">
         <v>-1.2397</v>
       </c>
+      <c r="K9" s="1">
+        <v>-1.233</v>
+      </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:10">
+    <row r="10" s="1" customFormat="1" spans="1:11">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>6.56543322086424</v>
       </c>
       <c r="C10" s="1">
         <v>-1.22305026809653</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>-0.4957</v>
       </c>
       <c r="E10" s="1">
         <v>-1.2584</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <v>-0.5936</v>
       </c>
       <c r="G10" s="1">
         <v>-1.266</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <v>-0.5318</v>
       </c>
       <c r="I10" s="1">
@@ -2669,30 +2721,33 @@
       <c r="J10" s="1">
         <v>-1.2306</v>
       </c>
+      <c r="K10" s="1">
+        <v>-1.2028</v>
+      </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:10">
+    <row r="11" s="1" customFormat="1" spans="1:11">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>6.49911571358279</v>
       </c>
       <c r="C11" s="1">
         <v>-1.20699731903488</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>-0.4715</v>
       </c>
       <c r="E11" s="1">
         <v>-1.2439</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <v>-0.5804</v>
       </c>
       <c r="G11" s="1">
         <v>-1.2516</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="3">
         <v>-0.5151</v>
       </c>
       <c r="I11" s="1">
@@ -2701,30 +2756,33 @@
       <c r="J11" s="1">
         <v>-1.2141</v>
       </c>
+      <c r="K11" s="1">
+        <v>-1.1592</v>
+      </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:10">
+    <row r="12" s="1" customFormat="1" spans="1:11">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="4">
         <v>6.43279820630133</v>
       </c>
       <c r="C12" s="1">
         <v>-1.18415428954427</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>-0.4379</v>
       </c>
       <c r="E12" s="1">
         <v>-1.2182</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <v>-0.5609</v>
       </c>
       <c r="G12" s="1">
         <v>-1.2247</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="3">
         <v>-0.4912</v>
       </c>
       <c r="I12" s="1">
@@ -2733,30 +2791,33 @@
       <c r="J12" s="1">
         <v>-1.1893</v>
       </c>
+      <c r="K12" s="1">
+        <v>-1.0997</v>
+      </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:10">
+    <row r="13" s="1" customFormat="1" spans="1:11">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <v>6.36648069901987</v>
       </c>
       <c r="C13" s="1">
         <v>-1.15414075067028</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>-0.3934</v>
       </c>
       <c r="E13" s="1">
         <v>-1.1796</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <v>-0.534</v>
       </c>
       <c r="G13" s="1">
         <v>-1.1832</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="3">
         <v>-0.4588</v>
       </c>
       <c r="I13" s="1">
@@ -2765,30 +2826,33 @@
       <c r="J13" s="1">
         <v>-1.1549</v>
       </c>
+      <c r="K13" s="1">
+        <v>-1.0216</v>
+      </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:10">
+    <row r="14" s="1" customFormat="1" spans="1:11">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="4">
         <v>6.30016319173841</v>
       </c>
       <c r="C14" s="1">
         <v>-1.11580965147456</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>-0.3357</v>
       </c>
       <c r="E14" s="1">
         <v>-1.1258</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="3">
         <v>-0.4983</v>
       </c>
       <c r="G14" s="1">
         <v>-1.1243</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="3">
         <v>-0.4165</v>
       </c>
       <c r="I14" s="1">
@@ -2797,30 +2861,33 @@
       <c r="J14" s="1">
         <v>-1.1094</v>
       </c>
+      <c r="K14" s="1">
+        <v>-0.9215</v>
+      </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:10">
+    <row r="15" s="1" customFormat="1" spans="1:11">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="1">
         <v>6.23384568445696</v>
       </c>
       <c r="C15" s="1">
         <v>-1.06820991957107</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <v>-0.2625</v>
       </c>
       <c r="E15" s="1">
         <v>-1.0542</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="3">
         <v>-0.4524</v>
       </c>
       <c r="G15" s="1">
         <v>-1.0449</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="3">
         <v>-0.3625</v>
       </c>
       <c r="I15" s="1">
@@ -2829,30 +2896,33 @@
       <c r="J15" s="1">
         <v>-1.0513</v>
       </c>
+      <c r="K15" s="1">
+        <v>-0.7958</v>
+      </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:10">
+    <row r="16" s="1" customFormat="1" spans="1:11">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="1">
         <v>6.1675281771755</v>
       </c>
       <c r="C16" s="1">
         <v>-1.01007922252012</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <v>-0.171</v>
       </c>
       <c r="E16" s="1">
         <v>-0.9622</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="3">
         <v>-0.3943</v>
       </c>
       <c r="G16" s="1">
         <v>-0.9414</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="3">
         <v>-0.2949</v>
       </c>
       <c r="I16" s="1">
@@ -2860,6 +2930,9 @@
       </c>
       <c r="J16" s="1">
         <v>-0.9787</v>
+      </c>
+      <c r="K16" s="1">
+        <v>-0.6401</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -216,10 +216,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -230,11 +230,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,6 +287,22 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -262,23 +316,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,14 +353,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,66 +369,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,7 +390,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,31 +498,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,139 +570,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,11 +584,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,6 +664,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -618,214 +681,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2363,8 +2363,8 @@
   <sheetPr/>
   <dimension ref="A1:K16384"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2441,8 +2441,8 @@
       <c r="J2" s="1">
         <v>-1.1683</v>
       </c>
-      <c r="K2" s="1">
-        <v>-1.2108</v>
+      <c r="K2">
+        <v>-1.1843</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:11">
@@ -2476,8 +2476,8 @@
       <c r="J3" s="1">
         <v>-1.1884</v>
       </c>
-      <c r="K3" s="1">
-        <v>-1.2301</v>
+      <c r="K3">
+        <v>-1.2037</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:11">
@@ -2511,8 +2511,8 @@
       <c r="J4" s="1">
         <v>-1.2062</v>
       </c>
-      <c r="K4" s="1">
-        <v>-1.2457</v>
+      <c r="K4">
+        <v>-1.22</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:11">
@@ -2546,8 +2546,8 @@
       <c r="J5" s="1">
         <v>-1.221</v>
       </c>
-      <c r="K5" s="1">
-        <v>-1.2568</v>
+      <c r="K5">
+        <v>-1.2327</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:11">
@@ -2581,8 +2581,8 @@
       <c r="J6" s="1">
         <v>-1.2324</v>
       </c>
-      <c r="K6" s="1">
-        <v>-1.2622</v>
+      <c r="K6">
+        <v>-1.2412</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:11">
@@ -2616,8 +2616,8 @@
       <c r="J7" s="1">
         <v>-1.2398</v>
       </c>
-      <c r="K7" s="1">
-        <v>-1.261</v>
+      <c r="K7">
+        <v>-1.2445</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:11">
@@ -2651,8 +2651,8 @@
       <c r="J8" s="1">
         <v>-1.2425</v>
       </c>
-      <c r="K8" s="1">
-        <v>-1.2518</v>
+      <c r="K8">
+        <v>-1.2419</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:11">
@@ -2686,8 +2686,8 @@
       <c r="J9" s="1">
         <v>-1.2397</v>
       </c>
-      <c r="K9" s="1">
-        <v>-1.233</v>
+      <c r="K9">
+        <v>-1.2323</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:11">
@@ -2721,8 +2721,8 @@
       <c r="J10" s="1">
         <v>-1.2306</v>
       </c>
-      <c r="K10" s="1">
-        <v>-1.2028</v>
+      <c r="K10">
+        <v>-1.2145</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:11">
@@ -2756,8 +2756,8 @@
       <c r="J11" s="1">
         <v>-1.2141</v>
       </c>
-      <c r="K11" s="1">
-        <v>-1.1592</v>
+      <c r="K11">
+        <v>-1.1872</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:11">
@@ -2791,8 +2791,8 @@
       <c r="J12" s="1">
         <v>-1.1893</v>
       </c>
-      <c r="K12" s="1">
-        <v>-1.0997</v>
+      <c r="K12">
+        <v>-1.1489</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:11">
@@ -2826,8 +2826,8 @@
       <c r="J13" s="1">
         <v>-1.1549</v>
       </c>
-      <c r="K13" s="1">
-        <v>-1.0216</v>
+      <c r="K13">
+        <v>-1.0978</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:11">
@@ -2861,8 +2861,8 @@
       <c r="J14" s="1">
         <v>-1.1094</v>
       </c>
-      <c r="K14" s="1">
-        <v>-0.9215</v>
+      <c r="K14">
+        <v>-1.0318</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:11">
@@ -2896,8 +2896,8 @@
       <c r="J15" s="1">
         <v>-1.0513</v>
       </c>
-      <c r="K15" s="1">
-        <v>-0.7958</v>
+      <c r="K15">
+        <v>-0.9489</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:11">
@@ -2931,8 +2931,8 @@
       <c r="J16" s="1">
         <v>-0.9787</v>
       </c>
-      <c r="K16" s="1">
-        <v>-0.6401</v>
+      <c r="K16">
+        <v>-0.8464</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1"/>
@@ -19305,7 +19305,7 @@
     <row r="16384" s="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <pageSetup paperSize="1" scale="67" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -14,6 +14,7 @@
   <definedNames>
     <definedName name="tmp" localSheetId="2">CCmd!$K$2:$K$16</definedName>
     <definedName name="tmp_1" localSheetId="2">CCmd!$J$2:$J$16</definedName>
+    <definedName name="ExternalData_1" localSheetId="2">CCmd!$L$2:$L$16</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -76,6 +77,13 @@
   </connection>
   <connection id="2" name="tmp1" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="/Users/yerong/Documents/William/tmp/tmp.txt">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="tmp2" type="6" background="1" refreshedVersion="2" saveData="1">
+    <textPr sourceFile="F:\William\tmp\tmp.txt">
       <textFields>
         <textField/>
       </textFields>
@@ -228,44 +236,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -280,25 +257,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,8 +287,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,9 +302,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,6 +325,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -356,8 +355,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,13 +373,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,6 +392,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -401,25 +409,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,13 +439,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,7 +463,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,73 +571,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,37 +589,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,23 +615,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,16 +637,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,8 +669,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,148 +703,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -904,8 +912,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
     </queryTableFields>
@@ -915,6 +923,16 @@
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
+    <queryTableFields count="1">
+      <queryTableField id="1" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -2394,6 +2412,7 @@
     <col min="6" max="6" width="11.3333333333333" customWidth="1"/>
     <col min="8" max="8" width="11.8333333333333" customWidth="1"/>
     <col min="10" max="11" width="7.66666666666667" customWidth="1"/>
+    <col min="12" max="12" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:12">
@@ -2467,7 +2486,7 @@
         <v>-1.1812</v>
       </c>
       <c r="L2">
-        <v>-1.0528</v>
+        <v>-1.053</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:12">
@@ -2505,7 +2524,7 @@
         <v>-1.2007</v>
       </c>
       <c r="L3">
-        <v>-1.0877</v>
+        <v>-1.0879</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:12">
@@ -2543,7 +2562,7 @@
         <v>-1.2173</v>
       </c>
       <c r="L4">
-        <v>-1.1234</v>
+        <v>-1.1236</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:12">
@@ -2581,7 +2600,7 @@
         <v>-1.2304</v>
       </c>
       <c r="L5">
-        <v>-1.1598</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:12">
@@ -2619,7 +2638,7 @@
         <v>-1.2394</v>
       </c>
       <c r="L6">
-        <v>-1.1968</v>
+        <v>-1.197</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:12">
@@ -2657,7 +2676,7 @@
         <v>-1.2435</v>
       </c>
       <c r="L7">
-        <v>-1.2344</v>
+        <v>-1.2345</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:12">
@@ -2733,7 +2752,7 @@
         <v>-1.2337</v>
       </c>
       <c r="L9">
-        <v>-1.3098</v>
+        <v>-1.3096</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:12">
@@ -2771,7 +2790,7 @@
         <v>-1.2176</v>
       </c>
       <c r="L10">
-        <v>-1.346</v>
+        <v>-1.3454</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:12">
@@ -2809,7 +2828,7 @@
         <v>-1.1925</v>
       </c>
       <c r="L11">
-        <v>-1.3781</v>
+        <v>-1.3768</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:12">
@@ -2847,7 +2866,7 @@
         <v>-1.1569</v>
       </c>
       <c r="L12">
-        <v>-1.4004</v>
+        <v>-1.3978</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:12">
@@ -2885,7 +2904,7 @@
         <v>-1.1092</v>
       </c>
       <c r="L13">
-        <v>-1.4004</v>
+        <v>-1.396</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:12">
@@ -2923,7 +2942,7 @@
         <v>-1.0475</v>
       </c>
       <c r="L14">
-        <v>-1.3525</v>
+        <v>-1.346</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:12">
@@ -2961,7 +2980,7 @@
         <v>-0.9697</v>
       </c>
       <c r="L15">
-        <v>-1.2033</v>
+        <v>-1.1961</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:12">
@@ -2999,7 +3018,7 @@
         <v>-0.8734</v>
       </c>
       <c r="L16">
-        <v>-0.8446</v>
+        <v>-0.8435</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="7950" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data11" sheetId="1" r:id="rId1"/>
@@ -236,8 +236,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -250,17 +250,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,7 +274,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,37 +289,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,39 +303,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -378,9 +325,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,8 +348,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,7 +415,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,7 +523,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,19 +547,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,91 +571,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,31 +589,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,16 +607,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,17 +627,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,15 +662,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -690,161 +677,174 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -912,8 +912,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
     </queryTableFields>
@@ -932,8 +932,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
     </queryTableFields>
@@ -2402,8 +2402,8 @@
   <sheetPr/>
   <dimension ref="A1:L16384"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2480,13 +2480,13 @@
         <v>-1.1506</v>
       </c>
       <c r="J2" s="1">
-        <v>-1.1688</v>
+        <v>-1.1655</v>
       </c>
       <c r="K2">
         <v>-1.1812</v>
       </c>
       <c r="L2">
-        <v>-1.053</v>
+        <v>-1.1634</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:12">
@@ -2518,13 +2518,13 @@
         <v>-1.175</v>
       </c>
       <c r="J3" s="1">
-        <v>-1.1889</v>
+        <v>-1.1862</v>
       </c>
       <c r="K3">
         <v>-1.2007</v>
       </c>
       <c r="L3">
-        <v>-1.0879</v>
+        <v>-1.1845</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:12">
@@ -2556,13 +2556,13 @@
         <v>-1.1968</v>
       </c>
       <c r="J4" s="1">
-        <v>-1.2066</v>
+        <v>-1.2046</v>
       </c>
       <c r="K4">
         <v>-1.2173</v>
       </c>
       <c r="L4">
-        <v>-1.1236</v>
+        <v>-1.2032</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:12">
@@ -2594,13 +2594,13 @@
         <v>-1.2154</v>
       </c>
       <c r="J5" s="1">
-        <v>-1.2213</v>
+        <v>-1.22</v>
       </c>
       <c r="K5">
         <v>-1.2304</v>
       </c>
       <c r="L5">
-        <v>-1.16</v>
+        <v>-1.219</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:12">
@@ -2632,13 +2632,13 @@
         <v>-1.2303</v>
       </c>
       <c r="J6" s="1">
-        <v>-1.2326</v>
+        <v>-1.232</v>
       </c>
       <c r="K6">
         <v>-1.2394</v>
       </c>
       <c r="L6">
-        <v>-1.197</v>
+        <v>-1.2314</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:12">
@@ -2670,13 +2670,13 @@
         <v>-1.2406</v>
       </c>
       <c r="J7" s="1">
-        <v>-1.2398</v>
+        <v>-1.2399</v>
       </c>
       <c r="K7">
         <v>-1.2435</v>
       </c>
       <c r="L7">
-        <v>-1.2345</v>
+        <v>-1.2398</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:12">
@@ -2708,13 +2708,13 @@
         <v>-1.2456</v>
       </c>
       <c r="J8" s="1">
-        <v>-1.2423</v>
+        <v>-1.243</v>
       </c>
       <c r="K8">
         <v>-1.2419</v>
       </c>
       <c r="L8">
-        <v>-1.2722</v>
+        <v>-1.2434</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:12">
@@ -2746,13 +2746,13 @@
         <v>-1.2443</v>
       </c>
       <c r="J9" s="1">
-        <v>-1.2394</v>
+        <v>-1.2405</v>
       </c>
       <c r="K9">
         <v>-1.2337</v>
       </c>
       <c r="L9">
-        <v>-1.3096</v>
+        <v>-1.2414</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:12">
@@ -2784,13 +2784,13 @@
         <v>-1.2357</v>
       </c>
       <c r="J10" s="1">
-        <v>-1.2301</v>
+        <v>-1.2314</v>
       </c>
       <c r="K10">
         <v>-1.2176</v>
       </c>
       <c r="L10">
-        <v>-1.3454</v>
+        <v>-1.2329</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:12">
@@ -2822,13 +2822,13 @@
         <v>-1.2185</v>
       </c>
       <c r="J11" s="1">
-        <v>-1.2134</v>
+        <v>-1.2149</v>
       </c>
       <c r="K11">
         <v>-1.1925</v>
       </c>
       <c r="L11">
-        <v>-1.3768</v>
+        <v>-1.2169</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:12">
@@ -2860,13 +2860,13 @@
         <v>-1.1915</v>
       </c>
       <c r="J12" s="1">
-        <v>-1.1884</v>
+        <v>-1.1895</v>
       </c>
       <c r="K12">
         <v>-1.1569</v>
       </c>
       <c r="L12">
-        <v>-1.3978</v>
+        <v>-1.1921</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:12">
@@ -2898,13 +2898,13 @@
         <v>-1.1531</v>
       </c>
       <c r="J13" s="1">
-        <v>-1.1536</v>
+        <v>-1.1541</v>
       </c>
       <c r="K13">
         <v>-1.1092</v>
       </c>
       <c r="L13">
-        <v>-1.396</v>
+        <v>-1.1572</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:12">
@@ -2936,13 +2936,13 @@
         <v>-1.1017</v>
       </c>
       <c r="J14" s="1">
-        <v>-1.1078</v>
+        <v>-1.107</v>
       </c>
       <c r="K14">
         <v>-1.0475</v>
       </c>
       <c r="L14">
-        <v>-1.346</v>
+        <v>-1.1107</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:12">
@@ -2974,13 +2974,13 @@
         <v>-1.0353</v>
       </c>
       <c r="J15" s="1">
-        <v>-1.0494</v>
+        <v>-1.0466</v>
       </c>
       <c r="K15">
         <v>-0.9697</v>
       </c>
       <c r="L15">
-        <v>-1.1961</v>
+        <v>-1.0507</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:12">
@@ -3012,13 +3012,13 @@
         <v>-0.9518</v>
       </c>
       <c r="J16" s="1">
-        <v>-0.9765</v>
+        <v>-0.9708</v>
       </c>
       <c r="K16">
         <v>-0.8734</v>
       </c>
       <c r="L16">
-        <v>-0.8435</v>
+        <v>-0.9754</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -235,23 +235,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -273,31 +265,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,6 +289,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -319,7 +312,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,7 +328,58 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,52 +393,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,67 +415,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,13 +463,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,19 +523,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,25 +541,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,7 +553,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,19 +583,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,15 +600,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -638,11 +629,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,151 +689,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -912,8 +912,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
     </queryTableFields>
@@ -932,8 +932,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
     </queryTableFields>
@@ -2403,7 +2403,7 @@
   <dimension ref="A1:L16384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -12,9 +12,9 @@
     <sheet name="CCmd" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="tmp" localSheetId="2">CCmd!$K$2:$K$16</definedName>
-    <definedName name="tmp_1" localSheetId="2">CCmd!$J$2:$J$16</definedName>
-    <definedName name="ExternalData_1" localSheetId="2">CCmd!$L$2:$L$16</definedName>
+    <definedName name="tmp" localSheetId="2">CCmd!$L$2:$L$16</definedName>
+    <definedName name="tmp_1" localSheetId="2">CCmd!$K$2:$K$16</definedName>
+    <definedName name="ExternalData_1" localSheetId="2">CCmd!$M$2:$M$16</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>C(A)</t>
   </si>
@@ -203,6 +203,9 @@
     <t>QM</t>
   </si>
   <si>
+    <t>QM-phn</t>
+  </si>
+  <si>
     <t>X6S</t>
   </si>
   <si>
@@ -249,19 +252,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -274,13 +268,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -288,10 +275,40 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,7 +322,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,14 +346,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,37 +360,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,8 +381,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,9 +396,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,55 +412,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,13 +448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,85 +460,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,7 +508,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,17 +606,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,25 +624,31 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -667,16 +670,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,148 +706,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -912,8 +915,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
     </queryTableFields>
@@ -932,8 +935,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
     </queryTableFields>
@@ -2400,22 +2403,23 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L16384"/>
+  <dimension ref="A1:M16384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="12.8333333333333" customWidth="1"/>
-    <col min="6" max="6" width="11.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="11.8333333333333" customWidth="1"/>
-    <col min="10" max="11" width="7.66666666666667" customWidth="1"/>
-    <col min="12" max="12" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="13.75"/>
+    <col min="5" max="5" width="12.8333333333333" customWidth="1"/>
+    <col min="7" max="7" width="11.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="11.8333333333333" customWidth="1"/>
+    <col min="11" max="12" width="7.66666666666667" customWidth="1"/>
+    <col min="13" max="13" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
+    <row r="1" s="1" customFormat="1" spans="1:13">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>34</v>
@@ -2447,11 +2451,14 @@
       <c r="K1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="M1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:12">
+    <row r="2" s="1" customFormat="1" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -2461,35 +2468,38 @@
       <c r="C2" s="1">
         <v>-1.19325000000003</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
+        <v>-1.13525366887779</v>
+      </c>
+      <c r="E2" s="3">
         <v>-0.4985</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>-1.1389</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>-0.5643</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>-1.1224</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>-0.5127</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>-1.1506</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>-1.1655</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>-1.1812</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>-1.1634</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:12">
+    <row r="3" s="1" customFormat="1" spans="1:13">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2499,35 +2509,38 @@
       <c r="C3" s="1">
         <v>-1.20764865951742</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
+        <v>-1.14924232896001</v>
+      </c>
+      <c r="E3" s="3">
         <v>-0.509</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>-1.1675</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>-0.5759</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>-1.1551</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>-0.524</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>-1.175</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>-1.1862</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-1.2007</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-1.1845</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:12">
+    <row r="4" s="1" customFormat="1" spans="1:13">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2537,35 +2550,38 @@
       <c r="C4" s="1">
         <v>-1.21992613941021</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
+        <v>-1.16068164970457</v>
+      </c>
+      <c r="E4" s="3">
         <v>-0.5176</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>-1.1937</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>-0.586</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>-1.1852</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>-0.5337</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>-1.1968</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>-1.2046</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>-1.2173</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>-1.2032</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:12">
+    <row r="5" s="1" customFormat="1" spans="1:13">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2575,35 +2591,38 @@
       <c r="C5" s="1">
         <v>-1.22943109919572</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
+        <v>-1.16974720798473</v>
+      </c>
+      <c r="E5" s="3">
         <v>-0.5239</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>-1.2169</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>-0.5944</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>-1.2122</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>-0.5414</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>-1.2154</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>-1.22</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>-1.2304</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>-1.219</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:12">
+    <row r="6" s="1" customFormat="1" spans="1:13">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -2613,35 +2632,38 @@
       <c r="C6" s="1">
         <v>-1.2361116621984</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
+        <v>-1.1760822313158</v>
+      </c>
+      <c r="E6" s="3">
         <v>-0.5273</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>-1.2365</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>-0.6007</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>-1.2352</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>-0.5467</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>-1.2303</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>-1.232</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>-1.2394</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>-1.2314</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:12">
+    <row r="7" s="1" customFormat="1" spans="1:13">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -2651,35 +2673,38 @@
       <c r="C7" s="1">
         <v>-1.23930495978553</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
+        <v>-1.17837362842636</v>
+      </c>
+      <c r="E7" s="3">
         <v>-0.527</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>-1.2514</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>-0.6043</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>-1.2532</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>-0.5491</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>-1.2406</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>-1.2399</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>-1.2435</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>-1.2398</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:12">
+    <row r="8" s="1" customFormat="1" spans="1:13">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -2689,35 +2714,38 @@
       <c r="C8" s="1">
         <v>-1.23849222520113</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
+        <v>-1.17716810025632</v>
+      </c>
+      <c r="E8" s="3">
         <v>-0.5223</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>-1.2608</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>-0.6047</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>-1.2652</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>-0.5479</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>-1.2456</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>-1.243</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>-1.2419</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>-1.2434</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:12">
+    <row r="9" s="1" customFormat="1" spans="1:13">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -2727,35 +2755,38 @@
       <c r="C9" s="1">
         <v>-1.23335643431639</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
+        <v>-1.17123672758763</v>
+      </c>
+      <c r="E9" s="3">
         <v>-0.5122</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>-1.2636</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>-0.6014</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>-1.27</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>-0.5424</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>-1.2443</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>-1.2405</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>-1.2337</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>-1.2414</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:12">
+    <row r="10" s="1" customFormat="1" spans="1:13">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -2765,35 +2796,38 @@
       <c r="C10" s="1">
         <v>-1.22305026809653</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
+        <v>-1.16048827566641</v>
+      </c>
+      <c r="E10" s="3">
         <v>-0.4957</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>-1.2584</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-0.5936</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>-1.266</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-0.5318</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>-1.2357</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>-1.2314</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>-1.2176</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-1.2329</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:12">
+    <row r="11" s="1" customFormat="1" spans="1:13">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -2803,35 +2837,38 @@
       <c r="C11" s="1">
         <v>-1.20699731903488</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
+        <v>-1.14422256076764</v>
+      </c>
+      <c r="E11" s="3">
         <v>-0.4715</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>-1.2439</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>-0.5804</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>-1.2516</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <v>-0.5151</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>-1.2185</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>-1.2149</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>-1.1925</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-1.2169</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:12">
+    <row r="12" s="1" customFormat="1" spans="1:13">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -2841,35 +2878,38 @@
       <c r="C12" s="1">
         <v>-1.18415428954427</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
+        <v>-1.12088579232613</v>
+      </c>
+      <c r="E12" s="3">
         <v>-0.4379</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>-1.2182</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>-0.5609</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>-1.2247</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>-0.4912</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>-1.1915</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>-1.1895</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>-1.1569</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>-1.1921</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:12">
+    <row r="13" s="1" customFormat="1" spans="1:13">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -2879,35 +2919,38 @@
       <c r="C13" s="1">
         <v>-1.15414075067028</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
+        <v>-1.09042360489482</v>
+      </c>
+      <c r="E13" s="3">
         <v>-0.3934</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>-1.1796</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>-0.534</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>-1.1832</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
         <v>-0.4588</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>-1.1531</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>-1.1541</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>-1.1092</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>-1.1572</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:12">
+    <row r="14" s="1" customFormat="1" spans="1:13">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2917,35 +2960,38 @@
       <c r="C14" s="1">
         <v>-1.11580965147456</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
+        <v>-1.05176670656402</v>
+      </c>
+      <c r="E14" s="3">
         <v>-0.3357</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>-1.1258</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-0.4983</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>-1.1243</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-0.4165</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>-1.1017</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>-1.107</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>-1.0475</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>-1.1107</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:12">
+    <row r="15" s="1" customFormat="1" spans="1:13">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -2955,35 +3001,38 @@
       <c r="C15" s="1">
         <v>-1.06820991957107</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
+        <v>-1.00379164830943</v>
+      </c>
+      <c r="E15" s="3">
         <v>-0.2625</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>-1.0542</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-0.4524</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>-1.0449</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-0.3625</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>-1.0353</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>-1.0466</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>-0.9697</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-1.0507</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:12">
+    <row r="16" s="1" customFormat="1" spans="1:13">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -2993,31 +3042,34 @@
       <c r="C16" s="1">
         <v>-1.01007922252012</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
+        <v>-0.945339399255005</v>
+      </c>
+      <c r="E16" s="3">
         <v>-0.171</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>-0.9622</v>
       </c>
-      <c r="F16" s="3">
+      <c r="G16" s="3">
         <v>-0.3943</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>-0.9414</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
         <v>-0.2949</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>-0.9518</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <v>-0.9708</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>-0.8734</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>-0.9754</v>
       </c>
     </row>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -13,8 +13,8 @@
   </sheets>
   <definedNames>
     <definedName name="tmp" localSheetId="2">CCmd!$L$2:$L$16</definedName>
-    <definedName name="tmp_1" localSheetId="2">CCmd!$K$2:$K$16</definedName>
     <definedName name="ExternalData_1" localSheetId="2">CCmd!$M$2:$M$16</definedName>
+    <definedName name="ExternalData_2" localSheetId="2">CCmd!$K$2:$K$16</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -75,15 +75,15 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="tmp1" type="6" background="1" refreshedVersion="2" saveData="1">
-    <textPr sourceFile="/Users/yerong/Documents/William/tmp/tmp.txt">
+  <connection id="2" name="tmp_full" type="6" background="1" refreshedVersion="2" saveData="1">
+    <textPr sourceFile="F:\William\tmp_full.txt">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="tmp2" type="6" background="1" refreshedVersion="2" saveData="1">
-    <textPr sourceFile="F:\William\tmp\tmp.txt">
+  <connection id="3" name="tmp_single" type="6" background="1" refreshedVersion="2" saveData="1">
+    <textPr sourceFile="F:\William\tmp_single.txt">
       <textFields>
         <textField/>
       </textFields>
@@ -206,7 +206,7 @@
     <t>QM-phn</t>
   </si>
   <si>
-    <t>X6S</t>
+    <t>X6S-original</t>
   </si>
   <si>
     <t>X6S-optimized</t>
@@ -255,21 +255,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -282,8 +267,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,22 +292,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -338,7 +338,29 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,21 +368,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,23 +388,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,13 +412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,31 +424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,13 +436,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,7 +502,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,37 +532,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,7 +556,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,37 +580,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,15 +603,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -669,6 +660,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -706,158 +706,171 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -915,8 +928,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
     </queryTableFields>
@@ -925,8 +938,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
     </queryTableFields>
@@ -935,8 +948,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
     </queryTableFields>
@@ -1223,7 +1236,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1231,111 +1244,111 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="5">
+      <c r="A2" s="7">
         <v>7.734603659</v>
       </c>
       <c r="B2">
         <v>-9.29974075</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="7">
         <f t="shared" ref="C2:C25" si="0">B2+E2</f>
         <v>-9.27877112419782</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="8">
         <v>0</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="7">
         <v>0.0209696258021805</v>
       </c>
-      <c r="I2" s="5"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5">
+      <c r="A3" s="7">
         <v>7.398316544</v>
       </c>
       <c r="B3">
         <v>-9.303271</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="7">
         <f t="shared" si="0"/>
         <v>-9.28217704928256</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="8">
         <v>0</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="7">
         <v>0.0210939507174438</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5">
+      <c r="A4" s="7">
         <v>7.06202942799999</v>
       </c>
       <c r="B4">
         <v>-9.305298</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="7">
         <f t="shared" si="0"/>
         <v>-9.28401399136472</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="8">
         <v>0</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="7">
         <v>0.0212840086352783</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5">
+      <c r="A5" s="7">
         <v>6.99477200493787</v>
       </c>
       <c r="B5">
         <v>-9.30541825</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="7">
         <f t="shared" si="0"/>
         <v>-9.28414069068237</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="8">
         <v>0</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="7">
         <v>0.0212775593176295</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5">
+      <c r="A6" s="7">
         <v>6.92751458181347</v>
       </c>
       <c r="B6">
         <v>-9.305416</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="7">
         <f t="shared" si="0"/>
         <v>-9.305416</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="8">
         <v>0</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="5">
+      <c r="A7" s="7">
         <v>6.86025715868907</v>
       </c>
       <c r="B7">
         <v>-9.305258</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="7">
         <f t="shared" si="0"/>
         <v>-9.28394005617462</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="8">
         <v>0</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="7">
         <v>0.0213179438253818</v>
       </c>
     </row>
@@ -1346,11 +1359,11 @@
       <c r="B8">
         <v>-9.30494375</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="7">
         <f t="shared" si="0"/>
         <v>-9.28360454025992</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="8">
         <v>0</v>
       </c>
       <c r="E8">
@@ -1358,340 +1371,340 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="5">
+      <c r="A9" s="7">
         <v>6.72574231244026</v>
       </c>
       <c r="B9">
         <v>-9.30443575</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="7">
         <f t="shared" si="0"/>
         <v>-9.28085089283634</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="8">
         <v>0</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="7">
         <v>0.0235848571636644</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="5">
+      <c r="A10" s="7">
         <v>6.65848488931586</v>
       </c>
       <c r="B10">
         <v>-9.303711</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="7">
         <f t="shared" si="0"/>
         <v>-9.303711</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="8">
         <v>0</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="5">
+      <c r="A11" s="7">
         <v>6.59122746619145</v>
       </c>
       <c r="B11">
         <v>-9.3027445</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="7">
         <f t="shared" si="0"/>
         <v>-9.3027445</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="8">
         <v>0</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="5">
+      <c r="A12" s="7">
         <v>6.52397004306705</v>
       </c>
       <c r="B12">
         <v>-9.30149675</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="7">
         <f t="shared" si="0"/>
         <v>-9.30149675</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="8">
         <v>0</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="5">
+      <c r="A13" s="7">
         <v>6.45671261994265</v>
       </c>
       <c r="B13">
         <v>-9.29993175</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="7">
         <f t="shared" si="0"/>
         <v>-9.29993175</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="8">
         <v>0</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="5">
+      <c r="A14" s="7">
         <v>6.389455197</v>
       </c>
       <c r="B14">
         <v>-9.2980065</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="7">
         <f t="shared" si="0"/>
         <v>-9.2765447062902</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="8">
         <v>0</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="7">
         <v>0.0214617937098034</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="5">
+      <c r="A15" s="7">
         <v>6.05316808099999</v>
       </c>
       <c r="B15">
         <v>-9.281312</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="7">
         <f t="shared" si="0"/>
         <v>-9.25981534941733</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="8">
         <v>0</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="7">
         <v>0.0214966505826721</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="5">
+      <c r="A16" s="7">
         <v>5.71688096599999</v>
       </c>
       <c r="B16">
         <v>-9.24699775</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="7">
         <f t="shared" si="0"/>
         <v>-9.22545581578752</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="8">
         <v>0</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="7">
         <v>0.0215419342124851</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="5">
+      <c r="A17" s="7">
         <v>5.38059385</v>
       </c>
       <c r="B17">
         <v>-9.18425575</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="7">
         <f t="shared" si="0"/>
         <v>-9.16266257845306</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="8">
         <v>0</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="7">
         <v>0.0215931715469442</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="5">
+      <c r="A18" s="7">
         <v>5.044306734</v>
       </c>
       <c r="B18">
         <v>-9.07655725</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="7">
         <f t="shared" si="0"/>
         <v>-9.05490492455843</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="8">
         <v>0</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="7">
         <v>0.0216523254415718</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="5">
+      <c r="A19" s="7">
         <v>4.70801961899999</v>
       </c>
       <c r="B19">
         <v>-8.89676175</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="7">
         <f t="shared" si="0"/>
         <v>-8.87509644543177</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="8">
         <v>0</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="7">
         <v>0.0216653045682302</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="5">
+      <c r="A20" s="7">
         <v>4.37173250299999</v>
       </c>
       <c r="B20">
         <v>-8.610972</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="7">
         <f t="shared" si="0"/>
         <v>-8.58969112874629</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="8">
         <v>0</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="7">
         <v>0.021280871253706</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="5">
+      <c r="A21" s="7">
         <v>4.035445387</v>
       </c>
       <c r="B21">
         <v>-8.184804</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="7">
         <f t="shared" si="0"/>
         <v>-8.1644223392305</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="8">
         <v>0</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="7">
         <v>0.0203816607694967</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="5">
+      <c r="A22" s="7">
         <v>3.69915827100001</v>
       </c>
       <c r="B22">
         <v>-7.561232</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="7">
         <f t="shared" si="0"/>
         <v>-7.54245840350752</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="8">
         <v>0</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="7">
         <v>0.0187735964924786</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="5">
+      <c r="A23" s="7">
         <v>3.36287115500002</v>
       </c>
       <c r="B23">
         <v>-6.6218255</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="7">
         <f t="shared" si="0"/>
         <v>-6.60562327498075</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="8">
         <v>0</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="7">
         <v>0.0162022250192528</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="5">
+      <c r="A24" s="7">
         <v>3.02658403900003</v>
       </c>
       <c r="B24">
         <v>-5.380071</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="7">
         <f t="shared" si="0"/>
         <v>-5.36397948973004</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="8">
         <v>0</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="7">
         <v>0.0160915102699602</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="5">
+      <c r="A25" s="7">
         <v>2.69029692300004</v>
       </c>
       <c r="B25">
         <v>-3.654861</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="7">
         <f t="shared" si="0"/>
         <v>-3.63930487592718</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="8">
         <v>0</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="7">
         <v>0.0155561240728216</v>
       </c>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="1"/>
+      <c r="D28" s="6"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="1"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="4"/>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="4"/>
+      <c r="D31" s="8"/>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="4"/>
+      <c r="D32" s="8"/>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="4"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="4"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="4"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="4:4">
-      <c r="D36" s="4"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="4:4">
-      <c r="D37" s="4"/>
+      <c r="D37" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1716,41 +1729,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="5">
+      <c r="B2" s="7">
         <v>7.62651333736756</v>
       </c>
       <c r="C2">
         <v>-9.35571075</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="8">
         <f t="shared" ref="D2:D29" si="0">C2+F2</f>
         <v>-9.35571075</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="8">
         <v>0</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="7">
         <v>0</v>
       </c>
       <c r="G2">
@@ -1758,20 +1771,20 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="5">
+      <c r="B3" s="7">
         <v>7.29492580096027</v>
       </c>
       <c r="C3">
         <v>-9.36041425</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="8">
         <f t="shared" si="0"/>
         <v>-9.36041425</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="8">
         <v>0</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="7">
         <v>0</v>
       </c>
       <c r="G3">
@@ -1788,17 +1801,17 @@
       <c r="C4">
         <v>-9.36272175</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="8">
         <f t="shared" si="0"/>
         <v>-9.34142444866186</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="8">
         <v>-1.74798</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="6">
         <v>0.0212973013381394</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="6">
         <v>0.0206405764390277</v>
       </c>
     </row>
@@ -1812,17 +1825,17 @@
       <c r="C5">
         <v>-9.36334625</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="8">
         <f t="shared" si="0"/>
         <v>-9.34203116612822</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="8">
         <v>-1.37949</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="6">
         <v>0.0213150838717795</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="6">
         <v>0.02066163725461</v>
       </c>
     </row>
@@ -1830,23 +1843,23 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="7">
         <v>6.96333826455299</v>
       </c>
       <c r="C6">
         <v>-9.36387875</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="8">
         <f t="shared" si="0"/>
         <v>-9.34252731341168</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="8">
         <v>-0.649711</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="6">
         <v>0.0213514365883235</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="6">
         <v>0.0206943201157467</v>
       </c>
     </row>
@@ -1854,23 +1867,23 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="7">
         <v>6.89702075727153</v>
       </c>
       <c r="C7">
         <v>-9.364291</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="8">
         <f t="shared" si="0"/>
         <v>-9.34292050564871</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="8">
         <v>-0.436941</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="6">
         <v>0.0213704943512894</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="6">
         <v>0.0207214062522322</v>
       </c>
     </row>
@@ -1878,23 +1891,23 @@
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="7">
         <v>6.83070324999007</v>
       </c>
       <c r="C8">
         <v>-9.36458075</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="8">
         <f t="shared" si="0"/>
         <v>-9.34319526886993</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="8">
         <v>-0.194466</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="6">
         <v>0.0213854811300705</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="6">
         <v>0.0207224978899954</v>
       </c>
     </row>
@@ -1902,23 +1915,23 @@
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="7">
         <v>6.76438574270861</v>
       </c>
       <c r="C9">
         <v>-9.36471925</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="8">
         <f t="shared" si="0"/>
         <v>-9.34329465155856</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="8">
         <v>0.083872</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="6">
         <v>0.0214245984414376</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="6">
         <v>0.0207691221463404</v>
       </c>
     </row>
@@ -1932,17 +1945,17 @@
       <c r="C10">
         <v>-9.364684</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="8">
         <f t="shared" si="0"/>
         <v>-9.34324236527863</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="8">
         <v>0.40474</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="6">
         <v>0.0214416347213709</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="6">
         <v>0.0207971474890624</v>
       </c>
     </row>
@@ -1950,23 +1963,23 @@
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="7">
         <v>6.6317507281457</v>
       </c>
       <c r="C11">
         <v>-9.36446125</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="8">
         <f t="shared" si="0"/>
         <v>-9.34298510923149</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="8">
         <v>0.766066</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="6">
         <v>0.0214761407685137</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="6">
         <v>0.0208237304654679</v>
       </c>
     </row>
@@ -1974,23 +1987,23 @@
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="7">
         <v>6.56543322086424</v>
       </c>
       <c r="C12">
         <v>-9.36401425</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="8">
         <f t="shared" si="0"/>
         <v>-9.3425189263749</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="8">
         <v>1.209655</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="6">
         <v>0.0214953236250955</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="6">
         <v>0.0208437353704383</v>
       </c>
     </row>
@@ -1998,23 +2011,23 @@
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="7">
         <v>6.49911571358279</v>
       </c>
       <c r="C13">
         <v>-9.363318</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="8">
         <f t="shared" si="0"/>
         <v>-9.34181344827522</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="8">
         <v>1.650845</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="6">
         <v>0.0215045517247771</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="6">
         <v>0.0208632790939217</v>
       </c>
     </row>
@@ -2022,23 +2035,23 @@
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="7">
         <v>6.43279820630133</v>
       </c>
       <c r="C14">
         <v>-9.36232725</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="8">
         <f t="shared" si="0"/>
         <v>-9.34080128378352</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="8">
         <v>2.184954</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="6">
         <v>0.0215259662164836</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="6">
         <v>0.0208786517777622</v>
       </c>
     </row>
@@ -2046,23 +2059,23 @@
       <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="7">
         <v>6.36648069901987</v>
       </c>
       <c r="C15">
         <v>-9.3610255</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="8">
         <f t="shared" si="0"/>
         <v>-9.33948007495655</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="8">
         <v>2.81936</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="6">
         <v>0.0215454250434452</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="6">
         <v>0.0209155631075892</v>
       </c>
     </row>
@@ -2070,23 +2083,23 @@
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="7">
         <v>6.30016319173841</v>
       </c>
       <c r="C16">
         <v>-9.359363</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="8">
         <f t="shared" si="0"/>
         <v>-9.33780344436616</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="8">
         <v>3.470399</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="6">
         <v>0.02155955563384</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="6">
         <v>0.02093910836919</v>
       </c>
     </row>
@@ -2100,17 +2113,17 @@
       <c r="C17">
         <v>-9.3572985</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="8">
         <f t="shared" si="0"/>
         <v>-9.33572266567675</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="8">
         <v>8.313759</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="6">
         <v>0.0215758343232551</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="6">
         <v>0.0209624503779583</v>
       </c>
     </row>
@@ -2124,17 +2137,17 @@
       <c r="C18">
         <v>-9.35477725</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="8">
         <f t="shared" si="0"/>
         <v>-9.33318746929334</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="8">
         <v>16.364584</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="6">
         <v>0.0215897807066604</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="6">
         <v>0.0209664669130575</v>
       </c>
     </row>
@@ -2142,17 +2155,17 @@
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="7">
         <v>5.96857565533113</v>
       </c>
       <c r="C19">
         <v>-9.3439195</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="8">
         <f t="shared" si="0"/>
         <v>-9.3439195</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="8">
         <v>29.162834</v>
       </c>
       <c r="F19">
@@ -2163,17 +2176,17 @@
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="7">
         <v>5.63698811892385</v>
       </c>
       <c r="C20">
         <v>-9.31057675</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="8">
         <f t="shared" si="0"/>
         <v>-9.31057675</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="8">
         <v>49.590418</v>
       </c>
       <c r="F20">
@@ -2184,17 +2197,17 @@
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="7">
         <v>5.30540058251656</v>
       </c>
       <c r="C21">
         <v>-9.2470915</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="8">
         <f t="shared" si="0"/>
         <v>-9.2470915</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="8">
         <v>81.795232</v>
       </c>
       <c r="F21">
@@ -2205,17 +2218,17 @@
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="7">
         <v>4.97381304610928</v>
       </c>
       <c r="C22">
         <v>-9.13348925</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="8">
         <f t="shared" si="0"/>
         <v>-9.13348925</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="8">
         <v>126.264436</v>
       </c>
       <c r="F22">
@@ -2226,17 +2239,17 @@
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="7">
         <v>4.64222550970199</v>
       </c>
       <c r="C23">
         <v>-8.9380785</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="8">
         <f t="shared" si="0"/>
         <v>-8.9380785</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="8">
         <v>184.537527</v>
       </c>
       <c r="F23">
@@ -2247,17 +2260,17 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="7">
         <v>4.31063797329471</v>
       </c>
       <c r="C24">
         <v>-8.63161825</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="8">
         <f t="shared" si="0"/>
         <v>-8.63161825</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="8">
         <v>278.177108</v>
       </c>
       <c r="F24">
@@ -2268,17 +2281,17 @@
       <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="7">
         <v>3.97905043688742</v>
       </c>
       <c r="C25">
         <v>-8.18573275</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="8">
         <f t="shared" si="0"/>
         <v>-8.18573275</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="8">
         <v>410.94174</v>
       </c>
       <c r="F25">
@@ -2289,13 +2302,13 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="7">
         <v>3.64746290048014</v>
       </c>
       <c r="C26">
         <v>-7.534209</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="8">
         <f t="shared" si="0"/>
         <v>-7.534209</v>
       </c>
@@ -2310,13 +2323,13 @@
       <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="7">
         <v>3.31587536407285</v>
       </c>
       <c r="C27">
         <v>-6.56529875</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="8">
         <f t="shared" si="0"/>
         <v>-6.56529875</v>
       </c>
@@ -2328,70 +2341,70 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="8">
         <v>2.98428782766557</v>
       </c>
       <c r="C28">
         <v>-5.3080285</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="8">
         <f t="shared" si="0"/>
         <v>-5.3080285</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="6">
         <v>0</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="8">
         <v>2.65270029125828</v>
       </c>
       <c r="C29">
         <v>-3.53590775</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="8">
         <f t="shared" si="0"/>
         <v>-3.53590775</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="6">
         <v>0</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="5:5">
-      <c r="E30" s="4"/>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" spans="5:5">
-      <c r="E31" s="4"/>
+      <c r="E31" s="8"/>
     </row>
     <row r="32" spans="5:5">
-      <c r="E32" s="4"/>
+      <c r="E32" s="8"/>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="4"/>
+      <c r="E33" s="8"/>
     </row>
     <row r="34" spans="5:5">
-      <c r="E34" s="4"/>
+      <c r="E34" s="8"/>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="4"/>
+      <c r="E35" s="8"/>
     </row>
     <row r="36" spans="5:5">
-      <c r="E36" s="4"/>
+      <c r="E36" s="8"/>
     </row>
     <row r="37" spans="5:5">
-      <c r="E37" s="4"/>
+      <c r="E37" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2405,23 +2418,31 @@
   <sheetPr/>
   <dimension ref="A1:M16384"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="13.75"/>
-    <col min="5" max="5" width="12.8333333333333" customWidth="1"/>
-    <col min="7" max="7" width="11.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="11.8333333333333" customWidth="1"/>
-    <col min="11" max="12" width="7.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="16.25" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="12.625" style="2"/>
+    <col min="3" max="3" width="13.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="2"/>
+    <col min="5" max="5" width="12.8333333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.8333333333333" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="16.25" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:13">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2454,12 +2475,12 @@
       <c r="L1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:13">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1">
@@ -2471,36 +2492,36 @@
       <c r="D2" s="1">
         <v>-1.13525366887779</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>-0.4985</v>
       </c>
       <c r="F2" s="1">
         <v>-1.1389</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="4">
         <v>-0.5643</v>
       </c>
       <c r="H2" s="1">
         <v>-1.1224</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="4">
         <v>-0.5127</v>
       </c>
       <c r="J2" s="1">
         <v>-1.1506</v>
       </c>
       <c r="K2" s="1">
-        <v>-1.1655</v>
-      </c>
-      <c r="L2">
+        <v>-1.1123</v>
+      </c>
+      <c r="L2" s="2">
         <v>-1.1812</v>
       </c>
-      <c r="M2">
-        <v>-1.1634</v>
+      <c r="M2" s="2">
+        <v>-1.1089</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:13">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1">
@@ -2512,39 +2533,39 @@
       <c r="D3" s="1">
         <v>-1.14924232896001</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>-0.509</v>
       </c>
       <c r="F3" s="1">
         <v>-1.1675</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="4">
         <v>-0.5759</v>
       </c>
       <c r="H3" s="1">
         <v>-1.1551</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="4">
         <v>-0.524</v>
       </c>
       <c r="J3" s="1">
         <v>-1.175</v>
       </c>
       <c r="K3" s="1">
-        <v>-1.1862</v>
-      </c>
-      <c r="L3">
+        <v>-1.1315</v>
+      </c>
+      <c r="L3" s="2">
         <v>-1.2007</v>
       </c>
-      <c r="M3">
-        <v>-1.1845</v>
+      <c r="M3" s="2">
+        <v>-1.1286</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:13">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>6.96333826455299</v>
       </c>
       <c r="C4" s="1">
@@ -2553,39 +2574,39 @@
       <c r="D4" s="1">
         <v>-1.16068164970457</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>-0.5176</v>
       </c>
       <c r="F4" s="1">
         <v>-1.1937</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="4">
         <v>-0.586</v>
       </c>
       <c r="H4" s="1">
         <v>-1.1852</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="4">
         <v>-0.5337</v>
       </c>
       <c r="J4" s="1">
         <v>-1.1968</v>
       </c>
       <c r="K4" s="1">
-        <v>-1.2046</v>
-      </c>
-      <c r="L4">
+        <v>-1.1482</v>
+      </c>
+      <c r="L4" s="2">
         <v>-1.2173</v>
       </c>
-      <c r="M4">
-        <v>-1.2032</v>
+      <c r="M4" s="2">
+        <v>-1.146</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:13">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>6.89702075727153</v>
       </c>
       <c r="C5" s="1">
@@ -2594,39 +2615,39 @@
       <c r="D5" s="1">
         <v>-1.16974720798473</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>-0.5239</v>
       </c>
       <c r="F5" s="1">
         <v>-1.2169</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="4">
         <v>-0.5944</v>
       </c>
       <c r="H5" s="1">
         <v>-1.2122</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="4">
         <v>-0.5414</v>
       </c>
       <c r="J5" s="1">
         <v>-1.2154</v>
       </c>
       <c r="K5" s="1">
-        <v>-1.22</v>
-      </c>
-      <c r="L5">
+        <v>-1.162</v>
+      </c>
+      <c r="L5" s="2">
         <v>-1.2304</v>
       </c>
-      <c r="M5">
-        <v>-1.219</v>
+      <c r="M5" s="2">
+        <v>-1.1605</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:13">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>6.83070324999007</v>
       </c>
       <c r="C6" s="1">
@@ -2635,39 +2656,39 @@
       <c r="D6" s="1">
         <v>-1.1760822313158</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>-0.5273</v>
       </c>
       <c r="F6" s="1">
         <v>-1.2365</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="4">
         <v>-0.6007</v>
       </c>
       <c r="H6" s="1">
         <v>-1.2352</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="4">
         <v>-0.5467</v>
       </c>
       <c r="J6" s="1">
         <v>-1.2303</v>
       </c>
       <c r="K6" s="1">
-        <v>-1.232</v>
-      </c>
-      <c r="L6">
+        <v>-1.1725</v>
+      </c>
+      <c r="L6" s="2">
         <v>-1.2394</v>
       </c>
-      <c r="M6">
-        <v>-1.2314</v>
+      <c r="M6" s="2">
+        <v>-1.1717</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:13">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>6.76438574270861</v>
       </c>
       <c r="C7" s="1">
@@ -2676,36 +2697,36 @@
       <c r="D7" s="1">
         <v>-1.17837362842636</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>-0.527</v>
       </c>
       <c r="F7" s="1">
         <v>-1.2514</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="4">
         <v>-0.6043</v>
       </c>
       <c r="H7" s="1">
         <v>-1.2532</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="4">
         <v>-0.5491</v>
       </c>
       <c r="J7" s="1">
         <v>-1.2406</v>
       </c>
       <c r="K7" s="1">
-        <v>-1.2399</v>
-      </c>
-      <c r="L7">
+        <v>-1.179</v>
+      </c>
+      <c r="L7" s="2">
         <v>-1.2435</v>
       </c>
-      <c r="M7">
-        <v>-1.2398</v>
+      <c r="M7" s="2">
+        <v>-1.179</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:13">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1">
@@ -2717,39 +2738,39 @@
       <c r="D8" s="1">
         <v>-1.17716810025632</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>-0.5223</v>
       </c>
       <c r="F8" s="1">
         <v>-1.2608</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="4">
         <v>-0.6047</v>
       </c>
       <c r="H8" s="1">
         <v>-1.2652</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="4">
         <v>-0.5479</v>
       </c>
       <c r="J8" s="1">
         <v>-1.2456</v>
       </c>
       <c r="K8" s="1">
-        <v>-1.243</v>
-      </c>
-      <c r="L8">
+        <v>-1.1809</v>
+      </c>
+      <c r="L8" s="2">
         <v>-1.2419</v>
       </c>
-      <c r="M8">
-        <v>-1.2434</v>
+      <c r="M8" s="2">
+        <v>-1.1816</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:13">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>6.6317507281457</v>
       </c>
       <c r="C9" s="1">
@@ -2758,39 +2779,39 @@
       <c r="D9" s="1">
         <v>-1.17123672758763</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>-0.5122</v>
       </c>
       <c r="F9" s="1">
         <v>-1.2636</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="4">
         <v>-0.6014</v>
       </c>
       <c r="H9" s="1">
         <v>-1.27</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="4">
         <v>-0.5424</v>
       </c>
       <c r="J9" s="1">
         <v>-1.2443</v>
       </c>
       <c r="K9" s="1">
-        <v>-1.2405</v>
-      </c>
-      <c r="L9">
+        <v>-1.1774</v>
+      </c>
+      <c r="L9" s="2">
         <v>-1.2337</v>
       </c>
-      <c r="M9">
-        <v>-1.2414</v>
+      <c r="M9" s="2">
+        <v>-1.1787</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:13">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>6.56543322086424</v>
       </c>
       <c r="C10" s="1">
@@ -2799,39 +2820,39 @@
       <c r="D10" s="1">
         <v>-1.16048827566641</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>-0.4957</v>
       </c>
       <c r="F10" s="1">
         <v>-1.2584</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="4">
         <v>-0.5936</v>
       </c>
       <c r="H10" s="1">
         <v>-1.266</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="4">
         <v>-0.5318</v>
       </c>
       <c r="J10" s="1">
         <v>-1.2357</v>
       </c>
       <c r="K10" s="1">
-        <v>-1.2314</v>
-      </c>
-      <c r="L10">
+        <v>-1.1676</v>
+      </c>
+      <c r="L10" s="2">
         <v>-1.2176</v>
       </c>
-      <c r="M10">
-        <v>-1.2329</v>
+      <c r="M10" s="2">
+        <v>-1.1695</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:13">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="5">
         <v>6.49911571358279</v>
       </c>
       <c r="C11" s="1">
@@ -2840,39 +2861,39 @@
       <c r="D11" s="1">
         <v>-1.14422256076764</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>-0.4715</v>
       </c>
       <c r="F11" s="1">
         <v>-1.2439</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="4">
         <v>-0.5804</v>
       </c>
       <c r="H11" s="1">
         <v>-1.2516</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="4">
         <v>-0.5151</v>
       </c>
       <c r="J11" s="1">
         <v>-1.2185</v>
       </c>
       <c r="K11" s="1">
-        <v>-1.2149</v>
-      </c>
-      <c r="L11">
+        <v>-1.1505</v>
+      </c>
+      <c r="L11" s="2">
         <v>-1.1925</v>
       </c>
-      <c r="M11">
-        <v>-1.2169</v>
+      <c r="M11" s="2">
+        <v>-1.153</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:13">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="5">
         <v>6.43279820630133</v>
       </c>
       <c r="C12" s="1">
@@ -2881,39 +2902,39 @@
       <c r="D12" s="1">
         <v>-1.12088579232613</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>-0.4379</v>
       </c>
       <c r="F12" s="1">
         <v>-1.2182</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="4">
         <v>-0.5609</v>
       </c>
       <c r="H12" s="1">
         <v>-1.2247</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="4">
         <v>-0.4912</v>
       </c>
       <c r="J12" s="1">
         <v>-1.1915</v>
       </c>
       <c r="K12" s="1">
-        <v>-1.1895</v>
-      </c>
-      <c r="L12">
+        <v>-1.1251</v>
+      </c>
+      <c r="L12" s="2">
         <v>-1.1569</v>
       </c>
-      <c r="M12">
-        <v>-1.1921</v>
+      <c r="M12" s="2">
+        <v>-1.128</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:13">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="5">
         <v>6.36648069901987</v>
       </c>
       <c r="C13" s="1">
@@ -2922,39 +2943,39 @@
       <c r="D13" s="1">
         <v>-1.09042360489482</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>-0.3934</v>
       </c>
       <c r="F13" s="1">
         <v>-1.1796</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="4">
         <v>-0.534</v>
       </c>
       <c r="H13" s="1">
         <v>-1.1832</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="4">
         <v>-0.4588</v>
       </c>
       <c r="J13" s="1">
         <v>-1.1531</v>
       </c>
       <c r="K13" s="1">
-        <v>-1.1541</v>
-      </c>
-      <c r="L13">
+        <v>-1.0901</v>
+      </c>
+      <c r="L13" s="2">
         <v>-1.1092</v>
       </c>
-      <c r="M13">
-        <v>-1.1572</v>
+      <c r="M13" s="2">
+        <v>-1.0931</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:13">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="5">
         <v>6.30016319173841</v>
       </c>
       <c r="C14" s="1">
@@ -2963,36 +2984,36 @@
       <c r="D14" s="1">
         <v>-1.05176670656402</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <v>-0.3357</v>
       </c>
       <c r="F14" s="1">
         <v>-1.1258</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="4">
         <v>-0.4983</v>
       </c>
       <c r="H14" s="1">
         <v>-1.1243</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="4">
         <v>-0.4165</v>
       </c>
       <c r="J14" s="1">
         <v>-1.1017</v>
       </c>
       <c r="K14" s="1">
-        <v>-1.107</v>
-      </c>
-      <c r="L14">
+        <v>-1.044</v>
+      </c>
+      <c r="L14" s="2">
         <v>-1.0475</v>
       </c>
-      <c r="M14">
-        <v>-1.1107</v>
+      <c r="M14" s="2">
+        <v>-1.0468</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:13">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="1">
@@ -3004,36 +3025,36 @@
       <c r="D15" s="1">
         <v>-1.00379164830943</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>-0.2625</v>
       </c>
       <c r="F15" s="1">
         <v>-1.0542</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="4">
         <v>-0.4524</v>
       </c>
       <c r="H15" s="1">
         <v>-1.0449</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="4">
         <v>-0.3625</v>
       </c>
       <c r="J15" s="1">
         <v>-1.0353</v>
       </c>
       <c r="K15" s="1">
-        <v>-1.0466</v>
-      </c>
-      <c r="L15">
+        <v>-0.9853</v>
+      </c>
+      <c r="L15" s="2">
         <v>-0.9697</v>
       </c>
-      <c r="M15">
-        <v>-1.0507</v>
+      <c r="M15" s="2">
+        <v>-0.9876</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:13">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="1">
@@ -3045,32 +3066,32 @@
       <c r="D16" s="1">
         <v>-0.945339399255005</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="4">
         <v>-0.171</v>
       </c>
       <c r="F16" s="1">
         <v>-0.9622</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="4">
         <v>-0.3943</v>
       </c>
       <c r="H16" s="1">
         <v>-0.9414</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="4">
         <v>-0.2949</v>
       </c>
       <c r="J16" s="1">
         <v>-0.9518</v>
       </c>
       <c r="K16" s="1">
-        <v>-0.9708</v>
-      </c>
-      <c r="L16">
+        <v>-0.9121</v>
+      </c>
+      <c r="L16" s="2">
         <v>-0.8734</v>
       </c>
-      <c r="M16">
-        <v>-0.9754</v>
+      <c r="M16" s="2">
+        <v>-0.9133</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="20145" windowHeight="7365" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data11" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <definedName name="tmp" localSheetId="2">CCmd!$L$2:$L$16</definedName>
     <definedName name="ExternalData_1" localSheetId="2">CCmd!$M$2:$M$16</definedName>
     <definedName name="ExternalData_2" localSheetId="2">CCmd!$K$2:$K$16</definedName>
+    <definedName name="ExternalData_3" localSheetId="2">CCmd!$J$2:$J$16</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -75,14 +76,21 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="tmp_full" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="2" name="tmp1" type="6" background="1" refreshedVersion="2" saveData="1">
+    <textPr sourceFile="F:\William\tmp.txt">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="tmp_full" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\tmp_full.txt">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="tmp_single" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="4" name="tmp_single" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\tmp_single.txt">
       <textFields>
         <textField/>
@@ -252,6 +260,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -267,8 +283,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -283,9 +307,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,25 +366,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,17 +382,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -366,30 +395,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,7 +420,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,43 +510,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,43 +576,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,67 +594,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,17 +623,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,16 +663,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,8 +680,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,15 +703,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -706,148 +714,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -928,7 +936,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -938,7 +946,17 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
+    <queryTableFields count="1">
+      <queryTableField id="1" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -947,9 +965,9 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
     </queryTableFields>
@@ -2419,7 +2437,7 @@
   <dimension ref="A1:M16384"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2508,7 +2526,7 @@
         <v>-0.5127</v>
       </c>
       <c r="J2" s="1">
-        <v>-1.1506</v>
+        <v>-1.0943</v>
       </c>
       <c r="K2" s="1">
         <v>-1.1123</v>
@@ -2549,7 +2567,7 @@
         <v>-0.524</v>
       </c>
       <c r="J3" s="1">
-        <v>-1.175</v>
+        <v>-1.1177</v>
       </c>
       <c r="K3" s="1">
         <v>-1.1315</v>
@@ -2590,7 +2608,7 @@
         <v>-0.5337</v>
       </c>
       <c r="J4" s="1">
-        <v>-1.1968</v>
+        <v>-1.1385</v>
       </c>
       <c r="K4" s="1">
         <v>-1.1482</v>
@@ -2631,7 +2649,7 @@
         <v>-0.5414</v>
       </c>
       <c r="J5" s="1">
-        <v>-1.2154</v>
+        <v>-1.1562</v>
       </c>
       <c r="K5" s="1">
         <v>-1.162</v>
@@ -2672,7 +2690,7 @@
         <v>-0.5467</v>
       </c>
       <c r="J6" s="1">
-        <v>-1.2303</v>
+        <v>-1.1702</v>
       </c>
       <c r="K6" s="1">
         <v>-1.1725</v>
@@ -2713,7 +2731,7 @@
         <v>-0.5491</v>
       </c>
       <c r="J7" s="1">
-        <v>-1.2406</v>
+        <v>-1.1798</v>
       </c>
       <c r="K7" s="1">
         <v>-1.179</v>
@@ -2754,7 +2772,7 @@
         <v>-0.5479</v>
       </c>
       <c r="J8" s="1">
-        <v>-1.2456</v>
+        <v>-1.1841</v>
       </c>
       <c r="K8" s="1">
         <v>-1.1809</v>
@@ -2795,7 +2813,7 @@
         <v>-0.5424</v>
       </c>
       <c r="J9" s="1">
-        <v>-1.2443</v>
+        <v>-1.1823</v>
       </c>
       <c r="K9" s="1">
         <v>-1.1774</v>
@@ -2836,7 +2854,7 @@
         <v>-0.5318</v>
       </c>
       <c r="J10" s="1">
-        <v>-1.2357</v>
+        <v>-1.1732</v>
       </c>
       <c r="K10" s="1">
         <v>-1.1676</v>
@@ -2877,7 +2895,7 @@
         <v>-0.5151</v>
       </c>
       <c r="J11" s="1">
-        <v>-1.2185</v>
+        <v>-1.1556</v>
       </c>
       <c r="K11" s="1">
         <v>-1.1505</v>
@@ -2918,7 +2936,7 @@
         <v>-0.4912</v>
       </c>
       <c r="J12" s="1">
-        <v>-1.1915</v>
+        <v>-1.1283</v>
       </c>
       <c r="K12" s="1">
         <v>-1.1251</v>
@@ -2959,7 +2977,7 @@
         <v>-0.4588</v>
       </c>
       <c r="J13" s="1">
-        <v>-1.1531</v>
+        <v>-1.0897</v>
       </c>
       <c r="K13" s="1">
         <v>-1.0901</v>
@@ -3000,7 +3018,7 @@
         <v>-0.4165</v>
       </c>
       <c r="J14" s="1">
-        <v>-1.1017</v>
+        <v>-1.0381</v>
       </c>
       <c r="K14" s="1">
         <v>-1.044</v>
@@ -3041,7 +3059,7 @@
         <v>-0.3625</v>
       </c>
       <c r="J15" s="1">
-        <v>-1.0353</v>
+        <v>-0.9716</v>
       </c>
       <c r="K15" s="1">
         <v>-0.9853</v>
@@ -3082,7 +3100,7 @@
         <v>-0.2949</v>
       </c>
       <c r="J16" s="1">
-        <v>-0.9518</v>
+        <v>-0.8879</v>
       </c>
       <c r="K16" s="1">
         <v>-0.9121</v>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20145" windowHeight="7365" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data11" sheetId="1" r:id="rId1"/>
@@ -260,11 +260,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -276,16 +305,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,9 +320,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,21 +375,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -339,35 +383,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,30 +398,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,7 +420,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,25 +438,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,19 +516,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,7 +558,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,103 +588,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,24 +611,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -643,6 +625,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,17 +653,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,161 +697,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -936,7 +936,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -946,6 +946,16 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
+    <queryTableFields count="1">
+      <queryTableField id="1" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
@@ -955,18 +965,8 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
-    <queryTableFields count="1">
-      <queryTableField id="1" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -2436,8 +2436,8 @@
   <sheetPr/>
   <dimension ref="A1:M16384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2505,10 +2505,10 @@
         <v>7.0959732791159</v>
       </c>
       <c r="C2" s="1">
-        <v>-1.19325000000003</v>
+        <v>-1.19325000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-1.13525366887779</v>
+        <v>-1.12515016311301</v>
       </c>
       <c r="E2" s="4">
         <v>-0.4985</v>
@@ -2546,10 +2546,10 @@
         <v>7.02965577183444</v>
       </c>
       <c r="C3" s="1">
-        <v>-1.20764865951742</v>
+        <v>-1.20764865951699</v>
       </c>
       <c r="D3" s="1">
-        <v>-1.14924232896001</v>
+        <v>-1.139138823195</v>
       </c>
       <c r="E3" s="4">
         <v>-0.509</v>
@@ -2587,10 +2587,10 @@
         <v>6.96333826455299</v>
       </c>
       <c r="C4" s="1">
-        <v>-1.21992613941021</v>
+        <v>-1.21992613941001</v>
       </c>
       <c r="D4" s="1">
-        <v>-1.16068164970457</v>
+        <v>-1.15057814394001</v>
       </c>
       <c r="E4" s="4">
         <v>-0.5176</v>
@@ -2628,10 +2628,10 @@
         <v>6.89702075727153</v>
       </c>
       <c r="C5" s="1">
-        <v>-1.22943109919572</v>
+        <v>-1.22943109919601</v>
       </c>
       <c r="D5" s="1">
-        <v>-1.16974720798473</v>
+        <v>-1.15964370222</v>
       </c>
       <c r="E5" s="4">
         <v>-0.5239</v>
@@ -2669,10 +2669,10 @@
         <v>6.83070324999007</v>
       </c>
       <c r="C6" s="1">
-        <v>-1.2361116621984</v>
+        <v>-1.236111662198</v>
       </c>
       <c r="D6" s="1">
-        <v>-1.1760822313158</v>
+        <v>-1.16577309850899</v>
       </c>
       <c r="E6" s="4">
         <v>-0.5273</v>
@@ -2710,10 +2710,10 @@
         <v>6.76438574270861</v>
       </c>
       <c r="C7" s="1">
-        <v>-1.23930495978553</v>
+        <v>-1.23930495978601</v>
       </c>
       <c r="D7" s="1">
-        <v>-1.17837362842636</v>
+        <v>-1.16792690483501</v>
       </c>
       <c r="E7" s="4">
         <v>-0.527</v>
@@ -2751,10 +2751,10 @@
         <v>6.69806823542716</v>
       </c>
       <c r="C8" s="1">
-        <v>-1.23849222520113</v>
+        <v>-1.23849222520099</v>
       </c>
       <c r="D8" s="1">
-        <v>-1.17716810025632</v>
+        <v>-1.16718383082701</v>
       </c>
       <c r="E8" s="4">
         <v>-0.5223</v>
@@ -2792,10 +2792,10 @@
         <v>6.6317507281457</v>
       </c>
       <c r="C9" s="1">
-        <v>-1.23335643431639</v>
+        <v>-1.23335643431599</v>
       </c>
       <c r="D9" s="1">
-        <v>-1.17123672758763</v>
+        <v>-1.16113322182301</v>
       </c>
       <c r="E9" s="4">
         <v>-0.5122</v>
@@ -2833,10 +2833,10 @@
         <v>6.56543322086424</v>
       </c>
       <c r="C10" s="1">
-        <v>-1.22305026809653</v>
+        <v>-1.22305026809701</v>
       </c>
       <c r="D10" s="1">
-        <v>-1.16048827566641</v>
+        <v>-1.150384769901</v>
       </c>
       <c r="E10" s="4">
         <v>-0.4957</v>
@@ -2874,10 +2874,10 @@
         <v>6.49911571358279</v>
       </c>
       <c r="C11" s="1">
-        <v>-1.20699731903488</v>
+        <v>-1.206997319035</v>
       </c>
       <c r="D11" s="1">
-        <v>-1.14422256076764</v>
+        <v>-1.134119055003</v>
       </c>
       <c r="E11" s="4">
         <v>-0.4715</v>
@@ -2915,10 +2915,10 @@
         <v>6.43279820630133</v>
       </c>
       <c r="C12" s="1">
-        <v>-1.18415428954427</v>
+        <v>-1.18415428954401</v>
       </c>
       <c r="D12" s="1">
-        <v>-1.12088579232613</v>
+        <v>-1.110782286561</v>
       </c>
       <c r="E12" s="4">
         <v>-0.4379</v>
@@ -2956,10 +2956,10 @@
         <v>6.36648069901987</v>
       </c>
       <c r="C13" s="1">
-        <v>-1.15414075067028</v>
+        <v>-1.15414075067</v>
       </c>
       <c r="D13" s="1">
-        <v>-1.09042360489482</v>
+        <v>-1.08032009913001</v>
       </c>
       <c r="E13" s="4">
         <v>-0.3934</v>
@@ -2997,10 +2997,10 @@
         <v>6.30016319173841</v>
       </c>
       <c r="C14" s="1">
-        <v>-1.11580965147456</v>
+        <v>-1.11580965147499</v>
       </c>
       <c r="D14" s="1">
-        <v>-1.05176670656402</v>
+        <v>-1.04166320079901</v>
       </c>
       <c r="E14" s="4">
         <v>-0.3357</v>
@@ -3038,10 +3038,10 @@
         <v>6.23384568445696</v>
       </c>
       <c r="C15" s="1">
-        <v>-1.06820991957107</v>
+        <v>-1.06820991957099</v>
       </c>
       <c r="D15" s="1">
-        <v>-1.00379164830943</v>
+        <v>-0.993688142543988</v>
       </c>
       <c r="E15" s="4">
         <v>-0.2625</v>
@@ -3079,10 +3079,10 @@
         <v>6.1675281771755</v>
       </c>
       <c r="C16" s="1">
-        <v>-1.01007922252012</v>
+        <v>-1.01007922252001</v>
       </c>
       <c r="D16" s="1">
-        <v>-0.945339399255005</v>
+        <v>-0.935235893489988</v>
       </c>
       <c r="E16" s="4">
         <v>-0.171</v>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -65,39 +65,6 @@
     </comment>
   </commentList>
 </comments>
-</file>
-
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="tmp" type="6" background="1" refreshedVersion="2" saveData="1">
-    <textPr sourceFile="/Users/yerong/Documents/William/tmp/tmp.txt">
-      <textFields>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="2" name="tmp1" type="6" background="1" refreshedVersion="2" saveData="1">
-    <textPr sourceFile="F:\William\tmp.txt">
-      <textFields>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="3" name="tmp_full" type="6" background="1" refreshedVersion="2" saveData="1">
-    <textPr sourceFile="F:\William\tmp_full.txt">
-      <textFields>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="4" name="tmp_single" type="6" background="1" refreshedVersion="2" saveData="1">
-    <textPr sourceFile="F:\William\tmp_single.txt">
-      <textFields>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -246,9 +213,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -261,23 +228,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -290,79 +241,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -381,9 +264,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,6 +295,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -404,8 +348,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,13 +387,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,55 +441,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,31 +471,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,7 +495,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,13 +531,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,31 +549,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,6 +578,78 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -631,39 +670,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -672,190 +678,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -933,46 +900,6 @@
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
-    <queryTableFields count="1">
-      <queryTableField id="1" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
-    <queryTableFields count="1">
-      <queryTableField id="1" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
-    <queryTableFields count="1">
-      <queryTableField id="1" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
-    <queryTableFields count="1">
-      <queryTableField id="1" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2436,8 +2363,8 @@
   <sheetPr/>
   <dimension ref="A1:M16384"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2526,16 +2453,16 @@
         <v>-0.5127</v>
       </c>
       <c r="J2" s="1">
-        <v>-1.0943</v>
+        <v>-1.0857</v>
       </c>
       <c r="K2" s="1">
-        <v>-1.1123</v>
+        <v>-1.1029</v>
       </c>
       <c r="L2" s="2">
         <v>-1.1812</v>
       </c>
       <c r="M2" s="2">
-        <v>-1.1089</v>
+        <v>-1.0998</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:13">
@@ -2567,16 +2494,16 @@
         <v>-0.524</v>
       </c>
       <c r="J3" s="1">
-        <v>-1.1177</v>
+        <v>-1.1087</v>
       </c>
       <c r="K3" s="1">
-        <v>-1.1315</v>
+        <v>-1.1218</v>
       </c>
       <c r="L3" s="2">
         <v>-1.2007</v>
       </c>
       <c r="M3" s="2">
-        <v>-1.1286</v>
+        <v>-1.1193</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:13">
@@ -2608,16 +2535,16 @@
         <v>-0.5337</v>
       </c>
       <c r="J4" s="1">
-        <v>-1.1385</v>
+        <v>-1.1291</v>
       </c>
       <c r="K4" s="1">
-        <v>-1.1482</v>
+        <v>-1.1383</v>
       </c>
       <c r="L4" s="2">
         <v>-1.2173</v>
       </c>
       <c r="M4" s="2">
-        <v>-1.146</v>
+        <v>-1.1364</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:13">
@@ -2649,16 +2576,16 @@
         <v>-0.5414</v>
       </c>
       <c r="J5" s="1">
-        <v>-1.1562</v>
+        <v>-1.1465</v>
       </c>
       <c r="K5" s="1">
-        <v>-1.162</v>
+        <v>-1.152</v>
       </c>
       <c r="L5" s="2">
         <v>-1.2304</v>
       </c>
       <c r="M5" s="2">
-        <v>-1.1605</v>
+        <v>-1.1507</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:13">
@@ -2690,16 +2617,16 @@
         <v>-0.5467</v>
       </c>
       <c r="J6" s="1">
-        <v>-1.1702</v>
+        <v>-1.1602</v>
       </c>
       <c r="K6" s="1">
-        <v>-1.1725</v>
+        <v>-1.1623</v>
       </c>
       <c r="L6" s="2">
         <v>-1.2394</v>
       </c>
       <c r="M6" s="2">
-        <v>-1.1717</v>
+        <v>-1.1616</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:13">
@@ -2731,16 +2658,16 @@
         <v>-0.5491</v>
       </c>
       <c r="J7" s="1">
-        <v>-1.1798</v>
+        <v>-1.1695</v>
       </c>
       <c r="K7" s="1">
-        <v>-1.179</v>
+        <v>-1.1688</v>
       </c>
       <c r="L7" s="2">
         <v>-1.2435</v>
       </c>
       <c r="M7" s="2">
-        <v>-1.179</v>
+        <v>-1.1687</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:13">
@@ -2772,16 +2699,16 @@
         <v>-0.5479</v>
       </c>
       <c r="J8" s="1">
-        <v>-1.1841</v>
+        <v>-1.1736</v>
       </c>
       <c r="K8" s="1">
-        <v>-1.1809</v>
+        <v>-1.1706</v>
       </c>
       <c r="L8" s="2">
         <v>-1.2419</v>
       </c>
       <c r="M8" s="2">
-        <v>-1.1816</v>
+        <v>-1.1711</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:13">
@@ -2813,16 +2740,16 @@
         <v>-0.5424</v>
       </c>
       <c r="J9" s="1">
-        <v>-1.1823</v>
+        <v>-1.1716</v>
       </c>
       <c r="K9" s="1">
-        <v>-1.1774</v>
+        <v>-1.167</v>
       </c>
       <c r="L9" s="2">
         <v>-1.2337</v>
       </c>
       <c r="M9" s="2">
-        <v>-1.1787</v>
+        <v>-1.1682</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:13">
@@ -2854,16 +2781,16 @@
         <v>-0.5318</v>
       </c>
       <c r="J10" s="1">
-        <v>-1.1732</v>
+        <v>-1.1625</v>
       </c>
       <c r="K10" s="1">
-        <v>-1.1676</v>
+        <v>-1.1572</v>
       </c>
       <c r="L10" s="2">
         <v>-1.2176</v>
       </c>
       <c r="M10" s="2">
-        <v>-1.1695</v>
+        <v>-1.159</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:13">
@@ -2895,16 +2822,16 @@
         <v>-0.5151</v>
       </c>
       <c r="J11" s="1">
-        <v>-1.1556</v>
+        <v>-1.145</v>
       </c>
       <c r="K11" s="1">
-        <v>-1.1505</v>
+        <v>-1.1403</v>
       </c>
       <c r="L11" s="2">
         <v>-1.1925</v>
       </c>
       <c r="M11" s="2">
-        <v>-1.153</v>
+        <v>-1.1425</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:13">
@@ -2936,16 +2863,16 @@
         <v>-0.4912</v>
       </c>
       <c r="J12" s="1">
-        <v>-1.1283</v>
+        <v>-1.1179</v>
       </c>
       <c r="K12" s="1">
-        <v>-1.1251</v>
+        <v>-1.115</v>
       </c>
       <c r="L12" s="2">
         <v>-1.1569</v>
       </c>
       <c r="M12" s="2">
-        <v>-1.128</v>
+        <v>-1.1176</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:13">
@@ -2977,16 +2904,16 @@
         <v>-0.4588</v>
       </c>
       <c r="J13" s="1">
-        <v>-1.0897</v>
+        <v>-1.0797</v>
       </c>
       <c r="K13" s="1">
-        <v>-1.0901</v>
+        <v>-1.0802</v>
       </c>
       <c r="L13" s="2">
         <v>-1.1092</v>
       </c>
       <c r="M13" s="2">
-        <v>-1.0931</v>
+        <v>-1.083</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:13">
@@ -3018,16 +2945,16 @@
         <v>-0.4165</v>
       </c>
       <c r="J14" s="1">
-        <v>-1.0381</v>
+        <v>-1.0286</v>
       </c>
       <c r="K14" s="1">
-        <v>-1.044</v>
+        <v>-1.0345</v>
       </c>
       <c r="L14" s="2">
         <v>-1.0475</v>
       </c>
       <c r="M14" s="2">
-        <v>-1.0468</v>
+        <v>-1.0372</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:13">
@@ -3059,16 +2986,16 @@
         <v>-0.3625</v>
       </c>
       <c r="J15" s="1">
-        <v>-0.9716</v>
+        <v>-0.9629</v>
       </c>
       <c r="K15" s="1">
-        <v>-0.9853</v>
+        <v>-0.9763</v>
       </c>
       <c r="L15" s="2">
         <v>-0.9697</v>
       </c>
       <c r="M15" s="2">
-        <v>-0.9876</v>
+        <v>-0.9786</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:13">
@@ -3100,16 +3027,16 @@
         <v>-0.2949</v>
       </c>
       <c r="J16" s="1">
-        <v>-0.8879</v>
+        <v>-0.8805</v>
       </c>
       <c r="K16" s="1">
-        <v>-0.9121</v>
+        <v>-0.9037</v>
       </c>
       <c r="L16" s="2">
         <v>-0.8734</v>
       </c>
       <c r="M16" s="2">
-        <v>-0.9133</v>
+        <v>-0.9052</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20145" windowHeight="7365" tabRatio="500" activeTab="3"/>
+    <workbookView windowWidth="20145" windowHeight="8400" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="data11" sheetId="1" r:id="rId1"/>
@@ -241,10 +241,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -256,17 +256,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -285,18 +285,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -309,44 +302,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,6 +333,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,16 +369,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,7 +386,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,7 +415,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,55 +439,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,7 +463,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,13 +559,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,43 +577,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,31 +589,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,25 +609,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -648,11 +644,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,32 +674,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -706,151 +682,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2391,7 +2391,7 @@
   <sheetPr/>
   <dimension ref="A1:M16384"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:M16"/>
     </sheetView>
   </sheetViews>
@@ -19448,17 +19448,17 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C2" sqref="C2:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="3" width="12.625"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="13.75"/>
-    <col min="6" max="6" width="18.375" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
-    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="11.125" customWidth="1"/>
+    <col min="8" max="8" width="11.25" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="11" max="11" width="15.75" customWidth="1"/>
   </cols>
@@ -19513,22 +19513,23 @@
         <v>-9.34142444866186</v>
       </c>
       <c r="F2">
-        <v>-9.36272175</v>
+        <v>-9.36103175</v>
       </c>
       <c r="G2" s="1">
-        <v>0.0212973013381394</v>
+        <v>0.0207866660239055</v>
       </c>
       <c r="H2">
-        <v>-9.34142444866186</v>
+        <f t="shared" ref="H2:H16" si="0">F2+G2</f>
+        <v>-9.34024508397609</v>
       </c>
       <c r="I2">
-        <v>-9.36272175</v>
+        <v>-9.3677675</v>
       </c>
       <c r="J2" s="1">
-        <v>0.0212973013381394</v>
+        <v>0.0207866660239055</v>
       </c>
       <c r="K2">
-        <v>-9.34142444866186</v>
+        <v>-9.34698083397609</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -19548,22 +19549,23 @@
         <v>-9.34203116612822</v>
       </c>
       <c r="F3">
-        <v>-9.36334625</v>
+        <v>-9.361692</v>
       </c>
       <c r="G3" s="1">
-        <v>0.0213150838717795</v>
+        <v>0.020989686451872</v>
       </c>
       <c r="H3">
-        <v>-9.34203116612822</v>
+        <f t="shared" si="0"/>
+        <v>-9.34070231354813</v>
       </c>
       <c r="I3">
-        <v>-9.36334625</v>
+        <v>-9.368439</v>
       </c>
       <c r="J3" s="1">
-        <v>0.0213150838717795</v>
+        <v>0.020989686451872</v>
       </c>
       <c r="K3">
-        <v>-9.34203116612822</v>
+        <v>-9.34744931354813</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -19583,22 +19585,23 @@
         <v>-9.34252731341168</v>
       </c>
       <c r="F4">
-        <v>-9.36387875</v>
+        <v>-9.36226375</v>
       </c>
       <c r="G4" s="1">
-        <v>0.0213514365883235</v>
+        <v>0.0210678377004562</v>
       </c>
       <c r="H4">
-        <v>-9.34252731341168</v>
+        <f t="shared" si="0"/>
+        <v>-9.34119591229954</v>
       </c>
       <c r="I4">
-        <v>-9.36387875</v>
+        <v>-9.36901625</v>
       </c>
       <c r="J4" s="1">
-        <v>0.0213514365883235</v>
+        <v>0.0210678377004562</v>
       </c>
       <c r="K4">
-        <v>-9.34252731341168</v>
+        <v>-9.34794841229954</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -19618,22 +19621,23 @@
         <v>-9.34292050564871</v>
       </c>
       <c r="F5">
-        <v>-9.364291</v>
+        <v>-9.362721</v>
       </c>
       <c r="G5" s="1">
-        <v>0.0213704943512894</v>
+        <v>0.0211449184301374</v>
       </c>
       <c r="H5">
-        <v>-9.34292050564871</v>
+        <f t="shared" si="0"/>
+        <v>-9.34157608156986</v>
       </c>
       <c r="I5">
-        <v>-9.364291</v>
+        <v>-9.3694765</v>
       </c>
       <c r="J5" s="1">
-        <v>0.0213704943512894</v>
+        <v>0.0211449184301374</v>
       </c>
       <c r="K5">
-        <v>-9.34292050564871</v>
+        <v>-9.34833158156986</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -19653,22 +19657,23 @@
         <v>-9.34319526886993</v>
       </c>
       <c r="F6">
-        <v>-9.36458075</v>
+        <v>-9.36304625</v>
       </c>
       <c r="G6" s="1">
-        <v>0.0213854811300705</v>
+        <v>0.0211876360212808</v>
       </c>
       <c r="H6">
-        <v>-9.34319526886993</v>
+        <f t="shared" si="0"/>
+        <v>-9.34185861397872</v>
       </c>
       <c r="I6">
-        <v>-9.36458075</v>
+        <v>-9.3698085</v>
       </c>
       <c r="J6" s="1">
-        <v>0.0213854811300705</v>
+        <v>0.0211876360212808</v>
       </c>
       <c r="K6">
-        <v>-9.34319526886993</v>
+        <v>-9.34862086397872</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -19688,22 +19693,23 @@
         <v>-9.34329465155856</v>
       </c>
       <c r="F7">
-        <v>-9.36471925</v>
+        <v>-9.3632295</v>
       </c>
       <c r="G7" s="1">
-        <v>0.0214245984414376</v>
+        <v>0.0212305313736267</v>
       </c>
       <c r="H7">
-        <v>-9.34329465155856</v>
+        <f t="shared" si="0"/>
+        <v>-9.34199896862637</v>
       </c>
       <c r="I7">
-        <v>-9.36471925</v>
+        <v>-9.36999225</v>
       </c>
       <c r="J7" s="1">
-        <v>0.0214245984414376</v>
+        <v>0.0212305313736267</v>
       </c>
       <c r="K7">
-        <v>-9.34329465155856</v>
+        <v>-9.34876171862637</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -19723,22 +19729,23 @@
         <v>-9.34324236527863</v>
       </c>
       <c r="F8">
-        <v>-9.364684</v>
+        <v>-9.363235</v>
       </c>
       <c r="G8" s="1">
-        <v>0.0214416347213709</v>
+        <v>0.0212778746105494</v>
       </c>
       <c r="H8">
-        <v>-9.34324236527863</v>
+        <f t="shared" si="0"/>
+        <v>-9.34195712538945</v>
       </c>
       <c r="I8">
-        <v>-9.364684</v>
+        <v>-9.3700015</v>
       </c>
       <c r="J8" s="1">
-        <v>0.0214416347213709</v>
+        <v>0.0212778746105494</v>
       </c>
       <c r="K8">
-        <v>-9.34324236527863</v>
+        <v>-9.34872362538945</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -19758,22 +19765,23 @@
         <v>-9.34298510923149</v>
       </c>
       <c r="F9">
-        <v>-9.36446125</v>
+        <v>-9.36305075</v>
       </c>
       <c r="G9" s="1">
-        <v>0.0214761407685137</v>
+        <v>0.0213136945617403</v>
       </c>
       <c r="H9">
-        <v>-9.34298510923149</v>
+        <f t="shared" si="0"/>
+        <v>-9.34173705543826</v>
       </c>
       <c r="I9">
-        <v>-9.36446125</v>
+        <v>-9.36981575</v>
       </c>
       <c r="J9" s="1">
-        <v>0.0214761407685137</v>
+        <v>0.0213136945617403</v>
       </c>
       <c r="K9">
-        <v>-9.34298510923149</v>
+        <v>-9.34850205543826</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -19793,22 +19801,23 @@
         <v>-9.3425189263749</v>
       </c>
       <c r="F10">
-        <v>-9.36401425</v>
+        <v>-9.3626495</v>
       </c>
       <c r="G10" s="1">
-        <v>0.0214953236250955</v>
+        <v>0.0213480337310196</v>
       </c>
       <c r="H10">
-        <v>-9.3425189263749</v>
+        <f t="shared" si="0"/>
+        <v>-9.34130146626898</v>
       </c>
       <c r="I10">
-        <v>-9.36401425</v>
+        <v>-9.3694085</v>
       </c>
       <c r="J10" s="1">
-        <v>0.0214953236250955</v>
+        <v>0.0213480337310196</v>
       </c>
       <c r="K10">
-        <v>-9.3425189263749</v>
+        <v>-9.34806046626898</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -19828,22 +19837,23 @@
         <v>-9.34181344827522</v>
       </c>
       <c r="F11">
-        <v>-9.363318</v>
+        <v>-9.3619875</v>
       </c>
       <c r="G11" s="1">
-        <v>0.0215045517247771</v>
+        <v>0.021378424677586</v>
       </c>
       <c r="H11">
-        <v>-9.34181344827522</v>
+        <f t="shared" si="0"/>
+        <v>-9.34060907532241</v>
       </c>
       <c r="I11">
-        <v>-9.363318</v>
+        <v>-9.36874575</v>
       </c>
       <c r="J11" s="1">
-        <v>0.0215045517247771</v>
+        <v>0.021378424677586</v>
       </c>
       <c r="K11">
-        <v>-9.34181344827522</v>
+        <v>-9.34736732532241</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -19863,22 +19873,23 @@
         <v>-9.34080128378352</v>
       </c>
       <c r="F12">
-        <v>-9.36232725</v>
+        <v>-9.36103725</v>
       </c>
       <c r="G12" s="1">
-        <v>0.0215259662164836</v>
+        <v>0.0214031006727538</v>
       </c>
       <c r="H12">
-        <v>-9.34080128378352</v>
+        <f t="shared" si="0"/>
+        <v>-9.33963414932725</v>
       </c>
       <c r="I12">
-        <v>-9.36232725</v>
+        <v>-9.36779125</v>
       </c>
       <c r="J12" s="1">
-        <v>0.0215259662164836</v>
+        <v>0.0214031006727538</v>
       </c>
       <c r="K12">
-        <v>-9.34080128378352</v>
+        <v>-9.34638814932725</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -19898,22 +19909,23 @@
         <v>-9.33948007495655</v>
       </c>
       <c r="F13">
-        <v>-9.3610255</v>
+        <v>-9.3597695</v>
       </c>
       <c r="G13" s="1">
-        <v>0.0215454250434452</v>
+        <v>0.0214281307651274</v>
       </c>
       <c r="H13">
-        <v>-9.33948007495655</v>
+        <f t="shared" si="0"/>
+        <v>-9.33834136923487</v>
       </c>
       <c r="I13">
-        <v>-9.3610255</v>
+        <v>-9.3665155</v>
       </c>
       <c r="J13" s="1">
-        <v>0.0215454250434452</v>
+        <v>0.0214281307651274</v>
       </c>
       <c r="K13">
-        <v>-9.33948007495655</v>
+        <v>-9.34508736923487</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -19933,22 +19945,23 @@
         <v>-9.33780344436616</v>
       </c>
       <c r="F14">
-        <v>-9.359363</v>
+        <v>-9.35814475</v>
       </c>
       <c r="G14" s="1">
-        <v>0.02155955563384</v>
+        <v>0.0214509041842186</v>
       </c>
       <c r="H14">
-        <v>-9.33780344436616</v>
+        <f t="shared" si="0"/>
+        <v>-9.33669384581578</v>
       </c>
       <c r="I14">
-        <v>-9.359363</v>
+        <v>-9.3648825</v>
       </c>
       <c r="J14" s="1">
-        <v>0.02155955563384</v>
+        <v>0.0214509041842186</v>
       </c>
       <c r="K14">
-        <v>-9.33780344436616</v>
+        <v>-9.34343159581578</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -19968,22 +19981,23 @@
         <v>-9.33572266567675</v>
       </c>
       <c r="F15">
-        <v>-9.3572985</v>
+        <v>-9.35611575</v>
       </c>
       <c r="G15" s="1">
-        <v>0.0215758343232551</v>
+        <v>0.0214703613916357</v>
       </c>
       <c r="H15">
-        <v>-9.33572266567675</v>
+        <f t="shared" si="0"/>
+        <v>-9.33464538860837</v>
       </c>
       <c r="I15">
-        <v>-9.3572985</v>
+        <v>-9.36283875</v>
       </c>
       <c r="J15" s="1">
-        <v>0.0215758343232551</v>
+        <v>0.0214703613916357</v>
       </c>
       <c r="K15">
-        <v>-9.33572266567675</v>
+        <v>-9.34136838860836</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -20003,22 +20017,23 @@
         <v>-9.33318746929334</v>
       </c>
       <c r="F16">
-        <v>-9.35477725</v>
+        <v>-9.3536185</v>
       </c>
       <c r="G16" s="1">
-        <v>0.0215897807066604</v>
+        <v>0.0214884013356759</v>
       </c>
       <c r="H16">
-        <v>-9.33318746929334</v>
+        <f t="shared" si="0"/>
+        <v>-9.33213009866432</v>
       </c>
       <c r="I16">
-        <v>-9.35477725</v>
+        <v>-9.360343</v>
       </c>
       <c r="J16" s="1">
-        <v>0.0215897807066604</v>
+        <v>0.0214884013356759</v>
       </c>
       <c r="K16">
-        <v>-9.33318746929334</v>
+        <v>-9.33885459866432</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20145" windowHeight="8400" tabRatio="500" activeTab="3"/>
+    <workbookView windowWidth="20145" windowHeight="7365" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="data11" sheetId="1" r:id="rId1"/>
@@ -241,10 +241,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -255,11 +255,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -279,15 +299,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,7 +314,77 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,93 +398,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -412,6 +412,42 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -427,7 +463,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,7 +565,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,151 +595,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,18 +612,16 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -660,6 +658,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -685,172 +698,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -19448,7 +19448,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E16"/>
+      <selection activeCell="I2" sqref="I2:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -24,6 +24,9 @@
     <definedName name="ExternalData_1" localSheetId="2">CCmd!$M$2:$M$16</definedName>
     <definedName name="ExternalData_2" localSheetId="2">CCmd!$K$2:$K$16</definedName>
     <definedName name="ExternalData_3" localSheetId="2">CCmd!$J$2:$J$16</definedName>
+    <definedName name="res" localSheetId="4">shift!$D$2:$D$16</definedName>
+    <definedName name="res_1" localSheetId="4">shift!$E$2:$E$16</definedName>
+    <definedName name="res_2" localSheetId="4">shift!$F$2:$F$16</definedName>
     <definedName name="tmp" localSheetId="2">CCmd!$L$2:$L$16</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
@@ -82,6 +85,32 @@
     </comment>
   </commentList>
 </comments>
+</file>
+
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="res" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/yerong/Documents/William/res.txt">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="res1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/yerong/Documents/William/res.txt">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="res2" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/yerong/Documents/William/res.txt">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -268,7 +297,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -280,6 +312,13 @@
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -302,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -322,6 +361,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -334,6 +381,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19449,321 +19508,321 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>7.0226732791159003</v>
-      </c>
-      <c r="C2">
-        <v>-1.1639764723508701</v>
-      </c>
-      <c r="D2">
-        <v>-1.1173999999999999</v>
-      </c>
-      <c r="E2">
-        <v>-1.1563000000000001</v>
-      </c>
-      <c r="F2">
-        <v>-1.1416999999999999</v>
+      <c r="B2" s="12">
+        <v>7.0226730000000002</v>
+      </c>
+      <c r="C2" s="9">
+        <v>-1.1639764720000001</v>
+      </c>
+      <c r="D2" s="9">
+        <v>-1.1201000000000001</v>
+      </c>
+      <c r="E2" s="9">
+        <v>-1.1343000000000001</v>
+      </c>
+      <c r="F2" s="9">
+        <v>-1.1306</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>6.9563557718344402</v>
-      </c>
-      <c r="C3">
-        <v>-1.17477787803332</v>
-      </c>
-      <c r="D3">
-        <v>-1.1415</v>
-      </c>
-      <c r="E3">
-        <v>-1.1737</v>
-      </c>
-      <c r="F3">
-        <v>-1.1604000000000001</v>
+      <c r="B3" s="12">
+        <v>6.9563560000000004</v>
+      </c>
+      <c r="C3" s="9">
+        <v>-1.174777878</v>
+      </c>
+      <c r="D3" s="9">
+        <v>-1.1435999999999999</v>
+      </c>
+      <c r="E3" s="9">
+        <v>-1.1559999999999999</v>
+      </c>
+      <c r="F3" s="9">
+        <v>-1.1534</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>6.8900382645529898</v>
-      </c>
-      <c r="C4">
-        <v>-1.1862852487092499</v>
-      </c>
-      <c r="D4">
-        <v>-1.163</v>
-      </c>
-      <c r="E4">
-        <v>-1.1874</v>
-      </c>
-      <c r="F4">
-        <v>-1.1760999999999999</v>
+      <c r="B4" s="12">
+        <v>6.8900379999999997</v>
+      </c>
+      <c r="C4" s="9">
+        <v>-1.186285249</v>
+      </c>
+      <c r="D4" s="9">
+        <v>-1.1645000000000001</v>
+      </c>
+      <c r="E4" s="9">
+        <v>-1.1732</v>
+      </c>
+      <c r="F4" s="9">
+        <v>-1.1712</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>6.8237207572715297</v>
-      </c>
-      <c r="C5">
-        <v>-1.19511971445925</v>
-      </c>
-      <c r="D5">
-        <v>-1.1814</v>
-      </c>
-      <c r="E5">
-        <v>-1.1980999999999999</v>
-      </c>
-      <c r="F5">
-        <v>-1.1892</v>
+      <c r="B5" s="12">
+        <v>6.8237209999999999</v>
+      </c>
+      <c r="C5" s="9">
+        <v>-1.1951197140000001</v>
+      </c>
+      <c r="D5" s="9">
+        <v>-1.1823999999999999</v>
+      </c>
+      <c r="E5" s="9">
+        <v>-1.1875</v>
+      </c>
+      <c r="F5" s="9">
+        <v>-1.1861999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
-        <v>6.7574032499900696</v>
-      </c>
-      <c r="C6">
-        <v>-1.2017894965402101</v>
-      </c>
-      <c r="D6">
-        <v>-1.1960999999999999</v>
-      </c>
-      <c r="E6">
-        <v>-1.2051000000000001</v>
-      </c>
-      <c r="F6">
-        <v>-1.1991000000000001</v>
+      <c r="B6" s="12">
+        <v>6.757403</v>
+      </c>
+      <c r="C6" s="9">
+        <v>-1.201789497</v>
+      </c>
+      <c r="D6" s="9">
+        <v>-1.1964999999999999</v>
+      </c>
+      <c r="E6" s="9">
+        <v>-1.1984999999999999</v>
+      </c>
+      <c r="F6" s="9">
+        <v>-1.1978</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
-        <v>6.6910857427086103</v>
-      </c>
-      <c r="C7">
-        <v>-1.2050370835905799</v>
-      </c>
-      <c r="D7">
-        <v>-1.2062999999999999</v>
-      </c>
-      <c r="E7">
-        <v>-1.208</v>
-      </c>
-      <c r="F7">
-        <v>-1.2053</v>
+      <c r="B7" s="12">
+        <v>6.6910860000000003</v>
+      </c>
+      <c r="C7" s="9">
+        <v>-1.205037084</v>
+      </c>
+      <c r="D7" s="9">
+        <v>-1.2061999999999999</v>
+      </c>
+      <c r="E7" s="9">
+        <v>-1.2055</v>
+      </c>
+      <c r="F7" s="9">
+        <v>-1.2055</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
-        <v>6.62476823542716</v>
-      </c>
-      <c r="C8">
-        <v>-1.2041587944819701</v>
-      </c>
-      <c r="D8">
-        <v>-1.2112000000000001</v>
-      </c>
-      <c r="E8">
-        <v>-1.2059</v>
-      </c>
-      <c r="F8">
-        <v>-1.2071000000000001</v>
+      <c r="B8" s="12">
+        <v>6.6247680000000004</v>
+      </c>
+      <c r="C8" s="9">
+        <v>-1.204158794</v>
+      </c>
+      <c r="D8" s="9">
+        <v>-1.2107000000000001</v>
+      </c>
+      <c r="E8" s="9">
+        <v>-1.2079</v>
+      </c>
+      <c r="F8" s="9">
+        <v>-1.2084999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B9">
-        <v>6.5584507281456998</v>
-      </c>
-      <c r="C9">
-        <v>-1.1990502111569299</v>
-      </c>
-      <c r="D9">
-        <v>-1.2099</v>
-      </c>
-      <c r="E9">
-        <v>-1.1980999999999999</v>
-      </c>
-      <c r="F9">
-        <v>-1.204</v>
+      <c r="B9" s="12">
+        <v>6.5584509999999998</v>
+      </c>
+      <c r="C9" s="9">
+        <v>-1.1990502110000001</v>
+      </c>
+      <c r="D9" s="9">
+        <v>-1.2091000000000001</v>
+      </c>
+      <c r="E9" s="9">
+        <v>-1.2049000000000001</v>
+      </c>
+      <c r="F9" s="9">
+        <v>-1.2060999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
-        <v>6.4921332208642397</v>
-      </c>
-      <c r="C10">
-        <v>-1.1888687986748601</v>
-      </c>
-      <c r="D10">
-        <v>-1.2013</v>
-      </c>
-      <c r="E10">
-        <v>-1.1837</v>
-      </c>
-      <c r="F10">
-        <v>-1.1949000000000001</v>
+      <c r="B10" s="12">
+        <v>6.4921329999999999</v>
+      </c>
+      <c r="C10" s="9">
+        <v>-1.188868799</v>
+      </c>
+      <c r="D10" s="9">
+        <v>-1.2003999999999999</v>
+      </c>
+      <c r="E10" s="9">
+        <v>-1.1956</v>
+      </c>
+      <c r="F10" s="9">
+        <v>-1.1974</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B11">
-        <v>6.4258157135827902</v>
-      </c>
-      <c r="C11">
-        <v>-1.17288753288264</v>
-      </c>
-      <c r="D11">
-        <v>-1.1842999999999999</v>
-      </c>
-      <c r="E11">
-        <v>-1.1615</v>
-      </c>
-      <c r="F11">
+      <c r="B11" s="12">
+        <v>6.4258160000000002</v>
+      </c>
+      <c r="C11" s="9">
+        <v>-1.1728875329999999</v>
+      </c>
+      <c r="D11" s="9">
+        <v>-1.1833</v>
+      </c>
+      <c r="E11" s="9">
         <v>-1.1791</v>
+      </c>
+      <c r="F11" s="9">
+        <v>-1.1814</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B12">
-        <v>6.3594982063013301</v>
-      </c>
-      <c r="C12">
-        <v>-1.15031135712294</v>
-      </c>
-      <c r="D12">
-        <v>-1.1575</v>
-      </c>
-      <c r="E12">
-        <v>-1.1305000000000001</v>
-      </c>
-      <c r="F12">
-        <v>-1.1553</v>
+      <c r="B12" s="12">
+        <v>6.3594980000000003</v>
+      </c>
+      <c r="C12" s="9">
+        <v>-1.1503113570000001</v>
+      </c>
+      <c r="D12" s="9">
+        <v>-1.1567000000000001</v>
+      </c>
+      <c r="E12" s="9">
+        <v>-1.1543000000000001</v>
+      </c>
+      <c r="F12" s="9">
+        <v>-1.1569</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
-        <v>6.29318069901987</v>
-      </c>
-      <c r="C13">
-        <v>-1.1203201807302301</v>
-      </c>
-      <c r="D13">
-        <v>-1.1193</v>
-      </c>
-      <c r="E13">
-        <v>-1.0891999999999999</v>
-      </c>
-      <c r="F13">
-        <v>-1.1225000000000001</v>
+      <c r="B13" s="12">
+        <v>6.2931809999999997</v>
+      </c>
+      <c r="C13" s="9">
+        <v>-1.1203201810000001</v>
+      </c>
+      <c r="D13" s="9">
+        <v>-1.119</v>
+      </c>
+      <c r="E13" s="9">
+        <v>-1.1197999999999999</v>
+      </c>
+      <c r="F13" s="9">
+        <v>-1.1226</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B14">
-        <v>6.2268631917384099</v>
-      </c>
-      <c r="C14">
-        <v>-1.0821441716037701</v>
-      </c>
-      <c r="D14">
-        <v>-1.0682</v>
-      </c>
-      <c r="E14">
-        <v>-1.0361</v>
-      </c>
-      <c r="F14">
-        <v>-1.0790999999999999</v>
+      <c r="B14" s="12">
+        <v>6.2268629999999998</v>
+      </c>
+      <c r="C14" s="9">
+        <v>-1.082144172</v>
+      </c>
+      <c r="D14" s="9">
+        <v>-1.0686</v>
+      </c>
+      <c r="E14" s="9">
+        <v>-1.0744</v>
+      </c>
+      <c r="F14" s="9">
+        <v>-1.077</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B15">
-        <v>6.1605456844569604</v>
-      </c>
-      <c r="C15">
-        <v>-1.03457424671424</v>
-      </c>
-      <c r="D15">
-        <v>-1.0022</v>
-      </c>
-      <c r="E15">
-        <v>-0.96930000000000005</v>
-      </c>
-      <c r="F15">
-        <v>-1.0236000000000001</v>
+      <c r="B15" s="12">
+        <v>6.1605460000000001</v>
+      </c>
+      <c r="C15" s="9">
+        <v>-1.0345742469999999</v>
+      </c>
+      <c r="D15" s="9">
+        <v>-1.0038</v>
+      </c>
+      <c r="E15" s="9">
+        <v>-1.0162</v>
+      </c>
+      <c r="F15" s="9">
+        <v>-1.0184</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B16">
-        <v>6.0942281771755002</v>
-      </c>
-      <c r="C16">
-        <v>-0.97661555095345398</v>
-      </c>
-      <c r="D16">
-        <v>-0.91910000000000003</v>
-      </c>
-      <c r="E16">
-        <v>-0.88690000000000002</v>
-      </c>
-      <c r="F16">
-        <v>-0.95420000000000005</v>
+      <c r="B16" s="12">
+        <v>6.0942280000000002</v>
+      </c>
+      <c r="C16" s="9">
+        <v>-0.97661555099999997</v>
+      </c>
+      <c r="D16" s="9">
+        <v>-0.92230000000000001</v>
+      </c>
+      <c r="E16" s="9">
+        <v>-0.94359999999999999</v>
+      </c>
+      <c r="F16" s="9">
+        <v>-0.94489999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="460" windowWidth="24320" windowHeight="15540" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="1280" yWindow="460" windowWidth="24320" windowHeight="15540" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="data11" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,15 @@
     <definedName name="ExternalData_1" localSheetId="2">CCmd!$M$2:$M$16</definedName>
     <definedName name="ExternalData_2" localSheetId="2">CCmd!$K$2:$K$16</definedName>
     <definedName name="ExternalData_3" localSheetId="2">CCmd!$J$2:$J$16</definedName>
+    <definedName name="res" localSheetId="5">down!$C$2:$C$16</definedName>
     <definedName name="res" localSheetId="4">shift!$D$2:$D$16</definedName>
+    <definedName name="res" localSheetId="6">up!$C$2:$C$16</definedName>
+    <definedName name="res_1" localSheetId="5">down!$D$2:$D$16</definedName>
     <definedName name="res_1" localSheetId="4">shift!$E$2:$E$16</definedName>
+    <definedName name="res_1" localSheetId="6">up!$E$2:$E$16</definedName>
+    <definedName name="res_2" localSheetId="5">down!$E$2:$E$16</definedName>
     <definedName name="res_2" localSheetId="4">shift!$F$2:$F$16</definedName>
+    <definedName name="res_2" localSheetId="6">up!$D$2:$D$16</definedName>
     <definedName name="tmp" localSheetId="2">CCmd!$L$2:$L$16</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
@@ -110,11 +116,53 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="4" name="res3" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/yerong/Documents/William/res.txt">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" name="res4" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/yerong/Documents/William/res.txt">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" name="res5" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/yerong/Documents/William/res.txt">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="7" name="res6" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/yerong/Documents/William/res.txt">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="8" name="res7" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/yerong/Documents/William/res.txt">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="9" name="res8" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/yerong/Documents/William/res.txt">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="60">
   <si>
     <t>C(A)</t>
   </si>
@@ -292,13 +340,16 @@
   <si>
     <t>VopXfull</t>
   </si>
+  <si>
+    <t>QM+phn</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -368,7 +419,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,15 +435,39 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_1" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19501,7 +19576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F16"/>
     </sheetView>
   </sheetViews>
@@ -19832,136 +19907,286 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="A1:E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2">
         <v>7.0959732791159</v>
       </c>
+      <c r="C2">
+        <v>-1.6639764720000001</v>
+      </c>
+      <c r="D2">
+        <v>-1.5972999999999999</v>
+      </c>
+      <c r="E2">
+        <v>-1.5455000000000001</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2">
         <v>7.0296557718344399</v>
       </c>
+      <c r="C3">
+        <v>-1.674777878</v>
+      </c>
+      <c r="D3">
+        <v>-1.6272</v>
+      </c>
+      <c r="E3">
+        <v>-1.5806</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="3">
         <v>6.9633382645529904</v>
       </c>
+      <c r="C4">
+        <v>-1.686285249</v>
+      </c>
+      <c r="D4">
+        <v>-1.6536999999999999</v>
+      </c>
+      <c r="E4">
+        <v>-1.6138999999999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="3">
         <v>6.8970207572715303</v>
       </c>
+      <c r="C5">
+        <v>-1.6951197140000001</v>
+      </c>
+      <c r="D5">
+        <v>-1.6763999999999999</v>
+      </c>
+      <c r="E5">
+        <v>-1.6448</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3">
         <v>6.8307032499900702</v>
       </c>
+      <c r="C6">
+        <v>-1.701789497</v>
+      </c>
+      <c r="D6">
+        <v>-1.6943999999999999</v>
+      </c>
+      <c r="E6">
+        <v>-1.6729000000000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="3">
         <v>6.76438574270861</v>
       </c>
+      <c r="C7">
+        <v>-1.705037084</v>
+      </c>
+      <c r="D7">
+        <v>-1.7070000000000001</v>
+      </c>
+      <c r="E7">
+        <v>-1.6975</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2">
         <v>6.6980682354271597</v>
       </c>
+      <c r="C8">
+        <v>-1.704158794</v>
+      </c>
+      <c r="D8">
+        <v>-1.7133</v>
+      </c>
+      <c r="E8">
+        <v>-1.718</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="3">
         <v>6.6317507281457004</v>
       </c>
+      <c r="C9">
+        <v>-1.6990502110000001</v>
+      </c>
+      <c r="D9">
+        <v>-1.7124999999999999</v>
+      </c>
+      <c r="E9">
+        <v>-1.7337</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="3">
         <v>6.5654332208642403</v>
       </c>
+      <c r="C10">
+        <v>-1.688868799</v>
+      </c>
+      <c r="D10">
+        <v>-1.7033</v>
+      </c>
+      <c r="E10">
+        <v>-1.7437</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="3">
         <v>6.4991157135827899</v>
       </c>
+      <c r="C11">
+        <v>-1.6728875329999999</v>
+      </c>
+      <c r="D11">
+        <v>-1.6847000000000001</v>
+      </c>
+      <c r="E11">
+        <v>-1.7470000000000001</v>
+      </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="3">
         <v>6.4327982063013298</v>
       </c>
+      <c r="C12">
+        <v>-1.6503113570000001</v>
+      </c>
+      <c r="D12">
+        <v>-1.6553</v>
+      </c>
+      <c r="E12">
+        <v>-1.7423999999999999</v>
+      </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="3">
         <v>6.3664806990198697</v>
       </c>
+      <c r="C13">
+        <v>-1.6203201810000001</v>
+      </c>
+      <c r="D13">
+        <v>-1.6135999999999999</v>
+      </c>
+      <c r="E13">
+        <v>-1.7287999999999999</v>
+      </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="3">
         <v>6.3001631917384104</v>
       </c>
+      <c r="C14">
+        <v>-1.582144172</v>
+      </c>
+      <c r="D14">
+        <v>-1.5582</v>
+      </c>
+      <c r="E14">
+        <v>-1.7047000000000001</v>
+      </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="2">
         <v>6.2338456844569601</v>
       </c>
+      <c r="C15">
+        <v>-1.5345742469999999</v>
+      </c>
+      <c r="D15">
+        <v>-1.4871000000000001</v>
+      </c>
+      <c r="E15">
+        <v>-1.6684000000000001</v>
+      </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="2">
         <v>6.1675281771754999</v>
+      </c>
+      <c r="C16">
+        <v>-1.4766155510000001</v>
+      </c>
+      <c r="D16">
+        <v>-1.3984000000000001</v>
+      </c>
+      <c r="E16">
+        <v>-1.6181000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -19971,138 +20196,286 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B16"/>
+      <selection activeCell="E16" sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2">
         <v>7.0959732791159</v>
       </c>
+      <c r="C2">
+        <v>-0.66397647199999998</v>
+      </c>
+      <c r="D2">
+        <v>-0.64229999999999998</v>
+      </c>
+      <c r="E2">
+        <v>-0.72870000000000001</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2">
         <v>7.0296557718344399</v>
       </c>
+      <c r="C3">
+        <v>-0.674777878</v>
+      </c>
+      <c r="D3">
+        <v>-0.65920000000000001</v>
+      </c>
+      <c r="E3">
+        <v>-0.73270000000000002</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="3">
         <v>6.9633382645529904</v>
       </c>
+      <c r="C4">
+        <v>-0.68628524899999999</v>
+      </c>
+      <c r="D4">
+        <v>-0.67449999999999999</v>
+      </c>
+      <c r="E4">
+        <v>-0.73370000000000002</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="3">
         <v>6.8970207572715303</v>
       </c>
+      <c r="C5">
+        <v>-0.69511971400000006</v>
+      </c>
+      <c r="D5">
+        <v>-0.68769999999999998</v>
+      </c>
+      <c r="E5">
+        <v>-0.73119999999999996</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3">
         <v>6.8307032499900702</v>
       </c>
+      <c r="C6">
+        <v>-0.70178949700000004</v>
+      </c>
+      <c r="D6">
+        <v>-0.69820000000000004</v>
+      </c>
+      <c r="E6">
+        <v>-0.72470000000000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="3">
         <v>6.76438574270861</v>
       </c>
+      <c r="C7">
+        <v>-0.70503708399999998</v>
+      </c>
+      <c r="D7">
+        <v>-0.70550000000000002</v>
+      </c>
+      <c r="E7">
+        <v>-0.71360000000000001</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2">
         <v>6.6980682354271597</v>
       </c>
+      <c r="C8">
+        <v>-0.70415879400000003</v>
+      </c>
+      <c r="D8">
+        <v>-0.7087</v>
+      </c>
+      <c r="E8">
+        <v>-0.69710000000000005</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="3">
         <v>6.6317507281457004</v>
       </c>
+      <c r="C9">
+        <v>-0.69905021099999998</v>
+      </c>
+      <c r="D9">
+        <v>-0.70699999999999996</v>
+      </c>
+      <c r="E9">
+        <v>-0.67449999999999999</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="3">
         <v>6.5654332208642403</v>
       </c>
+      <c r="C10">
+        <v>-0.68886879899999998</v>
+      </c>
+      <c r="D10">
+        <v>-0.69920000000000004</v>
+      </c>
+      <c r="E10">
+        <v>-0.64490000000000003</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="3">
         <v>6.4991157135827899</v>
       </c>
+      <c r="C11">
+        <v>-0.67288753300000004</v>
+      </c>
+      <c r="D11">
+        <v>-0.68410000000000004</v>
+      </c>
+      <c r="E11">
+        <v>-0.60719999999999996</v>
+      </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="3">
         <v>6.4327982063013298</v>
       </c>
+      <c r="C12">
+        <v>-0.65031135699999998</v>
+      </c>
+      <c r="D12">
+        <v>-0.6603</v>
+      </c>
+      <c r="E12">
+        <v>-0.56040000000000001</v>
+      </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="3">
         <v>6.3664806990198697</v>
       </c>
+      <c r="C13">
+        <v>-0.62032018099999997</v>
+      </c>
+      <c r="D13">
+        <v>-0.62609999999999999</v>
+      </c>
+      <c r="E13">
+        <v>-0.50309999999999999</v>
+      </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="3">
         <v>6.3001631917384104</v>
       </c>
+      <c r="C14">
+        <v>-0.58214417200000002</v>
+      </c>
+      <c r="D14">
+        <v>-0.5796</v>
+      </c>
+      <c r="E14">
+        <v>-0.43390000000000001</v>
+      </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="2">
         <v>6.2338456844569601</v>
       </c>
+      <c r="C15">
+        <v>-0.534574247</v>
+      </c>
+      <c r="D15">
+        <v>-0.51829999999999998</v>
+      </c>
+      <c r="E15">
+        <v>-0.35120000000000001</v>
+      </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="2">
         <v>6.1675281771754999</v>
+      </c>
+      <c r="C16">
+        <v>-0.47661555100000003</v>
+      </c>
+      <c r="D16">
+        <v>-0.43969999999999998</v>
+      </c>
+      <c r="E16">
+        <v>-0.25309999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" tabRatio="500" activeTab="5"/>
+    <workbookView windowWidth="20385" windowHeight="7950" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data11" sheetId="1" r:id="rId1"/>
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>C(A)</t>
   </si>
@@ -306,7 +306,7 @@
     <t>LJ-optimized</t>
   </si>
   <si>
-    <t>X6</t>
+    <t>X6-original</t>
   </si>
   <si>
     <t>X6-optimized</t>
@@ -354,6 +354,9 @@
     <t>QM+phn/(kcal/mol)</t>
   </si>
   <si>
+    <t>X6</t>
+  </si>
+  <si>
     <t>VopX</t>
   </si>
   <si>
@@ -368,13 +371,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.000000"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.000000"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -390,9 +393,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,7 +446,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,54 +491,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,7 +507,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -498,15 +522,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,27 +547,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,7 +561,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,7 +693,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,103 +717,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,55 +741,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,39 +752,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -807,6 +785,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -824,11 +826,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,155 +841,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1007,15 +1018,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
@@ -1075,8 +1096,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp_1" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_6" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
     </queryTableFields>
@@ -1085,7 +1106,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1095,7 +1116,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1115,7 +1136,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1125,6 +1146,16 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_5" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
+    <queryTableFields count="1">
+      <queryTableField id="1" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_4" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
@@ -1134,19 +1165,9 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_5" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
-    <queryTableFields count="1">
-      <queryTableField id="1" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_6" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp_1" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
     </queryTableFields>
@@ -1155,7 +1176,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1175,7 +1196,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1185,7 +1206,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1491,111 +1512,111 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="12">
+      <c r="A2" s="16">
         <v>7.734603659</v>
       </c>
       <c r="B2">
         <v>-9.29974075</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="16">
         <f t="shared" ref="C2:C25" si="0">B2+E2</f>
         <v>-9.27877112419782</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="17">
         <v>0</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="16">
         <v>0.0209696258021805</v>
       </c>
-      <c r="I2" s="12"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="12">
+      <c r="A3" s="16">
         <v>7.398316544</v>
       </c>
       <c r="B3">
         <v>-9.303271</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="16">
         <f t="shared" si="0"/>
         <v>-9.28217704928256</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="17">
         <v>0</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="16">
         <v>0.0210939507174438</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="12">
+      <c r="A4" s="16">
         <v>7.06202942799999</v>
       </c>
       <c r="B4">
         <v>-9.305298</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="16">
         <f t="shared" si="0"/>
         <v>-9.28401399136472</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="17">
         <v>0</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="16">
         <v>0.0212840086352783</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="12">
+      <c r="A5" s="16">
         <v>6.99477200493787</v>
       </c>
       <c r="B5">
         <v>-9.30541825</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="16">
         <f t="shared" si="0"/>
         <v>-9.28414069068237</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="17">
         <v>0</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="16">
         <v>0.0212775593176295</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="12">
+      <c r="A6" s="16">
         <v>6.92751458181347</v>
       </c>
       <c r="B6">
         <v>-9.305416</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="16">
         <f t="shared" si="0"/>
         <v>-9.305416</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="17">
         <v>0</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="12">
+      <c r="A7" s="16">
         <v>6.86025715868907</v>
       </c>
       <c r="B7">
         <v>-9.305258</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="16">
         <f t="shared" si="0"/>
         <v>-9.28394005617462</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="17">
         <v>0</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="16">
         <v>0.0213179438253818</v>
       </c>
     </row>
@@ -1606,11 +1627,11 @@
       <c r="B8">
         <v>-9.30494375</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="16">
         <f t="shared" si="0"/>
         <v>-9.28360454025992</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="17">
         <v>0</v>
       </c>
       <c r="E8">
@@ -1618,308 +1639,308 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="12">
+      <c r="A9" s="16">
         <v>6.72574231244026</v>
       </c>
       <c r="B9">
         <v>-9.30443575</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="16">
         <f t="shared" si="0"/>
         <v>-9.28085089283634</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="17">
         <v>0</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="16">
         <v>0.0235848571636644</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="12">
+      <c r="A10" s="16">
         <v>6.65848488931586</v>
       </c>
       <c r="B10">
         <v>-9.303711</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="16">
         <f t="shared" si="0"/>
         <v>-9.303711</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="17">
         <v>0</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="12">
+      <c r="A11" s="16">
         <v>6.59122746619145</v>
       </c>
       <c r="B11">
         <v>-9.3027445</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="16">
         <f t="shared" si="0"/>
         <v>-9.3027445</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="17">
         <v>0</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="12">
+      <c r="A12" s="16">
         <v>6.52397004306705</v>
       </c>
       <c r="B12">
         <v>-9.30149675</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="16">
         <f t="shared" si="0"/>
         <v>-9.30149675</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="17">
         <v>0</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="12">
+      <c r="A13" s="16">
         <v>6.45671261994265</v>
       </c>
       <c r="B13">
         <v>-9.29993175</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="16">
         <f t="shared" si="0"/>
         <v>-9.29993175</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="17">
         <v>0</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="12">
+      <c r="A14" s="16">
         <v>6.389455197</v>
       </c>
       <c r="B14">
         <v>-9.2980065</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="16">
         <f t="shared" si="0"/>
         <v>-9.2765447062902</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="17">
         <v>0</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="16">
         <v>0.0214617937098034</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="12">
+      <c r="A15" s="16">
         <v>6.05316808099999</v>
       </c>
       <c r="B15">
         <v>-9.281312</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="16">
         <f t="shared" si="0"/>
         <v>-9.25981534941733</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="16">
         <v>0.0214966505826721</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="12">
+      <c r="A16" s="16">
         <v>5.71688096599999</v>
       </c>
       <c r="B16">
         <v>-9.24699775</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="16">
         <f t="shared" si="0"/>
         <v>-9.22545581578752</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="17">
         <v>0</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="16">
         <v>0.0215419342124851</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="12">
+      <c r="A17" s="16">
         <v>5.38059385</v>
       </c>
       <c r="B17">
         <v>-9.18425575</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="16">
         <f t="shared" si="0"/>
         <v>-9.16266257845306</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="17">
         <v>0</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="16">
         <v>0.0215931715469442</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="12">
+      <c r="A18" s="16">
         <v>5.044306734</v>
       </c>
       <c r="B18">
         <v>-9.07655725</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="16">
         <f t="shared" si="0"/>
         <v>-9.05490492455843</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="17">
         <v>0</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="16">
         <v>0.0216523254415718</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="12">
+      <c r="A19" s="16">
         <v>4.70801961899999</v>
       </c>
       <c r="B19">
         <v>-8.89676175</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="16">
         <f t="shared" si="0"/>
         <v>-8.87509644543177</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="17">
         <v>0</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="16">
         <v>0.0216653045682302</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="12">
+      <c r="A20" s="16">
         <v>4.37173250299999</v>
       </c>
       <c r="B20">
         <v>-8.610972</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="16">
         <f t="shared" si="0"/>
         <v>-8.58969112874629</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="17">
         <v>0</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="16">
         <v>0.021280871253706</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="12">
+      <c r="A21" s="16">
         <v>4.035445387</v>
       </c>
       <c r="B21">
         <v>-8.184804</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="16">
         <f t="shared" si="0"/>
         <v>-8.1644223392305</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="16">
         <v>0.0203816607694967</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="12">
+      <c r="A22" s="16">
         <v>3.69915827100001</v>
       </c>
       <c r="B22">
         <v>-7.561232</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="16">
         <f t="shared" si="0"/>
         <v>-7.54245840350752</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="17">
         <v>0</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="16">
         <v>0.0187735964924786</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="12">
+      <c r="A23" s="16">
         <v>3.36287115500002</v>
       </c>
       <c r="B23">
         <v>-6.6218255</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="16">
         <f t="shared" si="0"/>
         <v>-6.60562327498075</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="17">
         <v>0</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="16">
         <v>0.0162022250192528</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="12">
+      <c r="A24" s="16">
         <v>3.02658403900003</v>
       </c>
       <c r="B24">
         <v>-5.380071</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="16">
         <f t="shared" si="0"/>
         <v>-5.36397948973004</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="17">
         <v>0</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="16">
         <v>0.0160915102699602</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="12">
+      <c r="A25" s="16">
         <v>2.69029692300004</v>
       </c>
       <c r="B25">
         <v>-3.654861</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="16">
         <f t="shared" si="0"/>
         <v>-3.63930487592718</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="17">
         <v>0</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="16">
         <v>0.0155561240728216</v>
       </c>
     </row>
@@ -1930,28 +1951,28 @@
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="13"/>
+      <c r="D30" s="17"/>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="13"/>
+      <c r="D31" s="17"/>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="13"/>
+      <c r="D32" s="17"/>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="13"/>
+      <c r="D33" s="17"/>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="13"/>
+      <c r="D34" s="17"/>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="13"/>
+      <c r="D35" s="17"/>
     </row>
     <row r="36" spans="4:4">
-      <c r="D36" s="13"/>
+      <c r="D36" s="17"/>
     </row>
     <row r="37" spans="4:4">
-      <c r="D37" s="13"/>
+      <c r="D37" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1997,20 +2018,20 @@
       </c>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="12">
+      <c r="B2" s="16">
         <v>7.62651333736756</v>
       </c>
       <c r="C2">
         <v>-9.35571075</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="17">
         <f t="shared" ref="D2:D29" si="0">C2+F2</f>
         <v>-9.35571075</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="17">
         <v>0</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="16">
         <v>0</v>
       </c>
       <c r="G2">
@@ -2018,20 +2039,20 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="12">
+      <c r="B3" s="16">
         <v>7.29492580096027</v>
       </c>
       <c r="C3">
         <v>-9.36041425</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="17">
         <f t="shared" si="0"/>
         <v>-9.36041425</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="17">
         <v>0</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="16">
         <v>0</v>
       </c>
       <c r="G3">
@@ -2048,11 +2069,11 @@
       <c r="C4">
         <v>-9.36272175</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="17">
         <f t="shared" si="0"/>
         <v>-9.34142444866186</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="17">
         <v>-1.74798</v>
       </c>
       <c r="F4" s="8">
@@ -2072,11 +2093,11 @@
       <c r="C5">
         <v>-9.36334625</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="17">
         <f t="shared" si="0"/>
         <v>-9.34203116612822</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="17">
         <v>-1.37949</v>
       </c>
       <c r="F5" s="8">
@@ -2090,17 +2111,17 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="16">
         <v>6.96333826455299</v>
       </c>
       <c r="C6">
         <v>-9.36387875</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="17">
         <f t="shared" si="0"/>
         <v>-9.34252731341168</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="17">
         <v>-0.649711</v>
       </c>
       <c r="F6" s="8">
@@ -2114,17 +2135,17 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="16">
         <v>6.89702075727153</v>
       </c>
       <c r="C7">
         <v>-9.364291</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="17">
         <f t="shared" si="0"/>
         <v>-9.34292050564871</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="17">
         <v>-0.436941</v>
       </c>
       <c r="F7" s="8">
@@ -2138,17 +2159,17 @@
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="16">
         <v>6.83070324999007</v>
       </c>
       <c r="C8">
         <v>-9.36458075</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="17">
         <f t="shared" si="0"/>
         <v>-9.34319526886993</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="17">
         <v>-0.194466</v>
       </c>
       <c r="F8" s="8">
@@ -2162,17 +2183,17 @@
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="16">
         <v>6.76438574270861</v>
       </c>
       <c r="C9">
         <v>-9.36471925</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="17">
         <f t="shared" si="0"/>
         <v>-9.34329465155856</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="17">
         <v>0.083872</v>
       </c>
       <c r="F9" s="8">
@@ -2192,11 +2213,11 @@
       <c r="C10">
         <v>-9.364684</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="17">
         <f t="shared" si="0"/>
         <v>-9.34324236527863</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="17">
         <v>0.40474</v>
       </c>
       <c r="F10" s="8">
@@ -2210,17 +2231,17 @@
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="16">
         <v>6.6317507281457</v>
       </c>
       <c r="C11">
         <v>-9.36446125</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="17">
         <f t="shared" si="0"/>
         <v>-9.34298510923149</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="17">
         <v>0.766066</v>
       </c>
       <c r="F11" s="8">
@@ -2234,17 +2255,17 @@
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="16">
         <v>6.56543322086424</v>
       </c>
       <c r="C12">
         <v>-9.36401425</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="17">
         <f t="shared" si="0"/>
         <v>-9.3425189263749</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="17">
         <v>1.209655</v>
       </c>
       <c r="F12" s="8">
@@ -2258,17 +2279,17 @@
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="16">
         <v>6.49911571358279</v>
       </c>
       <c r="C13">
         <v>-9.363318</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="17">
         <f t="shared" si="0"/>
         <v>-9.34181344827522</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="17">
         <v>1.650845</v>
       </c>
       <c r="F13" s="8">
@@ -2282,17 +2303,17 @@
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="16">
         <v>6.43279820630133</v>
       </c>
       <c r="C14">
         <v>-9.36232725</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="17">
         <f t="shared" si="0"/>
         <v>-9.34080128378352</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="17">
         <v>2.184954</v>
       </c>
       <c r="F14" s="8">
@@ -2306,17 +2327,17 @@
       <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="16">
         <v>6.36648069901987</v>
       </c>
       <c r="C15">
         <v>-9.3610255</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="17">
         <f t="shared" si="0"/>
         <v>-9.33948007495655</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="17">
         <v>2.81936</v>
       </c>
       <c r="F15" s="8">
@@ -2330,17 +2351,17 @@
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="16">
         <v>6.30016319173841</v>
       </c>
       <c r="C16">
         <v>-9.359363</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="17">
         <f t="shared" si="0"/>
         <v>-9.33780344436616</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="17">
         <v>3.470399</v>
       </c>
       <c r="F16" s="8">
@@ -2360,11 +2381,11 @@
       <c r="C17">
         <v>-9.3572985</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="17">
         <f t="shared" si="0"/>
         <v>-9.33572266567675</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="17">
         <v>8.313759</v>
       </c>
       <c r="F17" s="8">
@@ -2384,11 +2405,11 @@
       <c r="C18">
         <v>-9.35477725</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="17">
         <f t="shared" si="0"/>
         <v>-9.33318746929334</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="17">
         <v>16.364584</v>
       </c>
       <c r="F18" s="8">
@@ -2402,17 +2423,17 @@
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="16">
         <v>5.96857565533113</v>
       </c>
       <c r="C19">
         <v>-9.3439195</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="17">
         <f t="shared" si="0"/>
         <v>-9.3439195</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="17">
         <v>29.162834</v>
       </c>
       <c r="F19">
@@ -2423,17 +2444,17 @@
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="16">
         <v>5.63698811892385</v>
       </c>
       <c r="C20">
         <v>-9.31057675</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="17">
         <f t="shared" si="0"/>
         <v>-9.31057675</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="17">
         <v>49.590418</v>
       </c>
       <c r="F20">
@@ -2444,17 +2465,17 @@
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="16">
         <v>5.30540058251656</v>
       </c>
       <c r="C21">
         <v>-9.2470915</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="17">
         <f t="shared" si="0"/>
         <v>-9.2470915</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="17">
         <v>81.795232</v>
       </c>
       <c r="F21">
@@ -2465,17 +2486,17 @@
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="16">
         <v>4.97381304610928</v>
       </c>
       <c r="C22">
         <v>-9.13348925</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="17">
         <f t="shared" si="0"/>
         <v>-9.13348925</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="17">
         <v>126.264436</v>
       </c>
       <c r="F22">
@@ -2486,17 +2507,17 @@
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="16">
         <v>4.64222550970199</v>
       </c>
       <c r="C23">
         <v>-8.9380785</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="17">
         <f t="shared" si="0"/>
         <v>-8.9380785</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="17">
         <v>184.537527</v>
       </c>
       <c r="F23">
@@ -2507,17 +2528,17 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="16">
         <v>4.31063797329471</v>
       </c>
       <c r="C24">
         <v>-8.63161825</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="17">
         <f t="shared" si="0"/>
         <v>-8.63161825</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="17">
         <v>278.177108</v>
       </c>
       <c r="F24">
@@ -2528,17 +2549,17 @@
       <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="16">
         <v>3.97905043688742</v>
       </c>
       <c r="C25">
         <v>-8.18573275</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="17">
         <f t="shared" si="0"/>
         <v>-8.18573275</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="17">
         <v>410.94174</v>
       </c>
       <c r="F25">
@@ -2549,13 +2570,13 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="16">
         <v>3.64746290048014</v>
       </c>
       <c r="C26">
         <v>-7.534209</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="17">
         <f t="shared" si="0"/>
         <v>-7.534209</v>
       </c>
@@ -2570,13 +2591,13 @@
       <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="16">
         <v>3.31587536407285</v>
       </c>
       <c r="C27">
         <v>-6.56529875</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="17">
         <f t="shared" si="0"/>
         <v>-6.56529875</v>
       </c>
@@ -2591,20 +2612,20 @@
       <c r="A28" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="17">
         <v>2.98428782766557</v>
       </c>
       <c r="C28">
         <v>-5.3080285</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="17">
         <f t="shared" si="0"/>
         <v>-5.3080285</v>
       </c>
       <c r="E28" s="8">
         <v>0</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="17">
         <v>0</v>
       </c>
     </row>
@@ -2612,46 +2633,46 @@
       <c r="A29" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="17">
         <v>2.65270029125828</v>
       </c>
       <c r="C29">
         <v>-3.53590775</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="17">
         <f t="shared" si="0"/>
         <v>-3.53590775</v>
       </c>
       <c r="E29" s="8">
         <v>0</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="5:5">
-      <c r="E30" s="13"/>
+      <c r="E30" s="17"/>
     </row>
     <row r="31" spans="5:5">
-      <c r="E31" s="13"/>
+      <c r="E31" s="17"/>
     </row>
     <row r="32" spans="5:5">
-      <c r="E32" s="13"/>
+      <c r="E32" s="17"/>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="13"/>
+      <c r="E33" s="17"/>
     </row>
     <row r="34" spans="5:5">
-      <c r="E34" s="13"/>
+      <c r="E34" s="17"/>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="13"/>
+      <c r="E35" s="17"/>
     </row>
     <row r="36" spans="5:5">
-      <c r="E36" s="13"/>
+      <c r="E36" s="17"/>
     </row>
     <row r="37" spans="5:5">
-      <c r="E37" s="13"/>
+      <c r="E37" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2665,8 +2686,8 @@
   <sheetPr/>
   <dimension ref="A1:M16384"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2686,661 +2707,698 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="12" t="s">
         <v>42</v>
       </c>
+      <c r="J1" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="K1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="L1" s="13" t="s">
         <v>45</v>
       </c>
+      <c r="M1" s="14" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
+      <c r="A2" s="2">
+        <v>7.0959732791159</v>
       </c>
       <c r="B2" s="2">
-        <v>7.0959732791159</v>
-      </c>
-      <c r="C2" s="2">
-        <v>-1.19325000000001</v>
-      </c>
-      <c r="D2">
+        <v>-1.30958632707799</v>
+      </c>
+      <c r="C2">
         <v>-1.16397647235087</v>
       </c>
-      <c r="E2" s="10">
+      <c r="D2" s="10">
         <v>-0.4985</v>
       </c>
-      <c r="F2" s="2">
+      <c r="E2" s="2">
         <v>-1.1389</v>
       </c>
-      <c r="G2" s="10">
+      <c r="F2" s="10">
         <v>-0.5643</v>
       </c>
-      <c r="H2" s="2">
+      <c r="G2" s="2">
         <v>-1.1224</v>
       </c>
-      <c r="I2" s="10">
+      <c r="H2" s="10">
         <v>-0.5127</v>
       </c>
-      <c r="J2">
-        <v>-1.1183</v>
-      </c>
-      <c r="K2">
-        <v>-1.1354</v>
-      </c>
-      <c r="L2" s="11">
+      <c r="I2" s="15">
+        <v>-1.1061</v>
+      </c>
+      <c r="J2" s="15">
+        <v>-1.1251</v>
+      </c>
+      <c r="K2" s="14">
         <v>-1.1812</v>
+      </c>
+      <c r="L2" s="15">
+        <v>-1.1203</v>
       </c>
       <c r="M2">
         <v>-1.1317</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
+      <c r="A3" s="2">
+        <v>7.02965577183444</v>
       </c>
       <c r="B3" s="2">
-        <v>7.02965577183444</v>
-      </c>
-      <c r="C3" s="2">
-        <v>-1.20764865951699</v>
-      </c>
-      <c r="D3">
+        <v>-1.325068632708</v>
+      </c>
+      <c r="C3">
         <v>-1.17477787803332</v>
       </c>
-      <c r="E3" s="10">
+      <c r="D3" s="10">
         <v>-0.509</v>
       </c>
-      <c r="F3" s="2">
+      <c r="E3" s="2">
         <v>-1.1675</v>
       </c>
-      <c r="G3" s="10">
+      <c r="F3" s="10">
         <v>-0.5759</v>
       </c>
-      <c r="H3" s="2">
+      <c r="G3" s="2">
         <v>-1.1551</v>
       </c>
-      <c r="I3" s="10">
+      <c r="H3" s="10">
         <v>-0.524</v>
       </c>
-      <c r="J3">
-        <v>-1.1422</v>
-      </c>
-      <c r="K3">
-        <v>-1.1552</v>
-      </c>
-      <c r="L3" s="11">
+      <c r="I3" s="15">
+        <v>-1.1303</v>
+      </c>
+      <c r="J3" s="15">
+        <v>-1.1475</v>
+      </c>
+      <c r="K3" s="14">
         <v>-1.2007</v>
+      </c>
+      <c r="L3" s="15">
+        <v>-1.1438</v>
       </c>
       <c r="M3">
         <v>-1.1522</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="A4" s="3">
         <v>6.96333826455299</v>
       </c>
-      <c r="C4" s="2">
-        <v>-1.21992613941001</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="2">
+        <v>-1.338377882038</v>
+      </c>
+      <c r="C4">
         <v>-1.18628524870925</v>
       </c>
-      <c r="E4" s="10">
+      <c r="D4" s="10">
         <v>-0.5176</v>
       </c>
-      <c r="F4" s="2">
+      <c r="E4" s="2">
         <v>-1.1937</v>
       </c>
-      <c r="G4" s="10">
+      <c r="F4" s="10">
         <v>-0.586</v>
       </c>
-      <c r="H4" s="2">
+      <c r="G4" s="2">
         <v>-1.1852</v>
       </c>
-      <c r="I4" s="10">
+      <c r="H4" s="10">
         <v>-0.5337</v>
       </c>
-      <c r="J4">
-        <v>-1.1635</v>
-      </c>
-      <c r="K4">
-        <v>-1.1726</v>
-      </c>
-      <c r="L4" s="11">
+      <c r="I4" s="15">
+        <v>-1.1521</v>
+      </c>
+      <c r="J4" s="15">
+        <v>-1.1654</v>
+      </c>
+      <c r="K4" s="14">
         <v>-1.2173</v>
+      </c>
+      <c r="L4" s="15">
+        <v>-1.1623</v>
       </c>
       <c r="M4">
         <v>-1.1703</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="A5" s="3">
         <v>6.89702075727153</v>
       </c>
-      <c r="C5" s="2">
-        <v>-1.22943109919601</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="2">
+        <v>-1.34898954423599</v>
+      </c>
+      <c r="C5">
         <v>-1.19511971445925</v>
       </c>
-      <c r="E5" s="10">
+      <c r="D5" s="10">
         <v>-0.5239</v>
       </c>
-      <c r="F5" s="2">
+      <c r="E5" s="2">
         <v>-1.2169</v>
       </c>
-      <c r="G5" s="10">
+      <c r="F5" s="10">
         <v>-0.5944</v>
       </c>
-      <c r="H5" s="2">
+      <c r="G5" s="2">
         <v>-1.2122</v>
       </c>
-      <c r="I5" s="10">
+      <c r="H5" s="10">
         <v>-0.5414</v>
       </c>
-      <c r="J5">
-        <v>-1.1817</v>
-      </c>
-      <c r="K5">
-        <v>-1.1872</v>
-      </c>
-      <c r="L5" s="11">
+      <c r="I5" s="15">
+        <v>-1.171</v>
+      </c>
+      <c r="J5" s="15">
+        <v>-1.1805</v>
+      </c>
+      <c r="K5" s="14">
         <v>-1.2304</v>
+      </c>
+      <c r="L5" s="15">
+        <v>-1.1781</v>
       </c>
       <c r="M5">
         <v>-1.1856</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="A6" s="3">
         <v>6.83070324999007</v>
       </c>
-      <c r="C6" s="2">
-        <v>-1.236111662198</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="2">
+        <v>-1.35664423592499</v>
+      </c>
+      <c r="C6">
         <v>-1.20178949654021</v>
       </c>
-      <c r="E6" s="10">
+      <c r="D6" s="10">
         <v>-0.5273</v>
       </c>
-      <c r="F6" s="2">
+      <c r="E6" s="2">
         <v>-1.2365</v>
       </c>
-      <c r="G6" s="10">
+      <c r="F6" s="10">
         <v>-0.6007</v>
       </c>
-      <c r="H6" s="2">
+      <c r="G6" s="2">
         <v>-1.2352</v>
       </c>
-      <c r="I6" s="10">
+      <c r="H6" s="10">
         <v>-0.5467</v>
       </c>
-      <c r="J6">
-        <v>-1.1962</v>
-      </c>
-      <c r="K6">
-        <v>-1.1983</v>
-      </c>
-      <c r="L6" s="11">
+      <c r="I6" s="15">
+        <v>-1.1864</v>
+      </c>
+      <c r="J6" s="15">
+        <v>-1.1924</v>
+      </c>
+      <c r="K6" s="14">
         <v>-1.2394</v>
+      </c>
+      <c r="L6" s="15">
+        <v>-1.1906</v>
       </c>
       <c r="M6">
         <v>-1.1975</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="A7" s="3">
         <v>6.76438574270861</v>
       </c>
-      <c r="C7" s="2">
-        <v>-1.23930495978601</v>
-      </c>
-      <c r="D7">
+      <c r="B7" s="2">
+        <v>-1.360880831099</v>
+      </c>
+      <c r="C7">
         <v>-1.20503708359058</v>
       </c>
-      <c r="E7" s="10">
+      <c r="D7" s="10">
         <v>-0.527</v>
       </c>
-      <c r="F7" s="2">
+      <c r="E7" s="2">
         <v>-1.2514</v>
       </c>
-      <c r="G7" s="10">
+      <c r="F7" s="10">
         <v>-0.6043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="G7" s="2">
         <v>-1.2532</v>
       </c>
-      <c r="I7" s="10">
+      <c r="H7" s="10">
         <v>-0.5491</v>
       </c>
-      <c r="J7">
-        <v>-1.2063</v>
-      </c>
-      <c r="K7">
-        <v>-1.2055</v>
-      </c>
-      <c r="L7" s="11">
+      <c r="I7" s="15">
+        <v>-1.2085</v>
+      </c>
+      <c r="J7" s="15">
+        <v>-1.2074</v>
+      </c>
+      <c r="K7" s="14">
         <v>-1.2435</v>
+      </c>
+      <c r="L7" s="15">
+        <v>-1.2074</v>
       </c>
       <c r="M7">
         <v>-1.2055</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
+      <c r="A8" s="11">
+        <v>6.7454</v>
       </c>
       <c r="B8" s="2">
-        <v>6.69806823542716</v>
-      </c>
-      <c r="C8" s="2">
-        <v>-1.23849222520099</v>
-      </c>
-      <c r="D8">
-        <v>-1.20415879448197</v>
-      </c>
-      <c r="E8" s="10">
-        <v>-0.5223</v>
-      </c>
-      <c r="F8" s="2">
-        <v>-1.2608</v>
-      </c>
-      <c r="G8" s="10">
-        <v>-0.6047</v>
-      </c>
-      <c r="H8" s="2">
-        <v>-1.2652</v>
-      </c>
-      <c r="I8" s="10">
-        <v>-0.5479</v>
-      </c>
-      <c r="J8">
-        <v>-1.2111</v>
-      </c>
-      <c r="K8">
-        <v>-1.208</v>
-      </c>
-      <c r="L8" s="11">
-        <v>-1.2419</v>
+        <v>-1.36141112600501</v>
+      </c>
+      <c r="C8">
+        <v>-1.20522788652559</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="15">
+        <v>-1.2068</v>
+      </c>
+      <c r="J8" s="15">
+        <v>-1.2059</v>
+      </c>
+      <c r="K8" s="14">
+        <v>0</v>
+      </c>
+      <c r="L8" s="15">
+        <v>-1.2059</v>
       </c>
       <c r="M8">
         <v>-1.2088</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3">
-        <v>6.6317507281457</v>
-      </c>
-      <c r="C9" s="2">
-        <v>-1.23335643431599</v>
-      </c>
-      <c r="D9">
-        <v>-1.19905021115693</v>
-      </c>
-      <c r="E9" s="10">
-        <v>-0.5122</v>
-      </c>
-      <c r="F9" s="2">
-        <v>-1.2636</v>
-      </c>
-      <c r="G9" s="10">
-        <v>-0.6014</v>
-      </c>
-      <c r="H9" s="2">
-        <v>-1.27</v>
-      </c>
-      <c r="I9" s="10">
-        <v>-0.5424</v>
-      </c>
-      <c r="J9">
-        <v>-1.2097</v>
-      </c>
-      <c r="K9">
-        <v>-1.2051</v>
-      </c>
-      <c r="L9" s="11">
-        <v>-1.2337</v>
+      <c r="A9" s="2">
+        <v>6.69806823542716</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-1.361094101877</v>
+      </c>
+      <c r="C9">
+        <v>-1.20415879448197</v>
+      </c>
+      <c r="D9" s="10">
+        <v>-0.5223</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-1.2608</v>
+      </c>
+      <c r="F9" s="10">
+        <v>-0.6047</v>
+      </c>
+      <c r="G9" s="2">
+        <v>-1.2652</v>
+      </c>
+      <c r="H9" s="10">
+        <v>-0.5479</v>
+      </c>
+      <c r="I9" s="15">
+        <v>-1.204</v>
+      </c>
+      <c r="J9" s="15">
+        <v>-1.204</v>
+      </c>
+      <c r="K9" s="14">
+        <v>-1.2419</v>
+      </c>
+      <c r="L9" s="15">
+        <v>-1.2038</v>
       </c>
       <c r="M9">
         <v>-1.2066</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3">
-        <v>6.56543322086424</v>
-      </c>
-      <c r="C10" s="2">
-        <v>-1.22305026809701</v>
-      </c>
-      <c r="D10">
-        <v>-1.18886879867486</v>
-      </c>
-      <c r="E10" s="10">
-        <v>-0.4957</v>
-      </c>
-      <c r="F10" s="2">
-        <v>-1.2584</v>
-      </c>
-      <c r="G10" s="10">
-        <v>-0.5936</v>
-      </c>
-      <c r="H10" s="2">
-        <v>-1.266</v>
-      </c>
-      <c r="I10" s="10">
-        <v>-0.5318</v>
-      </c>
-      <c r="J10">
-        <v>-1.2011</v>
-      </c>
-      <c r="K10">
-        <v>-1.1959</v>
-      </c>
-      <c r="L10" s="11">
-        <v>-1.2176</v>
+      <c r="A10" s="3">
+        <v>6.6317507281457</v>
+      </c>
+      <c r="B10" s="2">
+        <v>-1.35681139410201</v>
+      </c>
+      <c r="C10">
+        <v>-1.19905021115693</v>
+      </c>
+      <c r="D10" s="10">
+        <v>-0.5122</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-1.2636</v>
+      </c>
+      <c r="F10" s="10">
+        <v>-0.6014</v>
+      </c>
+      <c r="G10" s="2">
+        <v>-1.27</v>
+      </c>
+      <c r="H10" s="10">
+        <v>-0.5424</v>
+      </c>
+      <c r="I10" s="15">
+        <v>-1.2045</v>
+      </c>
+      <c r="J10" s="15">
+        <v>-1.2024</v>
+      </c>
+      <c r="K10" s="14">
+        <v>-1.2337</v>
+      </c>
+      <c r="L10" s="15">
+        <v>-1.2029</v>
       </c>
       <c r="M10">
         <v>-1.1981</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="3">
-        <v>6.49911571358279</v>
-      </c>
-      <c r="C11" s="2">
-        <v>-1.206997319035</v>
-      </c>
-      <c r="D11">
-        <v>-1.17288753288264</v>
-      </c>
-      <c r="E11" s="10">
-        <v>-0.4715</v>
-      </c>
-      <c r="F11" s="2">
-        <v>-1.2439</v>
-      </c>
-      <c r="G11" s="10">
-        <v>-0.5804</v>
-      </c>
-      <c r="H11" s="2">
-        <v>-1.2516</v>
-      </c>
-      <c r="I11" s="10">
-        <v>-0.5151</v>
-      </c>
-      <c r="J11">
-        <v>-1.1841</v>
-      </c>
-      <c r="K11">
-        <v>-1.1794</v>
-      </c>
-      <c r="L11" s="11">
-        <v>-1.1925</v>
+      <c r="A11" s="3">
+        <v>6.56543322086424</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-1.347421715818</v>
+      </c>
+      <c r="C11">
+        <v>-1.18886879867486</v>
+      </c>
+      <c r="D11" s="10">
+        <v>-0.4957</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-1.2584</v>
+      </c>
+      <c r="F11" s="10">
+        <v>-0.5936</v>
+      </c>
+      <c r="G11" s="2">
+        <v>-1.266</v>
+      </c>
+      <c r="H11" s="10">
+        <v>-0.5318</v>
+      </c>
+      <c r="I11" s="15">
+        <v>-1.1981</v>
+      </c>
+      <c r="J11" s="15">
+        <v>-1.1946</v>
+      </c>
+      <c r="K11" s="14">
+        <v>-1.2176</v>
+      </c>
+      <c r="L11" s="15">
+        <v>-1.1959</v>
       </c>
       <c r="M11">
         <v>-1.1821</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="3">
-        <v>6.43279820630133</v>
-      </c>
-      <c r="C12" s="2">
-        <v>-1.18415428954401</v>
-      </c>
-      <c r="D12">
-        <v>-1.15031135712294</v>
-      </c>
-      <c r="E12" s="10">
-        <v>-0.4379</v>
-      </c>
-      <c r="F12" s="2">
-        <v>-1.2182</v>
-      </c>
-      <c r="G12" s="10">
-        <v>-0.5609</v>
-      </c>
-      <c r="H12" s="2">
-        <v>-1.2247</v>
-      </c>
-      <c r="I12" s="10">
-        <v>-0.4912</v>
-      </c>
-      <c r="J12">
-        <v>-1.1573</v>
-      </c>
-      <c r="K12">
-        <v>-1.1545</v>
-      </c>
-      <c r="L12" s="11">
-        <v>-1.1569</v>
+      <c r="A12" s="3">
+        <v>6.49911571358279</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-1.33214115281501</v>
+      </c>
+      <c r="C12">
+        <v>-1.17288753288264</v>
+      </c>
+      <c r="D12" s="10">
+        <v>-0.4715</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-1.2439</v>
+      </c>
+      <c r="F12" s="10">
+        <v>-0.5804</v>
+      </c>
+      <c r="G12" s="2">
+        <v>-1.2516</v>
+      </c>
+      <c r="H12" s="10">
+        <v>-0.5151</v>
+      </c>
+      <c r="I12" s="15">
+        <v>-1.1641</v>
+      </c>
+      <c r="J12" s="15">
+        <v>-1.16</v>
+      </c>
+      <c r="K12" s="14">
+        <v>-1.1925</v>
+      </c>
+      <c r="L12" s="15">
+        <v>-1.1626</v>
       </c>
       <c r="M12">
         <v>-1.1576</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="3">
-        <v>6.36648069901987</v>
-      </c>
-      <c r="C13" s="2">
-        <v>-1.15414075067</v>
-      </c>
-      <c r="D13">
-        <v>-1.12032018073023</v>
-      </c>
-      <c r="E13" s="10">
-        <v>-0.3934</v>
-      </c>
-      <c r="F13" s="2">
-        <v>-1.1796</v>
-      </c>
-      <c r="G13" s="10">
-        <v>-0.534</v>
-      </c>
-      <c r="H13" s="2">
-        <v>-1.1832</v>
-      </c>
-      <c r="I13" s="10">
-        <v>-0.4588</v>
-      </c>
-      <c r="J13">
-        <v>-1.1192</v>
-      </c>
-      <c r="K13">
-        <v>-1.1198</v>
-      </c>
-      <c r="L13" s="11">
-        <v>-1.1092</v>
+      <c r="A13" s="3">
+        <v>6.43279820630133</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-1.31013391420899</v>
+      </c>
+      <c r="C13">
+        <v>-1.15031135712294</v>
+      </c>
+      <c r="D13" s="10">
+        <v>-0.4379</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-1.2182</v>
+      </c>
+      <c r="F13" s="10">
+        <v>-0.5609</v>
+      </c>
+      <c r="G13" s="2">
+        <v>-1.2247</v>
+      </c>
+      <c r="H13" s="10">
+        <v>-0.4912</v>
+      </c>
+      <c r="I13" s="15">
+        <v>-1.1605</v>
+      </c>
+      <c r="J13" s="15">
+        <v>-1.157</v>
+      </c>
+      <c r="K13" s="14">
+        <v>-1.1569</v>
+      </c>
+      <c r="L13" s="15">
+        <v>-1.1595</v>
       </c>
       <c r="M13">
         <v>-1.1232</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="3">
-        <v>6.30016319173841</v>
-      </c>
-      <c r="C14" s="2">
-        <v>-1.11580965147499</v>
-      </c>
-      <c r="D14">
-        <v>-1.08214417160377</v>
-      </c>
-      <c r="E14" s="10">
-        <v>-0.3357</v>
-      </c>
-      <c r="F14" s="2">
-        <v>-1.1258</v>
-      </c>
-      <c r="G14" s="10">
-        <v>-0.4983</v>
-      </c>
-      <c r="H14" s="2">
-        <v>-1.1243</v>
-      </c>
-      <c r="I14" s="10">
-        <v>-0.4165</v>
-      </c>
-      <c r="J14">
-        <v>-1.0682</v>
-      </c>
-      <c r="K14">
-        <v>-1.0741</v>
-      </c>
-      <c r="L14" s="11">
-        <v>-1.0475</v>
+      <c r="A14" s="3">
+        <v>6.36648069901987</v>
+      </c>
+      <c r="B14" s="2">
+        <v>-1.28071983914199</v>
+      </c>
+      <c r="C14">
+        <v>-1.12032018073023</v>
+      </c>
+      <c r="D14" s="10">
+        <v>-0.3934</v>
+      </c>
+      <c r="E14" s="2">
+        <v>-1.1796</v>
+      </c>
+      <c r="F14" s="10">
+        <v>-0.534</v>
+      </c>
+      <c r="G14" s="2">
+        <v>-1.1832</v>
+      </c>
+      <c r="H14" s="10">
+        <v>-0.4588</v>
+      </c>
+      <c r="I14" s="15">
+        <v>-1.1265</v>
+      </c>
+      <c r="J14" s="15">
+        <v>-1.1249</v>
+      </c>
+      <c r="K14" s="14">
+        <v>-1.1092</v>
+      </c>
+      <c r="L14" s="15">
+        <v>-1.1277</v>
       </c>
       <c r="M14">
         <v>-1.0773</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
+      <c r="A15" s="3">
+        <v>6.30016319173841</v>
       </c>
       <c r="B15" s="2">
-        <v>6.23384568445696</v>
-      </c>
-      <c r="C15" s="2">
-        <v>-1.06820991957099</v>
-      </c>
-      <c r="D15">
-        <v>-1.03457424671424</v>
-      </c>
-      <c r="E15" s="10">
-        <v>-0.2625</v>
-      </c>
-      <c r="F15" s="2">
-        <v>-1.0542</v>
-      </c>
-      <c r="G15" s="10">
-        <v>-0.4524</v>
-      </c>
-      <c r="H15" s="2">
-        <v>-1.0449</v>
-      </c>
-      <c r="I15" s="10">
-        <v>-0.3625</v>
-      </c>
-      <c r="J15">
-        <v>-1.0024</v>
-      </c>
-      <c r="K15">
-        <v>-1.0156</v>
-      </c>
-      <c r="L15" s="11">
-        <v>-0.9697</v>
+        <v>-1.24306890080399</v>
+      </c>
+      <c r="C15">
+        <v>-1.08214417160377</v>
+      </c>
+      <c r="D15" s="10">
+        <v>-0.3357</v>
+      </c>
+      <c r="E15" s="2">
+        <v>-1.1258</v>
+      </c>
+      <c r="F15" s="10">
+        <v>-0.4983</v>
+      </c>
+      <c r="G15" s="2">
+        <v>-1.1243</v>
+      </c>
+      <c r="H15" s="10">
+        <v>-0.4165</v>
+      </c>
+      <c r="I15" s="15">
+        <v>-1.0804</v>
+      </c>
+      <c r="J15" s="15">
+        <v>-1.082</v>
+      </c>
+      <c r="K15" s="14">
+        <v>-1.0475</v>
+      </c>
+      <c r="L15" s="15">
+        <v>-1.085</v>
       </c>
       <c r="M15">
         <v>-1.0183</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
+      <c r="A16" s="2">
+        <v>6.23384568445696</v>
       </c>
       <c r="B16" s="2">
-        <v>6.1675281771755</v>
-      </c>
-      <c r="C16" s="2">
-        <v>-1.01007922252001</v>
-      </c>
-      <c r="D16">
-        <v>-0.976615550953454</v>
-      </c>
-      <c r="E16" s="10">
-        <v>-0.171</v>
-      </c>
-      <c r="F16" s="2">
-        <v>-0.9622</v>
-      </c>
-      <c r="G16" s="10">
-        <v>-0.3943</v>
-      </c>
-      <c r="H16" s="2">
-        <v>-0.9414</v>
-      </c>
-      <c r="I16" s="10">
-        <v>-0.2949</v>
-      </c>
-      <c r="J16">
-        <v>-0.9196</v>
-      </c>
-      <c r="K16">
-        <v>-0.9425</v>
-      </c>
-      <c r="L16" s="11">
-        <v>-0.8734</v>
+        <v>-1.195947587131</v>
+      </c>
+      <c r="C16">
+        <v>-1.03457424671424</v>
+      </c>
+      <c r="D16" s="10">
+        <v>-0.2625</v>
+      </c>
+      <c r="E16" s="2">
+        <v>-1.0542</v>
+      </c>
+      <c r="F16" s="10">
+        <v>-0.4524</v>
+      </c>
+      <c r="G16" s="2">
+        <v>-1.0449</v>
+      </c>
+      <c r="H16" s="10">
+        <v>-0.3625</v>
+      </c>
+      <c r="I16" s="15">
+        <v>-1.0203</v>
+      </c>
+      <c r="J16" s="15">
+        <v>-1.0268</v>
+      </c>
+      <c r="K16" s="14">
+        <v>-0.9697</v>
+      </c>
+      <c r="L16" s="15">
+        <v>-1.0298</v>
       </c>
       <c r="M16">
         <v>-0.9442</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="4:4">
-      <c r="D17" s="8"/>
+    <row r="17" customFormat="1" spans="1:12">
+      <c r="A17" s="2">
+        <v>6.1675281771755</v>
+      </c>
+      <c r="B17" s="2">
+        <v>-1.13840482573698</v>
+      </c>
+      <c r="C17">
+        <v>-0.976615550953454</v>
+      </c>
+      <c r="D17" s="10">
+        <v>-0.171</v>
+      </c>
+      <c r="E17" s="2">
+        <v>-0.9622</v>
+      </c>
+      <c r="F17" s="10">
+        <v>-0.3943</v>
+      </c>
+      <c r="G17" s="2">
+        <v>-0.9414</v>
+      </c>
+      <c r="H17" s="10">
+        <v>-0.2949</v>
+      </c>
+      <c r="I17" s="15">
+        <v>-0.9442</v>
+      </c>
+      <c r="J17" s="15">
+        <v>-0.9575</v>
+      </c>
+      <c r="K17" s="14">
+        <v>-0.8734</v>
+      </c>
+      <c r="L17" s="15">
+        <v>-0.9601</v>
+      </c>
     </row>
     <row r="18" customFormat="1" spans="4:4">
       <c r="D18" s="8"/>
@@ -53062,13 +53120,13 @@
         <v>56</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -53382,7 +53440,7 @@
   <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E16"/>
     </sheetView>
   </sheetViews>
@@ -53398,13 +53456,13 @@
         <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -53689,13 +53747,13 @@
         <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="7950" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="data11" sheetId="1" r:id="rId1"/>
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>C(A)</t>
   </si>
@@ -363,6 +363,9 @@
     <t>VopXfull</t>
   </si>
   <si>
+    <t>opt</t>
+  </si>
+  <si>
     <t>QM+phn</t>
   </si>
 </sst>
@@ -371,14 +374,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.000000"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -393,8 +404,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -404,34 +414,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,7 +435,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,9 +443,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -468,24 +457,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,6 +496,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -508,14 +518,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,23 +540,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,7 +564,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,175 +744,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,6 +755,63 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -787,63 +847,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -855,13 +858,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -873,134 +876,134 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1011,14 +1014,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1027,16 +1028,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
@@ -1096,8 +1096,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_6" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp_1" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
     </queryTableFields>
@@ -1106,7 +1106,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1116,7 +1116,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1136,7 +1136,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1146,6 +1146,16 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_4" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
+    <queryTableFields count="1">
+      <queryTableField id="1" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_5" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
@@ -1155,8 +1165,8 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_4" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_6" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1165,18 +1175,8 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp_1" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
-    <queryTableFields count="1">
-      <queryTableField id="1" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1196,7 +1196,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1206,7 +1206,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1512,111 +1512,111 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16">
+      <c r="A2" s="15">
         <v>7.734603659</v>
       </c>
       <c r="B2">
         <v>-9.29974075</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <f t="shared" ref="C2:C25" si="0">B2+E2</f>
         <v>-9.27877112419782</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="16">
         <v>0</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>0.0209696258021805</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>7.398316544</v>
       </c>
       <c r="B3">
         <v>-9.303271</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <f t="shared" si="0"/>
         <v>-9.28217704928256</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="16">
         <v>0</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>0.0210939507174438</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>7.06202942799999</v>
       </c>
       <c r="B4">
         <v>-9.305298</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <f t="shared" si="0"/>
         <v>-9.28401399136472</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <v>0</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>0.0212840086352783</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>6.99477200493787</v>
       </c>
       <c r="B5">
         <v>-9.30541825</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <f t="shared" si="0"/>
         <v>-9.28414069068237</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <v>0</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>0.0212775593176295</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>6.92751458181347</v>
       </c>
       <c r="B6">
         <v>-9.305416</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <f t="shared" si="0"/>
         <v>-9.305416</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <v>0</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>6.86025715868907</v>
       </c>
       <c r="B7">
         <v>-9.305258</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <f t="shared" si="0"/>
         <v>-9.28394005617462</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <v>0</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>0.0213179438253818</v>
       </c>
     </row>
@@ -1627,11 +1627,11 @@
       <c r="B8">
         <v>-9.30494375</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <f t="shared" si="0"/>
         <v>-9.28360454025992</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <v>0</v>
       </c>
       <c r="E8">
@@ -1639,308 +1639,308 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>6.72574231244026</v>
       </c>
       <c r="B9">
         <v>-9.30443575</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <f t="shared" si="0"/>
         <v>-9.28085089283634</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="16">
         <v>0</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>0.0235848571636644</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>6.65848488931586</v>
       </c>
       <c r="B10">
         <v>-9.303711</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <f t="shared" si="0"/>
         <v>-9.303711</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <v>0</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>6.59122746619145</v>
       </c>
       <c r="B11">
         <v>-9.3027445</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <f t="shared" si="0"/>
         <v>-9.3027445</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
         <v>0</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>6.52397004306705</v>
       </c>
       <c r="B12">
         <v>-9.30149675</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="15">
         <f t="shared" si="0"/>
         <v>-9.30149675</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>0</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>6.45671261994265</v>
       </c>
       <c r="B13">
         <v>-9.29993175</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="15">
         <f t="shared" si="0"/>
         <v>-9.29993175</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <v>0</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>6.389455197</v>
       </c>
       <c r="B14">
         <v>-9.2980065</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="15">
         <f t="shared" si="0"/>
         <v>-9.2765447062902</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="16">
         <v>0</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>0.0214617937098034</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <v>6.05316808099999</v>
       </c>
       <c r="B15">
         <v>-9.281312</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="15">
         <f t="shared" si="0"/>
         <v>-9.25981534941733</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="16">
         <v>0</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <v>0.0214966505826721</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <v>5.71688096599999</v>
       </c>
       <c r="B16">
         <v>-9.24699775</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="15">
         <f t="shared" si="0"/>
         <v>-9.22545581578752</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="16">
         <v>0</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="15">
         <v>0.0215419342124851</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="16">
+      <c r="A17" s="15">
         <v>5.38059385</v>
       </c>
       <c r="B17">
         <v>-9.18425575</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="15">
         <f t="shared" si="0"/>
         <v>-9.16266257845306</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="16">
         <v>0</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="15">
         <v>0.0215931715469442</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="16">
+      <c r="A18" s="15">
         <v>5.044306734</v>
       </c>
       <c r="B18">
         <v>-9.07655725</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="15">
         <f t="shared" si="0"/>
         <v>-9.05490492455843</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="16">
         <v>0</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="15">
         <v>0.0216523254415718</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="16">
+      <c r="A19" s="15">
         <v>4.70801961899999</v>
       </c>
       <c r="B19">
         <v>-8.89676175</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="15">
         <f t="shared" si="0"/>
         <v>-8.87509644543177</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="16">
         <v>0</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="15">
         <v>0.0216653045682302</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="16">
+      <c r="A20" s="15">
         <v>4.37173250299999</v>
       </c>
       <c r="B20">
         <v>-8.610972</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="15">
         <f t="shared" si="0"/>
         <v>-8.58969112874629</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="16">
         <v>0</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="15">
         <v>0.021280871253706</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="16">
+      <c r="A21" s="15">
         <v>4.035445387</v>
       </c>
       <c r="B21">
         <v>-8.184804</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="15">
         <f t="shared" si="0"/>
         <v>-8.1644223392305</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="16">
         <v>0</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="15">
         <v>0.0203816607694967</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="16">
+      <c r="A22" s="15">
         <v>3.69915827100001</v>
       </c>
       <c r="B22">
         <v>-7.561232</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="15">
         <f t="shared" si="0"/>
         <v>-7.54245840350752</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="16">
         <v>0</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="15">
         <v>0.0187735964924786</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="16">
+      <c r="A23" s="15">
         <v>3.36287115500002</v>
       </c>
       <c r="B23">
         <v>-6.6218255</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="15">
         <f t="shared" si="0"/>
         <v>-6.60562327498075</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="16">
         <v>0</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="15">
         <v>0.0162022250192528</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="16">
+      <c r="A24" s="15">
         <v>3.02658403900003</v>
       </c>
       <c r="B24">
         <v>-5.380071</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="15">
         <f t="shared" si="0"/>
         <v>-5.36397948973004</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="16">
         <v>0</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="15">
         <v>0.0160915102699602</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="16">
+      <c r="A25" s="15">
         <v>2.69029692300004</v>
       </c>
       <c r="B25">
         <v>-3.654861</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="15">
         <f t="shared" si="0"/>
         <v>-3.63930487592718</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="16">
         <v>0</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="15">
         <v>0.0155561240728216</v>
       </c>
     </row>
@@ -1951,28 +1951,28 @@
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="17"/>
+      <c r="D30" s="16"/>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="17"/>
+      <c r="D31" s="16"/>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="17"/>
+      <c r="D32" s="16"/>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="17"/>
+      <c r="D33" s="16"/>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="17"/>
+      <c r="D34" s="16"/>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="17"/>
+      <c r="D35" s="16"/>
     </row>
     <row r="36" spans="4:4">
-      <c r="D36" s="17"/>
+      <c r="D36" s="16"/>
     </row>
     <row r="37" spans="4:4">
-      <c r="D37" s="17"/>
+      <c r="D37" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2018,20 +2018,20 @@
       </c>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <v>7.62651333736756</v>
       </c>
       <c r="C2">
         <v>-9.35571075</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="16">
         <f t="shared" ref="D2:D29" si="0">C2+F2</f>
         <v>-9.35571075</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <v>0</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>0</v>
       </c>
       <c r="G2">
@@ -2039,20 +2039,20 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <v>7.29492580096027</v>
       </c>
       <c r="C3">
         <v>-9.36041425</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="16">
         <f t="shared" si="0"/>
         <v>-9.36041425</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="16">
         <v>0</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <v>0</v>
       </c>
       <c r="G3">
@@ -2069,11 +2069,11 @@
       <c r="C4">
         <v>-9.36272175</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <f t="shared" si="0"/>
         <v>-9.34142444866186</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <v>-1.74798</v>
       </c>
       <c r="F4" s="8">
@@ -2093,11 +2093,11 @@
       <c r="C5">
         <v>-9.36334625</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <f t="shared" si="0"/>
         <v>-9.34203116612822</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>-1.37949</v>
       </c>
       <c r="F5" s="8">
@@ -2111,17 +2111,17 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>6.96333826455299</v>
       </c>
       <c r="C6">
         <v>-9.36387875</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <f t="shared" si="0"/>
         <v>-9.34252731341168</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>-0.649711</v>
       </c>
       <c r="F6" s="8">
@@ -2135,17 +2135,17 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>6.89702075727153</v>
       </c>
       <c r="C7">
         <v>-9.364291</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <f t="shared" si="0"/>
         <v>-9.34292050564871</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <v>-0.436941</v>
       </c>
       <c r="F7" s="8">
@@ -2159,17 +2159,17 @@
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="15">
         <v>6.83070324999007</v>
       </c>
       <c r="C8">
         <v>-9.36458075</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <f t="shared" si="0"/>
         <v>-9.34319526886993</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <v>-0.194466</v>
       </c>
       <c r="F8" s="8">
@@ -2183,17 +2183,17 @@
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>6.76438574270861</v>
       </c>
       <c r="C9">
         <v>-9.36471925</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="16">
         <f t="shared" si="0"/>
         <v>-9.34329465155856</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="16">
         <v>0.083872</v>
       </c>
       <c r="F9" s="8">
@@ -2213,11 +2213,11 @@
       <c r="C10">
         <v>-9.364684</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <f t="shared" si="0"/>
         <v>-9.34324236527863</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <v>0.40474</v>
       </c>
       <c r="F10" s="8">
@@ -2231,17 +2231,17 @@
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="15">
         <v>6.6317507281457</v>
       </c>
       <c r="C11">
         <v>-9.36446125</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
         <f t="shared" si="0"/>
         <v>-9.34298510923149</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="16">
         <v>0.766066</v>
       </c>
       <c r="F11" s="8">
@@ -2255,17 +2255,17 @@
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="15">
         <v>6.56543322086424</v>
       </c>
       <c r="C12">
         <v>-9.36401425</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <f t="shared" si="0"/>
         <v>-9.3425189263749</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="16">
         <v>1.209655</v>
       </c>
       <c r="F12" s="8">
@@ -2279,17 +2279,17 @@
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="15">
         <v>6.49911571358279</v>
       </c>
       <c r="C13">
         <v>-9.363318</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <f t="shared" si="0"/>
         <v>-9.34181344827522</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="16">
         <v>1.650845</v>
       </c>
       <c r="F13" s="8">
@@ -2303,17 +2303,17 @@
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="15">
         <v>6.43279820630133</v>
       </c>
       <c r="C14">
         <v>-9.36232725</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="16">
         <f t="shared" si="0"/>
         <v>-9.34080128378352</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="16">
         <v>2.184954</v>
       </c>
       <c r="F14" s="8">
@@ -2327,17 +2327,17 @@
       <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="15">
         <v>6.36648069901987</v>
       </c>
       <c r="C15">
         <v>-9.3610255</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="16">
         <f t="shared" si="0"/>
         <v>-9.33948007495655</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="16">
         <v>2.81936</v>
       </c>
       <c r="F15" s="8">
@@ -2351,17 +2351,17 @@
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="15">
         <v>6.30016319173841</v>
       </c>
       <c r="C16">
         <v>-9.359363</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="16">
         <f t="shared" si="0"/>
         <v>-9.33780344436616</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="16">
         <v>3.470399</v>
       </c>
       <c r="F16" s="8">
@@ -2381,11 +2381,11 @@
       <c r="C17">
         <v>-9.3572985</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="16">
         <f t="shared" si="0"/>
         <v>-9.33572266567675</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="16">
         <v>8.313759</v>
       </c>
       <c r="F17" s="8">
@@ -2405,11 +2405,11 @@
       <c r="C18">
         <v>-9.35477725</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="16">
         <f t="shared" si="0"/>
         <v>-9.33318746929334</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="16">
         <v>16.364584</v>
       </c>
       <c r="F18" s="8">
@@ -2423,17 +2423,17 @@
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="15">
         <v>5.96857565533113</v>
       </c>
       <c r="C19">
         <v>-9.3439195</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="16">
         <f t="shared" si="0"/>
         <v>-9.3439195</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="16">
         <v>29.162834</v>
       </c>
       <c r="F19">
@@ -2444,17 +2444,17 @@
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="15">
         <v>5.63698811892385</v>
       </c>
       <c r="C20">
         <v>-9.31057675</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="16">
         <f t="shared" si="0"/>
         <v>-9.31057675</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="16">
         <v>49.590418</v>
       </c>
       <c r="F20">
@@ -2465,17 +2465,17 @@
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="15">
         <v>5.30540058251656</v>
       </c>
       <c r="C21">
         <v>-9.2470915</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="16">
         <f t="shared" si="0"/>
         <v>-9.2470915</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="16">
         <v>81.795232</v>
       </c>
       <c r="F21">
@@ -2486,17 +2486,17 @@
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="15">
         <v>4.97381304610928</v>
       </c>
       <c r="C22">
         <v>-9.13348925</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="16">
         <f t="shared" si="0"/>
         <v>-9.13348925</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="16">
         <v>126.264436</v>
       </c>
       <c r="F22">
@@ -2507,17 +2507,17 @@
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="15">
         <v>4.64222550970199</v>
       </c>
       <c r="C23">
         <v>-8.9380785</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="16">
         <f t="shared" si="0"/>
         <v>-8.9380785</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="16">
         <v>184.537527</v>
       </c>
       <c r="F23">
@@ -2528,17 +2528,17 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="15">
         <v>4.31063797329471</v>
       </c>
       <c r="C24">
         <v>-8.63161825</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="16">
         <f t="shared" si="0"/>
         <v>-8.63161825</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="16">
         <v>278.177108</v>
       </c>
       <c r="F24">
@@ -2549,17 +2549,17 @@
       <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="15">
         <v>3.97905043688742</v>
       </c>
       <c r="C25">
         <v>-8.18573275</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="16">
         <f t="shared" si="0"/>
         <v>-8.18573275</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="16">
         <v>410.94174</v>
       </c>
       <c r="F25">
@@ -2570,13 +2570,13 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="15">
         <v>3.64746290048014</v>
       </c>
       <c r="C26">
         <v>-7.534209</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="16">
         <f t="shared" si="0"/>
         <v>-7.534209</v>
       </c>
@@ -2591,13 +2591,13 @@
       <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="15">
         <v>3.31587536407285</v>
       </c>
       <c r="C27">
         <v>-6.56529875</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="16">
         <f t="shared" si="0"/>
         <v>-6.56529875</v>
       </c>
@@ -2612,20 +2612,20 @@
       <c r="A28" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="16">
         <v>2.98428782766557</v>
       </c>
       <c r="C28">
         <v>-5.3080285</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="16">
         <f t="shared" si="0"/>
         <v>-5.3080285</v>
       </c>
       <c r="E28" s="8">
         <v>0</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2633,46 +2633,46 @@
       <c r="A29" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="16">
         <v>2.65270029125828</v>
       </c>
       <c r="C29">
         <v>-3.53590775</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="16">
         <f t="shared" si="0"/>
         <v>-3.53590775</v>
       </c>
       <c r="E29" s="8">
         <v>0</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="5:5">
-      <c r="E30" s="17"/>
+      <c r="E30" s="16"/>
     </row>
     <row r="31" spans="5:5">
-      <c r="E31" s="17"/>
+      <c r="E31" s="16"/>
     </row>
     <row r="32" spans="5:5">
-      <c r="E32" s="17"/>
+      <c r="E32" s="16"/>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="17"/>
+      <c r="E33" s="16"/>
     </row>
     <row r="34" spans="5:5">
-      <c r="E34" s="17"/>
+      <c r="E34" s="16"/>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="17"/>
+      <c r="E35" s="16"/>
     </row>
     <row r="36" spans="5:5">
-      <c r="E36" s="17"/>
+      <c r="E36" s="16"/>
     </row>
     <row r="37" spans="5:5">
-      <c r="E37" s="17"/>
+      <c r="E37" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2686,8 +2686,8 @@
   <sheetPr/>
   <dimension ref="A1:M16384"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2699,7 +2699,7 @@
     <col min="6" max="6" width="13.1666666666667" customWidth="1"/>
     <col min="7" max="7" width="10.3333333333333" customWidth="1"/>
     <col min="8" max="8" width="11.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="9.16666666666667" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
     <col min="10" max="10" width="12.1666666666667" customWidth="1"/>
     <col min="11" max="11" width="13.5" customWidth="1"/>
     <col min="12" max="12" width="11.8333333333333" customWidth="1"/>
@@ -2772,16 +2772,16 @@
       <c r="H2" s="10">
         <v>-0.5127</v>
       </c>
-      <c r="I2" s="15">
-        <v>-1.1061</v>
-      </c>
-      <c r="J2" s="15">
+      <c r="I2" s="5">
+        <v>-1.16397647235087</v>
+      </c>
+      <c r="J2" s="5">
         <v>-1.1251</v>
       </c>
       <c r="K2" s="14">
         <v>-1.1812</v>
       </c>
-      <c r="L2" s="15">
+      <c r="L2" s="5">
         <v>-1.1203</v>
       </c>
       <c r="M2">
@@ -2813,16 +2813,16 @@
       <c r="H3" s="10">
         <v>-0.524</v>
       </c>
-      <c r="I3" s="15">
-        <v>-1.1303</v>
-      </c>
-      <c r="J3" s="15">
+      <c r="I3" s="5">
+        <v>-1.17477787803301</v>
+      </c>
+      <c r="J3" s="5">
         <v>-1.1475</v>
       </c>
       <c r="K3" s="14">
         <v>-1.2007</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="5">
         <v>-1.1438</v>
       </c>
       <c r="M3">
@@ -2854,16 +2854,16 @@
       <c r="H4" s="10">
         <v>-0.5337</v>
       </c>
-      <c r="I4" s="15">
-        <v>-1.1521</v>
-      </c>
-      <c r="J4" s="15">
+      <c r="I4" s="5">
+        <v>-1.186285248709</v>
+      </c>
+      <c r="J4" s="5">
         <v>-1.1654</v>
       </c>
       <c r="K4" s="14">
         <v>-1.2173</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="5">
         <v>-1.1623</v>
       </c>
       <c r="M4">
@@ -2895,16 +2895,16 @@
       <c r="H5" s="10">
         <v>-0.5414</v>
       </c>
-      <c r="I5" s="15">
-        <v>-1.171</v>
-      </c>
-      <c r="J5" s="15">
+      <c r="I5" s="5">
+        <v>-1.195119714459</v>
+      </c>
+      <c r="J5" s="5">
         <v>-1.1805</v>
       </c>
       <c r="K5" s="14">
         <v>-1.2304</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="5">
         <v>-1.1781</v>
       </c>
       <c r="M5">
@@ -2936,16 +2936,16 @@
       <c r="H6" s="10">
         <v>-0.5467</v>
       </c>
-      <c r="I6" s="15">
-        <v>-1.1864</v>
-      </c>
-      <c r="J6" s="15">
+      <c r="I6" s="5">
+        <v>-1.20178949653999</v>
+      </c>
+      <c r="J6" s="5">
         <v>-1.1924</v>
       </c>
       <c r="K6" s="14">
         <v>-1.2394</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="5">
         <v>-1.1906</v>
       </c>
       <c r="M6">
@@ -2977,16 +2977,16 @@
       <c r="H7" s="10">
         <v>-0.5491</v>
       </c>
-      <c r="I7" s="15">
-        <v>-1.2085</v>
-      </c>
-      <c r="J7" s="15">
+      <c r="I7" s="5">
+        <v>-1.20503708359101</v>
+      </c>
+      <c r="J7" s="5">
         <v>-1.2074</v>
       </c>
       <c r="K7" s="14">
         <v>-1.2435</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="5">
         <v>-1.2074</v>
       </c>
       <c r="M7">
@@ -3018,16 +3018,16 @@
       <c r="H8" s="10">
         <v>0</v>
       </c>
-      <c r="I8" s="15">
-        <v>-1.2068</v>
-      </c>
-      <c r="J8" s="15">
+      <c r="I8" s="5">
+        <v>-1.20522788652559</v>
+      </c>
+      <c r="J8" s="5">
         <v>-1.2059</v>
       </c>
       <c r="K8" s="14">
         <v>0</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="5">
         <v>-1.2059</v>
       </c>
       <c r="M8">
@@ -3059,16 +3059,16 @@
       <c r="H9" s="10">
         <v>-0.5479</v>
       </c>
-      <c r="I9" s="15">
-        <v>-1.204</v>
-      </c>
-      <c r="J9" s="15">
+      <c r="I9" s="5">
+        <v>-1.20415879448197</v>
+      </c>
+      <c r="J9" s="5">
         <v>-1.204</v>
       </c>
       <c r="K9" s="14">
         <v>-1.2419</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="5">
         <v>-1.2038</v>
       </c>
       <c r="M9">
@@ -3100,16 +3100,16 @@
       <c r="H10" s="10">
         <v>-0.5424</v>
       </c>
-      <c r="I10" s="15">
-        <v>-1.2045</v>
-      </c>
-      <c r="J10" s="15">
+      <c r="I10" s="5">
+        <v>-1.19905021115693</v>
+      </c>
+      <c r="J10" s="5">
         <v>-1.2024</v>
       </c>
       <c r="K10" s="14">
         <v>-1.2337</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="5">
         <v>-1.2029</v>
       </c>
       <c r="M10">
@@ -3141,16 +3141,16 @@
       <c r="H11" s="10">
         <v>-0.5318</v>
       </c>
-      <c r="I11" s="15">
-        <v>-1.1981</v>
-      </c>
-      <c r="J11" s="15">
+      <c r="I11" s="5">
+        <v>-1.18886879867486</v>
+      </c>
+      <c r="J11" s="5">
         <v>-1.1946</v>
       </c>
       <c r="K11" s="14">
         <v>-1.2176</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="5">
         <v>-1.1959</v>
       </c>
       <c r="M11">
@@ -3182,16 +3182,16 @@
       <c r="H12" s="10">
         <v>-0.5151</v>
       </c>
-      <c r="I12" s="15">
-        <v>-1.1641</v>
-      </c>
-      <c r="J12" s="15">
+      <c r="I12" s="5">
+        <v>-1.17288753288264</v>
+      </c>
+      <c r="J12" s="5">
         <v>-1.16</v>
       </c>
       <c r="K12" s="14">
         <v>-1.1925</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="5">
         <v>-1.1626</v>
       </c>
       <c r="M12">
@@ -3223,16 +3223,16 @@
       <c r="H13" s="10">
         <v>-0.4912</v>
       </c>
-      <c r="I13" s="15">
-        <v>-1.1605</v>
-      </c>
-      <c r="J13" s="15">
+      <c r="I13" s="5">
+        <v>-1.15031135712294</v>
+      </c>
+      <c r="J13" s="5">
         <v>-1.157</v>
       </c>
       <c r="K13" s="14">
         <v>-1.1569</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="5">
         <v>-1.1595</v>
       </c>
       <c r="M13">
@@ -3264,16 +3264,16 @@
       <c r="H14" s="10">
         <v>-0.4588</v>
       </c>
-      <c r="I14" s="15">
-        <v>-1.1265</v>
-      </c>
-      <c r="J14" s="15">
+      <c r="I14" s="5">
+        <v>-1.12032018073023</v>
+      </c>
+      <c r="J14" s="5">
         <v>-1.1249</v>
       </c>
       <c r="K14" s="14">
         <v>-1.1092</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="5">
         <v>-1.1277</v>
       </c>
       <c r="M14">
@@ -3305,16 +3305,16 @@
       <c r="H15" s="10">
         <v>-0.4165</v>
       </c>
-      <c r="I15" s="15">
-        <v>-1.0804</v>
-      </c>
-      <c r="J15" s="15">
+      <c r="I15" s="5">
+        <v>-1.08214417160377</v>
+      </c>
+      <c r="J15" s="5">
         <v>-1.082</v>
       </c>
       <c r="K15" s="14">
         <v>-1.0475</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="5">
         <v>-1.085</v>
       </c>
       <c r="M15">
@@ -3346,16 +3346,16 @@
       <c r="H16" s="10">
         <v>-0.3625</v>
       </c>
-      <c r="I16" s="15">
-        <v>-1.0203</v>
-      </c>
-      <c r="J16" s="15">
+      <c r="I16" s="5">
+        <v>-1.03457424671424</v>
+      </c>
+      <c r="J16" s="5">
         <v>-1.0268</v>
       </c>
       <c r="K16" s="14">
         <v>-0.9697</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="5">
         <v>-1.0298</v>
       </c>
       <c r="M16">
@@ -3387,16 +3387,16 @@
       <c r="H17" s="10">
         <v>-0.2949</v>
       </c>
-      <c r="I17" s="15">
-        <v>-0.9442</v>
-      </c>
-      <c r="J17" s="15">
+      <c r="I17" s="5">
+        <v>-0.976615550953454</v>
+      </c>
+      <c r="J17" s="5">
         <v>-0.9575</v>
       </c>
       <c r="K17" s="14">
         <v>-0.8734</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="5">
         <v>-0.9601</v>
       </c>
     </row>
@@ -53103,329 +53103,349 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7">
-        <v>7.022673</v>
-      </c>
-      <c r="C2" s="5">
-        <v>-1.163976472</v>
+      <c r="B2" s="4">
+        <v>7.0226732791159</v>
+      </c>
+      <c r="C2">
+        <v>-1.16397647235087</v>
       </c>
       <c r="D2" s="5">
-        <v>-1.1201</v>
-      </c>
-      <c r="E2" s="5">
+        <v>-1.115</v>
+      </c>
+      <c r="E2" s="6">
         <v>-1.1343</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2">
         <v>-1.1306</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7">
-        <v>6.956356</v>
-      </c>
-      <c r="C3" s="5">
-        <v>-1.174777878</v>
+      <c r="B3" s="4">
+        <v>6.95635577183444</v>
+      </c>
+      <c r="C3">
+        <v>-1.17477787803301</v>
       </c>
       <c r="D3" s="5">
-        <v>-1.1436</v>
-      </c>
-      <c r="E3" s="5">
+        <v>-1.1388</v>
+      </c>
+      <c r="E3" s="6">
         <v>-1.156</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3">
         <v>-1.1534</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="7">
-        <v>6.890038</v>
-      </c>
-      <c r="C4" s="5">
-        <v>-1.186285249</v>
+      <c r="B4" s="4">
+        <v>6.89003826455299</v>
+      </c>
+      <c r="C4">
+        <v>-1.186285248709</v>
       </c>
       <c r="D4" s="5">
-        <v>-1.1645</v>
-      </c>
-      <c r="E4" s="5">
+        <v>-1.1602</v>
+      </c>
+      <c r="E4" s="6">
         <v>-1.1732</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4">
         <v>-1.1712</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="7">
-        <v>6.823721</v>
-      </c>
-      <c r="C5" s="5">
-        <v>-1.195119714</v>
+      <c r="B5" s="4">
+        <v>6.82372075727153</v>
+      </c>
+      <c r="C5">
+        <v>-1.195119714459</v>
       </c>
       <c r="D5" s="5">
-        <v>-1.1824</v>
-      </c>
-      <c r="E5" s="5">
+        <v>-1.1787</v>
+      </c>
+      <c r="E5" s="6">
         <v>-1.1875</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5">
         <v>-1.1862</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="7">
-        <v>6.757403</v>
-      </c>
-      <c r="C6" s="5">
-        <v>-1.201789497</v>
+      <c r="B6" s="4">
+        <v>6.75740324999007</v>
+      </c>
+      <c r="C6">
+        <v>-1.20178949653999</v>
       </c>
       <c r="D6" s="5">
-        <v>-1.1965</v>
-      </c>
-      <c r="E6" s="5">
+        <v>-1.1936</v>
+      </c>
+      <c r="E6" s="6">
         <v>-1.1985</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6">
         <v>-1.1978</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="7">
-        <v>6.691086</v>
-      </c>
-      <c r="C7" s="5">
-        <v>-1.205037084</v>
+      <c r="B7" s="4">
+        <v>6.69108574270861</v>
+      </c>
+      <c r="C7">
+        <v>-1.20503708359101</v>
       </c>
       <c r="D7" s="5">
-        <v>-1.2062</v>
-      </c>
-      <c r="E7" s="5">
+        <v>-1.2043</v>
+      </c>
+      <c r="E7" s="6">
         <v>-1.2055</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7">
         <v>-1.2055</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="7">
+        <v>6.7454</v>
+      </c>
+      <c r="C8">
+        <v>-1.20522788652559</v>
+      </c>
+      <c r="D8" s="5">
+        <v>-1.2065</v>
+      </c>
+      <c r="E8" s="5">
+        <v>-1.2065</v>
+      </c>
+      <c r="F8" s="5">
+        <v>-1.2065</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="7">
-        <v>6.624768</v>
-      </c>
-      <c r="C8" s="5">
-        <v>-1.204158794</v>
-      </c>
-      <c r="D8" s="5">
-        <v>-1.2107</v>
-      </c>
-      <c r="E8" s="5">
-        <v>-1.2079</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="B9" s="4">
+        <v>6.62476823542716</v>
+      </c>
+      <c r="C9">
+        <v>-1.20415879448197</v>
+      </c>
+      <c r="D9" s="5">
+        <v>-1.21</v>
+      </c>
+      <c r="E9" s="6">
+        <v>-1.2049</v>
+      </c>
+      <c r="F9">
         <v>-1.2085</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="7">
-        <v>6.558451</v>
-      </c>
-      <c r="C9" s="5">
-        <v>-1.199050211</v>
-      </c>
-      <c r="D9" s="5">
-        <v>-1.2091</v>
-      </c>
-      <c r="E9" s="5">
-        <v>-1.2049</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="B10" s="4">
+        <v>6.5584507281457</v>
+      </c>
+      <c r="C10">
+        <v>-1.19905021115693</v>
+      </c>
+      <c r="D10" s="5">
+        <v>-1.2099</v>
+      </c>
+      <c r="E10" s="6">
+        <v>-1.1956</v>
+      </c>
+      <c r="F10">
         <v>-1.2061</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="7">
-        <v>6.492133</v>
-      </c>
-      <c r="C10" s="5">
-        <v>-1.188868799</v>
-      </c>
-      <c r="D10" s="5">
-        <v>-1.2004</v>
-      </c>
-      <c r="E10" s="5">
-        <v>-1.1956</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="B11" s="4">
+        <v>6.49213322086424</v>
+      </c>
+      <c r="C11">
+        <v>-1.18886879867486</v>
+      </c>
+      <c r="D11" s="5">
+        <v>-1.203</v>
+      </c>
+      <c r="E11" s="6">
+        <v>-1.1791</v>
+      </c>
+      <c r="F11">
         <v>-1.1974</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="7">
-        <v>6.425816</v>
-      </c>
-      <c r="C11" s="5">
-        <v>-1.172887533</v>
-      </c>
-      <c r="D11" s="5">
-        <v>-1.1833</v>
-      </c>
-      <c r="E11" s="5">
-        <v>-1.1791</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="B12" s="4">
+        <v>6.42581571358279</v>
+      </c>
+      <c r="C12">
+        <v>-1.17288753288264</v>
+      </c>
+      <c r="D12" s="5">
+        <v>-1.1881</v>
+      </c>
+      <c r="E12" s="6">
+        <v>-1.1543</v>
+      </c>
+      <c r="F12">
         <v>-1.1814</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="7">
-        <v>6.359498</v>
-      </c>
-      <c r="C12" s="5">
-        <v>-1.150311357</v>
-      </c>
-      <c r="D12" s="5">
-        <v>-1.1567</v>
-      </c>
-      <c r="E12" s="5">
-        <v>-1.1543</v>
-      </c>
-      <c r="F12" s="5">
+      <c r="B13" s="4">
+        <v>6.35949820630133</v>
+      </c>
+      <c r="C13">
+        <v>-1.15031135712294</v>
+      </c>
+      <c r="D13" s="5">
+        <v>-1.1641</v>
+      </c>
+      <c r="E13" s="6">
+        <v>-1.1198</v>
+      </c>
+      <c r="F13">
         <v>-1.1569</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="7">
-        <v>6.293181</v>
-      </c>
-      <c r="C13" s="5">
-        <v>-1.120320181</v>
-      </c>
-      <c r="D13" s="5">
-        <v>-1.119</v>
-      </c>
-      <c r="E13" s="5">
-        <v>-1.1198</v>
-      </c>
-      <c r="F13" s="5">
+      <c r="B14" s="4">
+        <v>6.29318069901987</v>
+      </c>
+      <c r="C14">
+        <v>-1.12032018073023</v>
+      </c>
+      <c r="D14" s="5">
+        <v>-1.1295</v>
+      </c>
+      <c r="E14" s="6">
+        <v>-1.0744</v>
+      </c>
+      <c r="F14">
         <v>-1.1226</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="7">
-        <v>6.226863</v>
-      </c>
-      <c r="C14" s="5">
-        <v>-1.082144172</v>
-      </c>
-      <c r="D14" s="5">
-        <v>-1.0686</v>
-      </c>
-      <c r="E14" s="5">
-        <v>-1.0744</v>
-      </c>
-      <c r="F14" s="5">
+      <c r="B15" s="4">
+        <v>6.22686319173841</v>
+      </c>
+      <c r="C15">
+        <v>-1.08214417160377</v>
+      </c>
+      <c r="D15" s="5">
+        <v>-1.0829</v>
+      </c>
+      <c r="E15" s="6">
+        <v>-1.0162</v>
+      </c>
+      <c r="F15">
         <v>-1.077</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="4" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="7">
-        <v>6.160546</v>
-      </c>
-      <c r="C15" s="5">
-        <v>-1.034574247</v>
-      </c>
-      <c r="D15" s="5">
-        <v>-1.0038</v>
-      </c>
-      <c r="E15" s="5">
-        <v>-1.0162</v>
-      </c>
-      <c r="F15" s="5">
+      <c r="B16" s="4">
+        <v>6.16054568445696</v>
+      </c>
+      <c r="C16">
+        <v>-1.03457424671424</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-1.0224</v>
+      </c>
+      <c r="E16" s="6">
+        <v>-0.9436</v>
+      </c>
+      <c r="F16">
         <v>-1.0184</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="7">
-        <v>6.094228</v>
-      </c>
-      <c r="C16" s="5">
-        <v>-0.976615551</v>
-      </c>
-      <c r="D16" s="5">
-        <v>-0.9223</v>
-      </c>
-      <c r="E16" s="5">
-        <v>-0.9436</v>
-      </c>
-      <c r="F16" s="5">
+      <c r="B17" s="4">
+        <v>6.0942281771755</v>
+      </c>
+      <c r="C17">
+        <v>-0.976615550953454</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.9461</v>
+      </c>
+      <c r="E17" s="5">
+        <v>-0.9461</v>
+      </c>
+      <c r="F17">
         <v>-0.9449</v>
       </c>
     </row>
@@ -53456,7 +53476,7 @@
         <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
         <v>57</v>
@@ -53747,7 +53767,7 @@
         <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
         <v>57</v>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15840" windowHeight="7950" tabRatio="500" activeTab="4"/>
+    <workbookView windowWidth="20145" windowHeight="7365" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="data11" sheetId="1" r:id="rId1"/>
@@ -374,11 +374,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.000000"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -411,6 +411,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -419,8 +442,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -435,27 +465,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -464,50 +473,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -525,8 +495,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,7 +505,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,9 +548,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,7 +564,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,19 +624,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,84 +696,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -696,19 +708,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,31 +732,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,7 +762,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -771,7 +771,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,6 +792,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -802,6 +817,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -821,21 +847,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -844,27 +855,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -876,130 +876,130 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -53107,7 +53107,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D17"/>
+      <selection activeCell="A2" sqref="A2:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
@@ -53259,7 +53259,7 @@
         <v>60</v>
       </c>
       <c r="B8" s="7">
-        <v>6.7454</v>
+        <v>6.6721</v>
       </c>
       <c r="C8">
         <v>-1.20522788652559</v>
@@ -53466,7 +53466,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="4"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -376,9 +376,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.000000"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -411,24 +411,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,13 +435,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -457,9 +443,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,21 +460,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,9 +474,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,22 +498,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,8 +511,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,43 +564,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,7 +588,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,13 +654,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,19 +702,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,73 +732,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,9 +760,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,16 +794,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -821,28 +823,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -855,10 +846,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -876,130 +876,130 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1097,8 +1097,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp_1" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_6" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
     </queryTableFields>
@@ -1107,7 +1107,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1117,7 +1117,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1137,7 +1137,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1147,6 +1147,16 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_5" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
+    <queryTableFields count="1">
+      <queryTableField id="1" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_4" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
@@ -1156,19 +1166,9 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_5" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
-    <queryTableFields count="1">
-      <queryTableField id="1" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_6" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp_1" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
     </queryTableFields>
@@ -1177,7 +1177,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1197,7 +1197,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1207,7 +1207,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -53107,7 +53107,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F17"/>
+      <selection activeCell="F2" sqref="F2:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
@@ -53151,7 +53151,7 @@
         <v>-1.1308</v>
       </c>
       <c r="F2" s="5">
-        <v>-1.1209</v>
+        <v>-1.1265</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -53171,7 +53171,7 @@
         <v>-1.1528</v>
       </c>
       <c r="F3" s="5">
-        <v>-1.1445</v>
+        <v>-1.1499</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -53191,7 +53191,7 @@
         <v>-1.1703</v>
       </c>
       <c r="F4" s="5">
-        <v>-1.1629</v>
+        <v>-1.1682</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -53211,7 +53211,7 @@
         <v>-1.1851</v>
       </c>
       <c r="F5" s="5">
-        <v>-1.1786</v>
+        <v>-1.1838</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -53231,7 +53231,7 @@
         <v>-1.1967</v>
       </c>
       <c r="F6" s="5">
-        <v>-1.1912</v>
+        <v>-1.1962</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -53251,7 +53251,7 @@
         <v>-1.2044</v>
       </c>
       <c r="F7" s="5">
-        <v>-1.2078</v>
+        <v>-1.2122</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -53271,7 +53271,7 @@
         <v>-1.2058</v>
       </c>
       <c r="F8" s="5">
-        <v>-1.2062</v>
+        <v>-1.2107</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -53291,7 +53291,7 @@
         <v>-1.2076</v>
       </c>
       <c r="F9" s="5">
-        <v>-1.2042</v>
+        <v>-1.2087</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -53311,7 +53311,7 @@
         <v>-1.2055</v>
       </c>
       <c r="F10" s="5">
-        <v>-1.2032</v>
+        <v>-1.2074</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -53331,7 +53331,7 @@
         <v>-1.1974</v>
       </c>
       <c r="F11" s="5">
-        <v>-1.1961</v>
+        <v>-1.1999</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -53351,7 +53351,7 @@
         <v>-1.1822</v>
       </c>
       <c r="F12" s="5">
-        <v>-1.1626</v>
+        <v>-1.1655</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -53371,7 +53371,7 @@
         <v>-1.1588</v>
       </c>
       <c r="F13" s="5">
-        <v>-1.1594</v>
+        <v>-1.1623</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -53391,7 +53391,7 @@
         <v>-1.1261</v>
       </c>
       <c r="F14" s="5">
-        <v>-1.1275</v>
+        <v>-1.1298</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -53411,7 +53411,7 @@
         <v>-1.0827</v>
       </c>
       <c r="F15" s="5">
-        <v>-1.0846</v>
+        <v>-1.0863</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -53431,7 +53431,7 @@
         <v>-1.0269</v>
       </c>
       <c r="F16" s="5">
-        <v>-1.0291</v>
+        <v>-1.0301</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -53451,7 +53451,7 @@
         <v>-0.957</v>
       </c>
       <c r="F17" s="5">
-        <v>-0.9591</v>
+        <v>-0.9593</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20145" windowHeight="7365" tabRatio="500" activeTab="4"/>
+    <workbookView windowWidth="15840" windowHeight="8370" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="data11" sheetId="1" r:id="rId1"/>
@@ -374,11 +374,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.000000"/>
+    <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -404,6 +404,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -412,23 +427,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -440,6 +439,21 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -458,9 +472,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,7 +497,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,16 +533,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,45 +547,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,6 +561,12 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -576,19 +582,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,25 +606,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,7 +624,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,13 +684,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,31 +714,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,43 +744,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,10 +760,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -773,7 +771,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,21 +786,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -838,6 +821,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -849,157 +847,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1014,7 +1014,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1097,8 +1097,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_6" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp_1" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
     </queryTableFields>
@@ -1107,7 +1107,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1117,7 +1117,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1137,7 +1137,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1147,6 +1147,16 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_4" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
+    <queryTableFields count="1">
+      <queryTableField id="1" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_5" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
@@ -1156,8 +1166,8 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_4" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_6" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1166,18 +1176,8 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp_1" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
-    <queryTableFields count="1">
-      <queryTableField id="1" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1197,7 +1197,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1207,7 +1207,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -53107,7 +53107,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F17"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
@@ -53151,7 +53151,7 @@
         <v>-1.1308</v>
       </c>
       <c r="F2" s="5">
-        <v>-1.1265</v>
+        <v>-1.1266</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -53191,7 +53191,7 @@
         <v>-1.1703</v>
       </c>
       <c r="F4" s="5">
-        <v>-1.1682</v>
+        <v>-1.1683</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -53211,7 +53211,7 @@
         <v>-1.1851</v>
       </c>
       <c r="F5" s="5">
-        <v>-1.1838</v>
+        <v>-1.1839</v>
       </c>
     </row>
     <row r="6" spans="1:6">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -374,11 +374,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="0.000000"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -404,18 +404,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -427,10 +442,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -442,31 +457,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,31 +473,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,9 +524,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,15 +539,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,7 +564,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,7 +630,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,7 +654,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,19 +666,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,19 +696,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,7 +726,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,91 +738,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,15 +767,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -791,6 +782,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -802,6 +802,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,15 +847,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -858,148 +858,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1097,8 +1097,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp_1" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_6" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
     </queryTableFields>
@@ -1107,7 +1107,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1117,7 +1117,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1137,7 +1137,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1147,6 +1147,16 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_5" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
+    <queryTableFields count="1">
+      <queryTableField id="1" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_4" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
@@ -1156,19 +1166,9 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_5" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
-    <queryTableFields count="1">
-      <queryTableField id="1" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_6" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp_1" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
     </queryTableFields>
@@ -1177,7 +1177,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1197,7 +1197,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1207,7 +1207,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -53107,7 +53107,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
@@ -53151,7 +53151,7 @@
         <v>-1.1308</v>
       </c>
       <c r="F2" s="5">
-        <v>-1.1266</v>
+        <v>-1.1271</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -53171,7 +53171,7 @@
         <v>-1.1528</v>
       </c>
       <c r="F3" s="5">
-        <v>-1.1499</v>
+        <v>-1.1503</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -53191,7 +53191,7 @@
         <v>-1.1703</v>
       </c>
       <c r="F4" s="5">
-        <v>-1.1683</v>
+        <v>-1.1685</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -53211,7 +53211,7 @@
         <v>-1.1851</v>
       </c>
       <c r="F5" s="5">
-        <v>-1.1839</v>
+        <v>-1.184</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -53231,7 +53231,7 @@
         <v>-1.1967</v>
       </c>
       <c r="F6" s="5">
-        <v>-1.1962</v>
+        <v>-1.1963</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -53311,7 +53311,7 @@
         <v>-1.2055</v>
       </c>
       <c r="F10" s="5">
-        <v>-1.2074</v>
+        <v>-1.2073</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -53331,7 +53331,7 @@
         <v>-1.1974</v>
       </c>
       <c r="F11" s="5">
-        <v>-1.1999</v>
+        <v>-1.1998</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -53351,7 +53351,7 @@
         <v>-1.1822</v>
       </c>
       <c r="F12" s="5">
-        <v>-1.1655</v>
+        <v>-1.1652</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -53371,7 +53371,7 @@
         <v>-1.1588</v>
       </c>
       <c r="F13" s="5">
-        <v>-1.1623</v>
+        <v>-1.1621</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -53391,7 +53391,7 @@
         <v>-1.1261</v>
       </c>
       <c r="F14" s="5">
-        <v>-1.1298</v>
+        <v>-1.1297</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -53411,7 +53411,7 @@
         <v>-1.0827</v>
       </c>
       <c r="F15" s="5">
-        <v>-1.0863</v>
+        <v>-1.0862</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -53431,7 +53431,7 @@
         <v>-1.0269</v>
       </c>
       <c r="F16" s="5">
-        <v>-1.0301</v>
+        <v>-1.0302</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -53451,7 +53451,7 @@
         <v>-0.957</v>
       </c>
       <c r="F17" s="5">
-        <v>-0.9593</v>
+        <v>-0.9596</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -374,11 +374,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.000000"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.000000"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -407,7 +407,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -418,9 +418,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,10 +448,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -449,17 +464,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,7 +481,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,13 +492,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -510,15 +510,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,7 +527,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,15 +549,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,13 +564,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,55 +630,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,7 +672,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,31 +684,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,7 +696,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,43 +708,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,26 +767,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,11 +797,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,177 +855,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1014,7 +1014,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1097,8 +1097,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_6" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp_1" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
     </queryTableFields>
@@ -1107,7 +1107,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1117,7 +1117,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1137,7 +1137,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1147,6 +1147,16 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_4" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
+    <queryTableFields count="1">
+      <queryTableField id="1" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_5" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
@@ -1156,8 +1166,8 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_4" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_6" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1166,18 +1176,8 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp_1" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
-    <queryTableFields count="1">
-      <queryTableField id="1" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1197,7 +1197,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1207,7 +1207,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -53107,7 +53107,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F2" sqref="F2:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
@@ -53151,7 +53151,7 @@
         <v>-1.1308</v>
       </c>
       <c r="F2" s="5">
-        <v>-1.1271</v>
+        <v>-1.1301</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -53171,7 +53171,7 @@
         <v>-1.1528</v>
       </c>
       <c r="F3" s="5">
-        <v>-1.1503</v>
+        <v>-1.1529</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -53191,7 +53191,7 @@
         <v>-1.1703</v>
       </c>
       <c r="F4" s="5">
-        <v>-1.1685</v>
+        <v>-1.1709</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -53211,7 +53211,7 @@
         <v>-1.1851</v>
       </c>
       <c r="F5" s="5">
-        <v>-1.184</v>
+        <v>-1.1862</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -53231,7 +53231,7 @@
         <v>-1.1967</v>
       </c>
       <c r="F6" s="5">
-        <v>-1.1963</v>
+        <v>-1.1982</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -53251,7 +53251,7 @@
         <v>-1.2044</v>
       </c>
       <c r="F7" s="5">
-        <v>-1.2122</v>
+        <v>-1.2063</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -53271,7 +53271,7 @@
         <v>-1.2058</v>
       </c>
       <c r="F8" s="5">
-        <v>-1.2107</v>
+        <v>-1.2079</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -53291,7 +53291,7 @@
         <v>-1.2076</v>
       </c>
       <c r="F9" s="5">
-        <v>-1.2087</v>
+        <v>-1.21</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -53311,7 +53311,7 @@
         <v>-1.2055</v>
       </c>
       <c r="F10" s="5">
-        <v>-1.2073</v>
+        <v>-1.2083</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -53331,7 +53331,7 @@
         <v>-1.1974</v>
       </c>
       <c r="F11" s="5">
-        <v>-1.1998</v>
+        <v>-1.2005</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -53351,7 +53351,7 @@
         <v>-1.1822</v>
       </c>
       <c r="F12" s="5">
-        <v>-1.1652</v>
+        <v>-1.1855</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -53371,7 +53371,7 @@
         <v>-1.1588</v>
       </c>
       <c r="F13" s="5">
-        <v>-1.1621</v>
+        <v>-1.1622</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -53391,7 +53391,7 @@
         <v>-1.1261</v>
       </c>
       <c r="F14" s="5">
-        <v>-1.1297</v>
+        <v>-1.1294</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -53411,7 +53411,7 @@
         <v>-1.0827</v>
       </c>
       <c r="F15" s="5">
-        <v>-1.0862</v>
+        <v>-1.0855</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -53431,7 +53431,7 @@
         <v>-1.0269</v>
       </c>
       <c r="F16" s="5">
-        <v>-1.0302</v>
+        <v>-1.0291</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -53451,7 +53451,7 @@
         <v>-0.957</v>
       </c>
       <c r="F17" s="5">
-        <v>-0.9596</v>
+        <v>-0.958</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -25,7 +25,6 @@
     <definedName name="res" localSheetId="5">down!$C$2:$C$16</definedName>
     <definedName name="res" localSheetId="6">up!$C$2:$C$16</definedName>
     <definedName name="res_1" localSheetId="5">down!$D$2:$D$16</definedName>
-    <definedName name="res_1" localSheetId="4">shift!$E$2:$E$16</definedName>
     <definedName name="res_1" localSheetId="6">up!$E$2:$E$16</definedName>
     <definedName name="res_2" localSheetId="5">down!$E$2:$E$16</definedName>
     <definedName name="res_2" localSheetId="6">up!$D$2:$D$16</definedName>
@@ -33,6 +32,7 @@
     <definedName name="tmp_1" localSheetId="2">CCmd!$L$2:$L$16</definedName>
     <definedName name="ExternalData_1" localSheetId="4">shift!$F$2:$F$17</definedName>
     <definedName name="ExternalData_2" localSheetId="4">shift!$D$2:$D$17</definedName>
+    <definedName name="ExternalData_3" localSheetId="4">shift!$E$2:$E$17</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -86,63 +86,63 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="res1" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="1" name="res3" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="/Users/yerong/Documents/William/res.txt">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="res3" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="2" name="res4" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="/Users/yerong/Documents/William/res.txt">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="res4" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="3" name="res5" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="/Users/yerong/Documents/William/res.txt">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="res5" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="4" name="res6" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="/Users/yerong/Documents/William/res.txt">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="res6" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="5" name="res7" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="/Users/yerong/Documents/William/res.txt">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="res7" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="6" name="res8" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="/Users/yerong/Documents/William/res.txt">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" name="res8" type="6" background="1" refreshedVersion="2" saveData="1">
-    <textPr sourceFile="/Users/yerong/Documents/William/res.txt">
-      <textFields>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="8" name="rst" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="7" name="rst" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\rst.txt">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="9" name="rst1" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="8" name="rst1" type="6" background="1" refreshedVersion="2" saveData="1">
+    <textPr sourceFile="F:\William\rst.txt">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="9" name="rst2" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\rst.txt">
       <textFields>
         <textField/>
@@ -374,11 +374,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.000000"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -405,13 +405,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -419,14 +412,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -436,7 +436,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -449,8 +449,16 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,17 +472,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,24 +504,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -525,16 +525,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,7 +549,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,7 +564,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,25 +582,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,19 +600,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,13 +642,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,91 +744,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,7 +761,81 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -781,225 +855,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1014,7 +1014,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1097,6 +1097,76 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_6" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
+    <queryTableFields count="1">
+      <queryTableField id="1" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
+    <queryTableFields count="1">
+      <queryTableField id="1" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
+    <queryTableFields count="1">
+      <queryTableField id="1" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
+    <queryTableFields count="1">
+      <queryTableField id="1" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
+    <queryTableFields count="1">
+      <queryTableField id="1" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_5" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
+    <queryTableFields count="1">
+      <queryTableField id="1" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_4" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
+    <queryTableFields count="1">
+      <queryTableField id="1" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp_1" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
@@ -1106,78 +1176,8 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
-    <queryTableFields count="1">
-      <queryTableField id="1" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
-    <queryTableFields count="1">
-      <queryTableField id="1" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
-    <queryTableFields count="1">
-      <queryTableField id="1" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
-    <queryTableFields count="1">
-      <queryTableField id="1" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_4" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
-    <queryTableFields count="1">
-      <queryTableField id="1" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_5" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
-    <queryTableFields count="1">
-      <queryTableField id="1" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_6" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
-    <queryTableFields count="1">
-      <queryTableField id="1" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1187,8 +1187,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
     </queryTableFields>
@@ -1197,7 +1197,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1207,7 +1207,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1217,7 +1217,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -53107,13 +53107,12 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F17"/>
+      <selection activeCell="D2" sqref="D2:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
-    <col min="4" max="4" width="8.375" customWidth="1"/>
-    <col min="6" max="6" width="8.375" customWidth="1"/>
+    <col min="4" max="6" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -53145,13 +53144,13 @@
         <v>-1.16397647235087</v>
       </c>
       <c r="D2" s="5">
-        <v>-1.1486</v>
+        <v>-1.1462</v>
       </c>
       <c r="E2" s="6">
         <v>-1.1308</v>
       </c>
       <c r="F2" s="5">
-        <v>-1.1301</v>
+        <v>-1.1269</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -53165,13 +53164,13 @@
         <v>-1.17477787803301</v>
       </c>
       <c r="D3" s="5">
-        <v>-1.1661</v>
+        <v>-1.1638</v>
       </c>
       <c r="E3" s="6">
         <v>-1.1528</v>
       </c>
       <c r="F3" s="5">
-        <v>-1.1529</v>
+        <v>-1.1499</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -53185,13 +53184,13 @@
         <v>-1.186285248709</v>
       </c>
       <c r="D4" s="5">
-        <v>-1.1811</v>
+        <v>-1.1789</v>
       </c>
       <c r="E4" s="6">
-        <v>-1.1703</v>
+        <v>-1.1704</v>
       </c>
       <c r="F4" s="5">
-        <v>-1.1709</v>
+        <v>-1.1681</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -53205,13 +53204,13 @@
         <v>-1.195119714459</v>
       </c>
       <c r="D5" s="5">
-        <v>-1.1932</v>
+        <v>-1.1911</v>
       </c>
       <c r="E5" s="6">
-        <v>-1.1851</v>
+        <v>-1.1852</v>
       </c>
       <c r="F5" s="5">
-        <v>-1.1862</v>
+        <v>-1.1835</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -53225,13 +53224,13 @@
         <v>-1.20178949653999</v>
       </c>
       <c r="D6" s="5">
-        <v>-1.2019</v>
+        <v>-1.2</v>
       </c>
       <c r="E6" s="6">
         <v>-1.1967</v>
       </c>
       <c r="F6" s="5">
-        <v>-1.1982</v>
+        <v>-1.1957</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -53245,13 +53244,13 @@
         <v>-1.20503708359101</v>
       </c>
       <c r="D7" s="5">
-        <v>-1.2068</v>
+        <v>-1.205</v>
       </c>
       <c r="E7" s="6">
         <v>-1.2044</v>
       </c>
       <c r="F7" s="5">
-        <v>-1.2063</v>
+        <v>-1.2041</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -53265,13 +53264,13 @@
         <v>-1.20522788652559</v>
       </c>
       <c r="D8" s="5">
-        <v>-1.2074</v>
+        <v>-1.2057</v>
       </c>
       <c r="E8" s="5">
         <v>-1.2058</v>
       </c>
       <c r="F8" s="5">
-        <v>-1.2079</v>
+        <v>-1.2057</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -53285,13 +53284,13 @@
         <v>-1.20415879448197</v>
       </c>
       <c r="D9" s="5">
-        <v>-1.2073</v>
+        <v>-1.2057</v>
       </c>
       <c r="E9" s="6">
         <v>-1.2076</v>
       </c>
       <c r="F9" s="5">
-        <v>-1.21</v>
+        <v>-1.208</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -53305,13 +53304,13 @@
         <v>-1.19905021115693</v>
       </c>
       <c r="D10" s="5">
-        <v>-1.2028</v>
+        <v>-1.2014</v>
       </c>
       <c r="E10" s="6">
         <v>-1.2055</v>
       </c>
       <c r="F10" s="5">
-        <v>-1.2083</v>
+        <v>-1.2065</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -53325,13 +53324,13 @@
         <v>-1.18886879867486</v>
       </c>
       <c r="D11" s="5">
-        <v>-1.1927</v>
+        <v>-1.1915</v>
       </c>
       <c r="E11" s="6">
-        <v>-1.1974</v>
+        <v>-1.1973</v>
       </c>
       <c r="F11" s="5">
-        <v>-1.2005</v>
+        <v>-1.199</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -53345,13 +53344,13 @@
         <v>-1.17288753288264</v>
       </c>
       <c r="D12" s="5">
-        <v>-1.1763</v>
+        <v>-1.1753</v>
       </c>
       <c r="E12" s="6">
-        <v>-1.1822</v>
+        <v>-1.1821</v>
       </c>
       <c r="F12" s="5">
-        <v>-1.1855</v>
+        <v>-1.1843</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -53365,13 +53364,13 @@
         <v>-1.15031135712294</v>
       </c>
       <c r="D13" s="5">
-        <v>-1.1529</v>
+        <v>-1.152</v>
       </c>
       <c r="E13" s="6">
         <v>-1.1588</v>
       </c>
       <c r="F13" s="5">
-        <v>-1.1622</v>
+        <v>-1.1613</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -53385,13 +53384,13 @@
         <v>-1.12032018073023</v>
       </c>
       <c r="D14" s="5">
-        <v>-1.1214</v>
+        <v>-1.1207</v>
       </c>
       <c r="E14" s="6">
         <v>-1.1261</v>
       </c>
       <c r="F14" s="5">
-        <v>-1.1294</v>
+        <v>-1.1288</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -53405,13 +53404,13 @@
         <v>-1.08214417160377</v>
       </c>
       <c r="D15" s="5">
-        <v>-1.0811</v>
+        <v>-1.0806</v>
       </c>
       <c r="E15" s="6">
-        <v>-1.0827</v>
+        <v>-1.0826</v>
       </c>
       <c r="F15" s="5">
-        <v>-1.0855</v>
+        <v>-1.0852</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -53425,13 +53424,13 @@
         <v>-1.03457424671424</v>
       </c>
       <c r="D16" s="5">
-        <v>-1.0309</v>
+        <v>-1.0306</v>
       </c>
       <c r="E16" s="6">
         <v>-1.0269</v>
       </c>
       <c r="F16" s="5">
-        <v>-1.0291</v>
+        <v>-1.029</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -53445,13 +53444,13 @@
         <v>-0.976615550953454</v>
       </c>
       <c r="D17" s="5">
-        <v>-0.9698</v>
+        <v>-0.9696</v>
       </c>
       <c r="E17" s="5">
         <v>-0.957</v>
       </c>
       <c r="F17" s="5">
-        <v>-0.958</v>
+        <v>-0.9582</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15840" windowHeight="8370" tabRatio="500" activeTab="4"/>
+    <workbookView windowWidth="15840" windowHeight="8370" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data11" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <definedName name="ExternalData_1" localSheetId="2">CCmd!$M$2:$M$16</definedName>
     <definedName name="ExternalData_2" localSheetId="2">CCmd!$K$2:$K$16</definedName>
     <definedName name="ExternalData_3" localSheetId="2">CCmd!$J$2:$J$16</definedName>
-    <definedName name="ExternalData_4" localSheetId="2">CCmd!$M$2:$M$16</definedName>
     <definedName name="ExternalData_5" localSheetId="2">CCmd!$K$2:$K$16</definedName>
     <definedName name="ExternalData_6" localSheetId="2">CCmd!$J$2:$J$16</definedName>
     <definedName name="res" localSheetId="5">down!$C$2:$C$16</definedName>
@@ -163,14 +162,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="12" name="tmp5" type="6" background="1" refreshedVersion="2" saveData="1">
-    <textPr sourceFile="F:\William\tmp.txt">
-      <textFields>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="13" name="tmp6" type="6" background="1" refreshedVersion="2" saveData="1">
+  <connection id="12" name="tmp6" type="6" background="1" refreshedVersion="2" saveData="1">
     <textPr sourceFile="F:\William\tmp.txt">
       <textFields>
         <textField/>
@@ -375,10 +367,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.000000"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -405,31 +397,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -440,27 +410,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -481,7 +449,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -489,44 +457,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,7 +472,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,6 +489,59 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,73 +556,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,13 +586,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,85 +736,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,26 +753,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -815,28 +804,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -855,151 +827,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1097,6 +1089,56 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp_1" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
+    <queryTableFields count="1">
+      <queryTableField id="1" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
+    <queryTableFields count="1">
+      <queryTableField id="1" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
+    <queryTableFields count="1">
+      <queryTableField id="1" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
+    <queryTableFields count="1">
+      <queryTableField id="1" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_5" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
+    <queryTableFields count="1">
+      <queryTableField id="1" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_6" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
@@ -1106,7 +1148,37 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
+    <queryTableFields count="1">
+      <queryTableField id="1" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
+    <queryTableFields count="1">
+      <queryTableField id="1" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
+    <queryTableFields count="1">
+      <queryTableField id="1" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
@@ -1116,98 +1188,8 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
-    <queryTableFields count="1">
-      <queryTableField id="1" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
-    <queryTableFields count="1">
-      <queryTableField id="1" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
-    <queryTableFields count="1">
-      <queryTableField id="1" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_5" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
-    <queryTableFields count="1">
-      <queryTableField id="1" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_4" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
-    <queryTableFields count="1">
-      <queryTableField id="1" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp_1" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
-    <queryTableFields count="1">
-      <queryTableField id="1" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
-    <queryTableFields count="1">
-      <queryTableField id="1" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
-    <queryTableFields count="1">
-      <queryTableField id="1" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
-    <queryTableFields count="1">
-      <queryTableField id="1" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1217,7 +1199,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -2687,8 +2669,8 @@
   <sheetPr/>
   <dimension ref="A1:M16384"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2703,7 +2685,7 @@
     <col min="9" max="9" width="12.875" customWidth="1"/>
     <col min="10" max="10" width="12.1666666666667" customWidth="1"/>
     <col min="11" max="11" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="11.8333333333333" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
     <col min="13" max="13" width="16.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2744,11 +2726,9 @@
       <c r="L1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="M1" s="14"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2">
         <v>7.0959732791159</v>
       </c>
@@ -2783,13 +2763,10 @@
         <v>-1.1812</v>
       </c>
       <c r="L2" s="15">
-        <v>-1.1203</v>
-      </c>
-      <c r="M2">
-        <v>-1.1317</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>-1.1215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2">
         <v>7.02965577183444</v>
       </c>
@@ -2824,13 +2801,10 @@
         <v>-1.2007</v>
       </c>
       <c r="L3" s="15">
-        <v>-1.1438</v>
-      </c>
-      <c r="M3">
-        <v>-1.1522</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>-1.1448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="3">
         <v>6.96333826455299</v>
       </c>
@@ -2865,13 +2839,10 @@
         <v>-1.2173</v>
       </c>
       <c r="L4" s="15">
-        <v>-1.1623</v>
-      </c>
-      <c r="M4">
-        <v>-1.1703</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>-1.1632</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="3">
         <v>6.89702075727153</v>
       </c>
@@ -2906,13 +2877,10 @@
         <v>-1.2304</v>
       </c>
       <c r="L5" s="15">
-        <v>-1.1781</v>
-      </c>
-      <c r="M5">
-        <v>-1.1856</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>-1.1789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="3">
         <v>6.83070324999007</v>
       </c>
@@ -2947,13 +2915,10 @@
         <v>-1.2394</v>
       </c>
       <c r="L6" s="15">
-        <v>-1.1906</v>
-      </c>
-      <c r="M6">
-        <v>-1.1975</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>-1.1913</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="3">
         <v>6.76438574270861</v>
       </c>
@@ -2988,13 +2953,10 @@
         <v>-1.2435</v>
       </c>
       <c r="L7" s="15">
-        <v>-1.2074</v>
-      </c>
-      <c r="M7">
-        <v>-1.2055</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>-1.2078</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="11">
         <v>6.7454</v>
       </c>
@@ -3029,13 +2991,10 @@
         <v>0</v>
       </c>
       <c r="L8" s="15">
-        <v>-1.2059</v>
-      </c>
-      <c r="M8">
-        <v>-1.2088</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>-1.2063</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>6.69806823542716</v>
       </c>
@@ -3070,13 +3029,10 @@
         <v>-1.2419</v>
       </c>
       <c r="L9" s="15">
-        <v>-1.2038</v>
-      </c>
-      <c r="M9">
-        <v>-1.2066</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>-1.2042</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>6.6317507281457</v>
       </c>
@@ -3111,13 +3067,10 @@
         <v>-1.2337</v>
       </c>
       <c r="L10" s="15">
-        <v>-1.2029</v>
-      </c>
-      <c r="M10">
-        <v>-1.1981</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>-1.2031</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>6.56543322086424</v>
       </c>
@@ -3154,11 +3107,8 @@
       <c r="L11" s="15">
         <v>-1.1959</v>
       </c>
-      <c r="M11">
-        <v>-1.1821</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>6.49911571358279</v>
       </c>
@@ -3193,13 +3143,10 @@
         <v>-1.1925</v>
       </c>
       <c r="L12" s="15">
-        <v>-1.1626</v>
-      </c>
-      <c r="M12">
-        <v>-1.1576</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>-1.1623</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>6.43279820630133</v>
       </c>
@@ -3234,13 +3181,10 @@
         <v>-1.1569</v>
       </c>
       <c r="L13" s="15">
-        <v>-1.1595</v>
-      </c>
-      <c r="M13">
-        <v>-1.1232</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>-1.1592</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>6.36648069901987</v>
       </c>
@@ -3275,13 +3219,10 @@
         <v>-1.1092</v>
       </c>
       <c r="L14" s="15">
-        <v>-1.1277</v>
-      </c>
-      <c r="M14">
-        <v>-1.0773</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>-1.1272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>6.30016319173841</v>
       </c>
@@ -3316,13 +3257,10 @@
         <v>-1.0475</v>
       </c>
       <c r="L15" s="15">
-        <v>-1.085</v>
-      </c>
-      <c r="M15">
-        <v>-1.0183</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>-1.0843</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="2">
         <v>6.23384568445696</v>
       </c>
@@ -3357,10 +3295,7 @@
         <v>-0.9697</v>
       </c>
       <c r="L16" s="15">
-        <v>-1.0298</v>
-      </c>
-      <c r="M16">
-        <v>-0.9442</v>
+        <v>-1.0289</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:12">
@@ -3398,7 +3333,7 @@
         <v>-0.8734</v>
       </c>
       <c r="L17" s="15">
-        <v>-0.9601</v>
+        <v>-0.959</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="4:4">
@@ -53106,7 +53041,7 @@
   <sheetPr/>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D17"/>
     </sheetView>
   </sheetViews>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -20,7 +20,6 @@
     <definedName name="ExternalData_2" localSheetId="2">CCmd!$K$2:$K$16</definedName>
     <definedName name="ExternalData_3" localSheetId="2">CCmd!$J$2:$J$16</definedName>
     <definedName name="ExternalData_5" localSheetId="2">CCmd!$K$2:$K$16</definedName>
-    <definedName name="ExternalData_6" localSheetId="2">CCmd!$J$2:$J$16</definedName>
     <definedName name="res" localSheetId="5">down!$C$2:$C$16</definedName>
     <definedName name="res" localSheetId="6">up!$C$2:$C$16</definedName>
     <definedName name="res_1" localSheetId="5">down!$D$2:$D$16</definedName>
@@ -32,6 +31,7 @@
     <definedName name="ExternalData_1" localSheetId="4">shift!$F$2:$F$17</definedName>
     <definedName name="ExternalData_2" localSheetId="4">shift!$D$2:$D$17</definedName>
     <definedName name="ExternalData_3" localSheetId="4">shift!$E$2:$E$17</definedName>
+    <definedName name="ExternalData_1_1" localSheetId="2">CCmd!$J$2:$J$17</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -148,15 +148,15 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="10" name="tmp3" type="6" background="1" refreshedVersion="2" saveData="1">
-    <textPr sourceFile="/Users/yerong/Documents/William/tmp/tmp.txt">
+  <connection id="10" name="rst3" type="6" background="1" refreshedVersion="2" saveData="1">
+    <textPr sourceFile="F:\William\rst.txt">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="11" name="tmp4" type="6" background="1" refreshedVersion="2" saveData="1">
-    <textPr sourceFile="F:\William\tmp.txt" space="1" consecutive="1">
+  <connection id="11" name="tmp3" type="6" background="1" refreshedVersion="2" saveData="1">
+    <textPr sourceFile="/Users/yerong/Documents/William/tmp/tmp.txt">
       <textFields>
         <textField/>
       </textFields>
@@ -367,10 +367,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -399,6 +399,28 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -406,19 +428,29 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,32 +464,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,7 +480,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,29 +495,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -518,7 +503,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -526,7 +511,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,14 +519,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,6 +553,30 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -574,19 +598,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,7 +664,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,13 +700,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,55 +724,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,49 +736,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,6 +747,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -774,17 +809,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,15 +833,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -827,171 +847,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1089,8 +1089,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp_1" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1_1" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
     </queryTableFields>
@@ -1099,7 +1099,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1119,7 +1119,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1139,8 +1139,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_6" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp_1" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
     </queryTableFields>
@@ -1149,7 +1149,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1169,7 +1169,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1179,7 +1179,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1199,7 +1199,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -2670,7 +2670,7 @@
   <dimension ref="A1:M16384"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L17"/>
+      <selection activeCell="J2" sqref="J2:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2683,7 +2683,7 @@
     <col min="7" max="7" width="10.3333333333333" customWidth="1"/>
     <col min="8" max="8" width="11.6666666666667" customWidth="1"/>
     <col min="9" max="9" width="12.875" customWidth="1"/>
-    <col min="10" max="10" width="12.1666666666667" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
     <col min="11" max="11" width="13.5" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
     <col min="13" max="13" width="16.1666666666667" customWidth="1"/>
@@ -2757,13 +2757,13 @@
         <v>-1.16397647235087</v>
       </c>
       <c r="J2" s="15">
-        <v>-1.1251</v>
+        <v>-1.1258</v>
       </c>
       <c r="K2" s="14">
         <v>-1.1812</v>
       </c>
       <c r="L2" s="15">
-        <v>-1.1215</v>
+        <v>-1.1205</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2795,13 +2795,13 @@
         <v>-1.17477787803301</v>
       </c>
       <c r="J3" s="15">
-        <v>-1.1475</v>
+        <v>-1.1482</v>
       </c>
       <c r="K3" s="14">
         <v>-1.2007</v>
       </c>
       <c r="L3" s="15">
-        <v>-1.1448</v>
+        <v>-1.1441</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2833,13 +2833,13 @@
         <v>-1.186285248709</v>
       </c>
       <c r="J4" s="15">
-        <v>-1.1654</v>
+        <v>-1.166</v>
       </c>
       <c r="K4" s="14">
         <v>-1.2173</v>
       </c>
       <c r="L4" s="15">
-        <v>-1.1632</v>
+        <v>-1.1626</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2871,13 +2871,13 @@
         <v>-1.195119714459</v>
       </c>
       <c r="J5" s="15">
-        <v>-1.1805</v>
+        <v>-1.1811</v>
       </c>
       <c r="K5" s="14">
         <v>-1.2304</v>
       </c>
       <c r="L5" s="15">
-        <v>-1.1789</v>
+        <v>-1.1784</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2909,13 +2909,13 @@
         <v>-1.20178949653999</v>
       </c>
       <c r="J6" s="15">
-        <v>-1.1924</v>
+        <v>-1.1929</v>
       </c>
       <c r="K6" s="14">
         <v>-1.2394</v>
       </c>
       <c r="L6" s="15">
-        <v>-1.1913</v>
+        <v>-1.191</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2947,13 +2947,13 @@
         <v>-1.20503708359101</v>
       </c>
       <c r="J7" s="15">
-        <v>-1.2074</v>
+        <v>-1.2078</v>
       </c>
       <c r="K7" s="14">
         <v>-1.2435</v>
       </c>
       <c r="L7" s="15">
-        <v>-1.2078</v>
+        <v>-1.2077</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2985,13 +2985,13 @@
         <v>-1.20522788652559</v>
       </c>
       <c r="J8" s="15">
-        <v>-1.2059</v>
+        <v>-1.2063</v>
       </c>
       <c r="K8" s="14">
         <v>0</v>
       </c>
       <c r="L8" s="15">
-        <v>-1.2063</v>
+        <v>-1.2062</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -3023,13 +3023,13 @@
         <v>-1.20415879448197</v>
       </c>
       <c r="J9" s="15">
-        <v>-1.204</v>
+        <v>-1.2044</v>
       </c>
       <c r="K9" s="14">
         <v>-1.2419</v>
       </c>
       <c r="L9" s="15">
-        <v>-1.2042</v>
+        <v>-1.2041</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3061,13 +3061,13 @@
         <v>-1.19905021115693</v>
       </c>
       <c r="J10" s="15">
-        <v>-1.2024</v>
+        <v>-1.2027</v>
       </c>
       <c r="K10" s="14">
         <v>-1.2337</v>
       </c>
       <c r="L10" s="15">
-        <v>-1.2031</v>
+        <v>-1.2032</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3099,13 +3099,13 @@
         <v>-1.18886879867486</v>
       </c>
       <c r="J11" s="15">
-        <v>-1.1946</v>
+        <v>-1.1949</v>
       </c>
       <c r="K11" s="14">
         <v>-1.2176</v>
       </c>
       <c r="L11" s="15">
-        <v>-1.1959</v>
+        <v>-1.1962</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3137,13 +3137,13 @@
         <v>-1.17288753288264</v>
       </c>
       <c r="J12" s="15">
-        <v>-1.16</v>
+        <v>-1.1602</v>
       </c>
       <c r="K12" s="14">
         <v>-1.1925</v>
       </c>
       <c r="L12" s="15">
-        <v>-1.1623</v>
+        <v>-1.1628</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3175,13 +3175,13 @@
         <v>-1.15031135712294</v>
       </c>
       <c r="J13" s="15">
-        <v>-1.157</v>
+        <v>-1.1572</v>
       </c>
       <c r="K13" s="14">
         <v>-1.1569</v>
       </c>
       <c r="L13" s="15">
-        <v>-1.1592</v>
+        <v>-1.1597</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3213,13 +3213,13 @@
         <v>-1.12032018073023</v>
       </c>
       <c r="J14" s="15">
-        <v>-1.1249</v>
+        <v>-1.125</v>
       </c>
       <c r="K14" s="14">
         <v>-1.1092</v>
       </c>
       <c r="L14" s="15">
-        <v>-1.1272</v>
+        <v>-1.1278</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3257,7 +3257,7 @@
         <v>-1.0475</v>
       </c>
       <c r="L15" s="15">
-        <v>-1.0843</v>
+        <v>-1.085</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -3295,7 +3295,7 @@
         <v>-0.9697</v>
       </c>
       <c r="L16" s="15">
-        <v>-1.0289</v>
+        <v>-1.0296</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:12">
@@ -3327,13 +3327,13 @@
         <v>-0.976615550953454</v>
       </c>
       <c r="J17" s="15">
-        <v>-0.9575</v>
+        <v>-0.9574</v>
       </c>
       <c r="K17" s="14">
         <v>-0.8734</v>
       </c>
       <c r="L17" s="15">
-        <v>-0.959</v>
+        <v>-0.9596</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="4:4">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -367,10 +367,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -397,83 +397,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,7 +419,30 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -504,6 +451,81 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -517,31 +539,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,7 +556,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,175 +730,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,8 +753,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,44 +787,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,6 +809,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -847,151 +832,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1099,7 +1099,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1119,7 +1119,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1129,6 +1129,16 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp_1" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
+    <queryTableFields count="1">
+      <queryTableField id="1" dataBound="0"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_5" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
@@ -1138,18 +1148,8 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp_1" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
-    <queryTableFields count="1">
-      <queryTableField id="1" dataBound="0"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1169,7 +1169,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1179,7 +1179,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1199,7 +1199,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -2670,7 +2670,7 @@
   <dimension ref="A1:M16384"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J17"/>
+      <selection activeCell="L2" sqref="L2:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2763,7 +2763,7 @@
         <v>-1.1812</v>
       </c>
       <c r="L2" s="15">
-        <v>-1.1205</v>
+        <v>-1.1195</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2801,7 +2801,7 @@
         <v>-1.2007</v>
       </c>
       <c r="L3" s="15">
-        <v>-1.1441</v>
+        <v>-1.1433</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2839,7 +2839,7 @@
         <v>-1.2173</v>
       </c>
       <c r="L4" s="15">
-        <v>-1.1626</v>
+        <v>-1.162</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2877,7 +2877,7 @@
         <v>-1.2304</v>
       </c>
       <c r="L5" s="15">
-        <v>-1.1784</v>
+        <v>-1.1779</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2915,7 +2915,7 @@
         <v>-1.2394</v>
       </c>
       <c r="L6" s="15">
-        <v>-1.191</v>
+        <v>-1.1906</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -3067,7 +3067,7 @@
         <v>-1.2337</v>
       </c>
       <c r="L10" s="15">
-        <v>-1.2032</v>
+        <v>-1.2033</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3105,7 +3105,7 @@
         <v>-1.2176</v>
       </c>
       <c r="L11" s="15">
-        <v>-1.1962</v>
+        <v>-1.1964</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3143,7 +3143,7 @@
         <v>-1.1925</v>
       </c>
       <c r="L12" s="15">
-        <v>-1.1628</v>
+        <v>-1.1633</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3181,7 +3181,7 @@
         <v>-1.1569</v>
       </c>
       <c r="L13" s="15">
-        <v>-1.1597</v>
+        <v>-1.1601</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3219,7 +3219,7 @@
         <v>-1.1092</v>
       </c>
       <c r="L14" s="15">
-        <v>-1.1278</v>
+        <v>-1.1283</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3257,7 +3257,7 @@
         <v>-1.0475</v>
       </c>
       <c r="L15" s="15">
-        <v>-1.085</v>
+        <v>-1.0855</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -3295,7 +3295,7 @@
         <v>-0.9697</v>
       </c>
       <c r="L16" s="15">
-        <v>-1.0296</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:12">
@@ -3333,7 +3333,7 @@
         <v>-0.8734</v>
       </c>
       <c r="L17" s="15">
-        <v>-0.9596</v>
+        <v>-0.9599</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="4:4">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -367,10 +367,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -397,22 +397,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,8 +425,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,38 +449,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -487,38 +474,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,9 +503,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,7 +556,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,13 +598,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,156 +737,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,17 +759,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -785,11 +774,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,8 +827,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -832,166 +847,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2757,13 +2757,13 @@
         <v>-1.16397647235087</v>
       </c>
       <c r="J2" s="15">
-        <v>-1.1258</v>
+        <v>-1.1317</v>
       </c>
       <c r="K2" s="14">
         <v>-1.1812</v>
       </c>
       <c r="L2" s="15">
-        <v>-1.1195</v>
+        <v>-1.1253</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2795,13 +2795,13 @@
         <v>-1.17477787803301</v>
       </c>
       <c r="J3" s="15">
-        <v>-1.1482</v>
+        <v>-1.154</v>
       </c>
       <c r="K3" s="14">
         <v>-1.2007</v>
       </c>
       <c r="L3" s="15">
-        <v>-1.1433</v>
+        <v>-1.1492</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2833,13 +2833,13 @@
         <v>-1.186285248709</v>
       </c>
       <c r="J4" s="15">
-        <v>-1.166</v>
+        <v>-1.1717</v>
       </c>
       <c r="K4" s="14">
         <v>-1.2173</v>
       </c>
       <c r="L4" s="15">
-        <v>-1.162</v>
+        <v>-1.1678</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2871,13 +2871,13 @@
         <v>-1.195119714459</v>
       </c>
       <c r="J5" s="15">
-        <v>-1.1811</v>
+        <v>-1.1866</v>
       </c>
       <c r="K5" s="14">
         <v>-1.2304</v>
       </c>
       <c r="L5" s="15">
-        <v>-1.1779</v>
+        <v>-1.1836</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2909,13 +2909,13 @@
         <v>-1.20178949653999</v>
       </c>
       <c r="J6" s="15">
-        <v>-1.1929</v>
+        <v>-1.1983</v>
       </c>
       <c r="K6" s="14">
         <v>-1.2394</v>
       </c>
       <c r="L6" s="15">
-        <v>-1.1906</v>
+        <v>-1.1961</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2947,13 +2947,13 @@
         <v>-1.20503708359101</v>
       </c>
       <c r="J7" s="15">
-        <v>-1.2078</v>
+        <v>-1.204</v>
       </c>
       <c r="K7" s="14">
         <v>-1.2435</v>
       </c>
       <c r="L7" s="15">
-        <v>-1.2077</v>
+        <v>-1.2039</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2985,13 +2985,13 @@
         <v>-1.20522788652559</v>
       </c>
       <c r="J8" s="15">
-        <v>-1.2063</v>
+        <v>-1.2058</v>
       </c>
       <c r="K8" s="14">
         <v>0</v>
       </c>
       <c r="L8" s="15">
-        <v>-1.2062</v>
+        <v>-1.2058</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -3023,13 +3023,13 @@
         <v>-1.20415879448197</v>
       </c>
       <c r="J9" s="15">
-        <v>-1.2044</v>
+        <v>-1.2058</v>
       </c>
       <c r="K9" s="14">
         <v>-1.2419</v>
       </c>
       <c r="L9" s="15">
-        <v>-1.2041</v>
+        <v>-1.2055</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3061,13 +3061,13 @@
         <v>-1.19905021115693</v>
       </c>
       <c r="J10" s="15">
-        <v>-1.2027</v>
+        <v>-1.207</v>
       </c>
       <c r="K10" s="14">
         <v>-1.2337</v>
       </c>
       <c r="L10" s="15">
-        <v>-1.2033</v>
+        <v>-1.2076</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3099,13 +3099,13 @@
         <v>-1.18886879867486</v>
       </c>
       <c r="J11" s="15">
-        <v>-1.1949</v>
+        <v>-1.1986</v>
       </c>
       <c r="K11" s="14">
         <v>-1.2176</v>
       </c>
       <c r="L11" s="15">
-        <v>-1.1964</v>
+        <v>-1.2001</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3137,13 +3137,13 @@
         <v>-1.17288753288264</v>
       </c>
       <c r="J12" s="15">
-        <v>-1.1602</v>
+        <v>-1.1832</v>
       </c>
       <c r="K12" s="14">
         <v>-1.1925</v>
       </c>
       <c r="L12" s="15">
-        <v>-1.1633</v>
+        <v>-1.1853</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3175,13 +3175,13 @@
         <v>-1.15031135712294</v>
       </c>
       <c r="J13" s="15">
-        <v>-1.1572</v>
+        <v>-1.1594</v>
       </c>
       <c r="K13" s="14">
         <v>-1.1569</v>
       </c>
       <c r="L13" s="15">
-        <v>-1.1601</v>
+        <v>-1.1621</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3213,13 +3213,13 @@
         <v>-1.12032018073023</v>
       </c>
       <c r="J14" s="15">
-        <v>-1.125</v>
+        <v>-1.1263</v>
       </c>
       <c r="K14" s="14">
         <v>-1.1092</v>
       </c>
       <c r="L14" s="15">
-        <v>-1.1283</v>
+        <v>-1.1291</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3251,13 +3251,13 @@
         <v>-1.08214417160377</v>
       </c>
       <c r="J15" s="15">
-        <v>-1.082</v>
+        <v>-1.0822</v>
       </c>
       <c r="K15" s="14">
         <v>-1.0475</v>
       </c>
       <c r="L15" s="15">
-        <v>-1.0855</v>
+        <v>-1.0849</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -3289,13 +3289,13 @@
         <v>-1.03457424671424</v>
       </c>
       <c r="J16" s="15">
-        <v>-1.0268</v>
+        <v>-1.0257</v>
       </c>
       <c r="K16" s="14">
         <v>-0.9697</v>
       </c>
       <c r="L16" s="15">
-        <v>-1.03</v>
+        <v>-1.0278</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:12">
@@ -3327,13 +3327,13 @@
         <v>-0.976615550953454</v>
       </c>
       <c r="J17" s="15">
-        <v>-0.9574</v>
+        <v>-0.9549</v>
       </c>
       <c r="K17" s="14">
         <v>-0.8734</v>
       </c>
       <c r="L17" s="15">
-        <v>-0.9599</v>
+        <v>-0.9557</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="4:4">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -27,11 +27,11 @@
     <definedName name="res_2" localSheetId="5">down!$E$2:$E$16</definedName>
     <definedName name="res_2" localSheetId="6">up!$D$2:$D$16</definedName>
     <definedName name="tmp" localSheetId="2">CCmd!$L$2:$L$16</definedName>
-    <definedName name="tmp_1" localSheetId="2">CCmd!$L$2:$L$16</definedName>
     <definedName name="ExternalData_1" localSheetId="4">shift!$F$2:$F$17</definedName>
     <definedName name="ExternalData_2" localSheetId="4">shift!$D$2:$D$17</definedName>
     <definedName name="ExternalData_3" localSheetId="4">shift!$E$2:$E$17</definedName>
     <definedName name="ExternalData_1_1" localSheetId="2">CCmd!$J$2:$J$17</definedName>
+    <definedName name="ExternalData_1_2" localSheetId="2">CCmd!$L$2:$L$17</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -155,8 +155,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="11" name="tmp3" type="6" background="1" refreshedVersion="2" saveData="1">
-    <textPr sourceFile="/Users/yerong/Documents/William/tmp/tmp.txt">
+  <connection id="11" name="rst4" type="6" background="1" refreshedVersion="2" saveData="1">
+    <textPr sourceFile="F:\William\rst.txt">
       <textFields>
         <textField/>
       </textFields>
@@ -366,11 +366,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="0.000000"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -396,6 +396,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -403,8 +419,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,8 +442,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -433,35 +480,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -473,51 +502,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -533,6 +517,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -541,7 +533,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,7 +556,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,85 +658,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,19 +676,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,55 +730,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,17 +759,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,13 +783,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,8 +801,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,15 +822,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -847,151 +836,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1089,7 +1089,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1_1" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1_2" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1099,7 +1099,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1119,7 +1119,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1129,8 +1129,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tmp_1" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1_1" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
     </queryTableFields>
@@ -1149,7 +1149,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1169,7 +1169,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1179,7 +1179,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1199,7 +1199,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -2669,8 +2669,8 @@
   <sheetPr/>
   <dimension ref="A1:M16384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L17"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2685,7 +2685,7 @@
     <col min="9" max="9" width="12.875" customWidth="1"/>
     <col min="10" max="10" width="14.375" customWidth="1"/>
     <col min="11" max="11" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="12" max="12" width="17.25" customWidth="1"/>
     <col min="13" max="13" width="16.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2757,13 +2757,13 @@
         <v>-1.16397647235087</v>
       </c>
       <c r="J2" s="15">
-        <v>-1.1317</v>
+        <v>-1.1347</v>
       </c>
       <c r="K2" s="14">
         <v>-1.1812</v>
       </c>
       <c r="L2" s="15">
-        <v>-1.1253</v>
+        <v>-1.1289</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2795,13 +2795,13 @@
         <v>-1.17477787803301</v>
       </c>
       <c r="J3" s="15">
-        <v>-1.154</v>
+        <v>-1.157</v>
       </c>
       <c r="K3" s="14">
         <v>-1.2007</v>
       </c>
       <c r="L3" s="15">
-        <v>-1.1492</v>
+        <v>-1.1526</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2833,13 +2833,13 @@
         <v>-1.186285248709</v>
       </c>
       <c r="J4" s="15">
-        <v>-1.1717</v>
+        <v>-1.1747</v>
       </c>
       <c r="K4" s="14">
         <v>-1.2173</v>
       </c>
       <c r="L4" s="15">
-        <v>-1.1678</v>
+        <v>-1.171</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2871,13 +2871,13 @@
         <v>-1.195119714459</v>
       </c>
       <c r="J5" s="15">
-        <v>-1.1866</v>
+        <v>-1.1895</v>
       </c>
       <c r="K5" s="14">
         <v>-1.2304</v>
       </c>
       <c r="L5" s="15">
-        <v>-1.1836</v>
+        <v>-1.1866</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2909,13 +2909,13 @@
         <v>-1.20178949653999</v>
       </c>
       <c r="J6" s="15">
-        <v>-1.1983</v>
+        <v>-1.201</v>
       </c>
       <c r="K6" s="14">
         <v>-1.2394</v>
       </c>
       <c r="L6" s="15">
-        <v>-1.1961</v>
+        <v>-1.199</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2947,13 +2947,13 @@
         <v>-1.20503708359101</v>
       </c>
       <c r="J7" s="15">
-        <v>-1.204</v>
+        <v>-1.2064</v>
       </c>
       <c r="K7" s="14">
         <v>-1.2435</v>
       </c>
       <c r="L7" s="15">
-        <v>-1.2039</v>
+        <v>-1.2063</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2985,13 +2985,13 @@
         <v>-1.20522788652559</v>
       </c>
       <c r="J8" s="15">
-        <v>-1.2058</v>
+        <v>-1.2083</v>
       </c>
       <c r="K8" s="14">
         <v>0</v>
       </c>
       <c r="L8" s="15">
-        <v>-1.2058</v>
+        <v>-1.2082</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -3023,13 +3023,13 @@
         <v>-1.20415879448197</v>
       </c>
       <c r="J9" s="15">
-        <v>-1.2058</v>
+        <v>-1.2083</v>
       </c>
       <c r="K9" s="14">
         <v>-1.2419</v>
       </c>
       <c r="L9" s="15">
-        <v>-1.2055</v>
+        <v>-1.2079</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3061,13 +3061,13 @@
         <v>-1.19905021115693</v>
       </c>
       <c r="J10" s="15">
-        <v>-1.207</v>
+        <v>-1.2093</v>
       </c>
       <c r="K10" s="14">
         <v>-1.2337</v>
       </c>
       <c r="L10" s="15">
-        <v>-1.2076</v>
+        <v>-1.2098</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3099,13 +3099,13 @@
         <v>-1.18886879867486</v>
       </c>
       <c r="J11" s="15">
-        <v>-1.1986</v>
+        <v>-1.2008</v>
       </c>
       <c r="K11" s="14">
         <v>-1.2176</v>
       </c>
       <c r="L11" s="15">
-        <v>-1.2001</v>
+        <v>-1.2021</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3137,13 +3137,13 @@
         <v>-1.17288753288264</v>
       </c>
       <c r="J12" s="15">
-        <v>-1.1832</v>
+        <v>-1.1851</v>
       </c>
       <c r="K12" s="14">
         <v>-1.1925</v>
       </c>
       <c r="L12" s="15">
-        <v>-1.1853</v>
+        <v>-1.1871</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3175,13 +3175,13 @@
         <v>-1.15031135712294</v>
       </c>
       <c r="J13" s="15">
-        <v>-1.1594</v>
+        <v>-1.1611</v>
       </c>
       <c r="K13" s="14">
         <v>-1.1569</v>
       </c>
       <c r="L13" s="15">
-        <v>-1.1621</v>
+        <v>-1.1636</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3213,13 +3213,13 @@
         <v>-1.12032018073023</v>
       </c>
       <c r="J14" s="15">
-        <v>-1.1263</v>
+        <v>-1.1276</v>
       </c>
       <c r="K14" s="14">
         <v>-1.1092</v>
       </c>
       <c r="L14" s="15">
-        <v>-1.1291</v>
+        <v>-1.1304</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3251,13 +3251,13 @@
         <v>-1.08214417160377</v>
       </c>
       <c r="J15" s="15">
-        <v>-1.0822</v>
+        <v>-1.0832</v>
       </c>
       <c r="K15" s="14">
         <v>-1.0475</v>
       </c>
       <c r="L15" s="15">
-        <v>-1.0849</v>
+        <v>-1.086</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -3289,13 +3289,13 @@
         <v>-1.03457424671424</v>
       </c>
       <c r="J16" s="15">
-        <v>-1.0257</v>
+        <v>-1.0263</v>
       </c>
       <c r="K16" s="14">
         <v>-0.9697</v>
       </c>
       <c r="L16" s="15">
-        <v>-1.0278</v>
+        <v>-1.0287</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:12">
@@ -3327,13 +3327,13 @@
         <v>-0.976615550953454</v>
       </c>
       <c r="J17" s="15">
-        <v>-0.9549</v>
+        <v>-0.955</v>
       </c>
       <c r="K17" s="14">
         <v>-0.8734</v>
       </c>
       <c r="L17" s="15">
-        <v>-0.9557</v>
+        <v>-0.9565</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="4:4">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -366,11 +366,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.000000"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -396,11 +396,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -412,10 +425,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -429,14 +465,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,30 +488,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -494,31 +524,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -532,18 +539,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -553,132 +553,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -694,7 +568,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,7 +688,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,13 +706,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,7 +718,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,11 +759,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,26 +809,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,176 +839,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1089,7 +1089,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1_2" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1_1" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1099,7 +1099,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1119,7 +1119,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1129,7 +1129,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1_1" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_5" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1139,7 +1139,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_5" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1_2" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1149,7 +1149,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1169,7 +1169,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1179,7 +1179,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -1199,7 +1199,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="res_2" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="1" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" dataBound="0"/>
@@ -2670,7 +2670,7 @@
   <dimension ref="A1:M16384"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2757,7 +2757,7 @@
         <v>-1.16397647235087</v>
       </c>
       <c r="J2" s="15">
-        <v>-1.1347</v>
+        <v>-1.1345</v>
       </c>
       <c r="K2" s="14">
         <v>-1.1812</v>
@@ -2795,7 +2795,7 @@
         <v>-1.17477787803301</v>
       </c>
       <c r="J3" s="15">
-        <v>-1.157</v>
+        <v>-1.1567</v>
       </c>
       <c r="K3" s="14">
         <v>-1.2007</v>
@@ -2833,7 +2833,7 @@
         <v>-1.186285248709</v>
       </c>
       <c r="J4" s="15">
-        <v>-1.1747</v>
+        <v>-1.1741</v>
       </c>
       <c r="K4" s="14">
         <v>-1.2173</v>
@@ -2871,7 +2871,7 @@
         <v>-1.195119714459</v>
       </c>
       <c r="J5" s="15">
-        <v>-1.1895</v>
+        <v>-1.1887</v>
       </c>
       <c r="K5" s="14">
         <v>-1.2304</v>
@@ -2909,7 +2909,7 @@
         <v>-1.20178949653999</v>
       </c>
       <c r="J6" s="15">
-        <v>-1.201</v>
+        <v>-1.1999</v>
       </c>
       <c r="K6" s="14">
         <v>-1.2394</v>
@@ -2947,7 +2947,7 @@
         <v>-1.20503708359101</v>
       </c>
       <c r="J7" s="15">
-        <v>-1.2064</v>
+        <v>-1.2044</v>
       </c>
       <c r="K7" s="14">
         <v>-1.2435</v>
@@ -2985,7 +2985,7 @@
         <v>-1.20522788652559</v>
       </c>
       <c r="J8" s="15">
-        <v>-1.2083</v>
+        <v>-1.2062</v>
       </c>
       <c r="K8" s="14">
         <v>0</v>
@@ -3023,7 +3023,7 @@
         <v>-1.20415879448197</v>
       </c>
       <c r="J9" s="15">
-        <v>-1.2083</v>
+        <v>-1.2064</v>
       </c>
       <c r="K9" s="14">
         <v>-1.2419</v>
@@ -3061,7 +3061,7 @@
         <v>-1.19905021115693</v>
       </c>
       <c r="J10" s="15">
-        <v>-1.2093</v>
+        <v>-1.207</v>
       </c>
       <c r="K10" s="14">
         <v>-1.2337</v>
@@ -3099,7 +3099,7 @@
         <v>-1.18886879867486</v>
       </c>
       <c r="J11" s="15">
-        <v>-1.2008</v>
+        <v>-1.198</v>
       </c>
       <c r="K11" s="14">
         <v>-1.2176</v>
@@ -3137,7 +3137,7 @@
         <v>-1.17288753288264</v>
       </c>
       <c r="J12" s="15">
-        <v>-1.1851</v>
+        <v>-1.1817</v>
       </c>
       <c r="K12" s="14">
         <v>-1.1925</v>
@@ -3175,7 +3175,7 @@
         <v>-1.15031135712294</v>
       </c>
       <c r="J13" s="15">
-        <v>-1.1611</v>
+        <v>-1.157</v>
       </c>
       <c r="K13" s="14">
         <v>-1.1569</v>
@@ -3213,7 +3213,7 @@
         <v>-1.12032018073023</v>
       </c>
       <c r="J14" s="15">
-        <v>-1.1276</v>
+        <v>-1.1227</v>
       </c>
       <c r="K14" s="14">
         <v>-1.1092</v>
@@ -3251,7 +3251,7 @@
         <v>-1.08214417160377</v>
       </c>
       <c r="J15" s="15">
-        <v>-1.0832</v>
+        <v>-1.0774</v>
       </c>
       <c r="K15" s="14">
         <v>-1.0475</v>
@@ -3289,7 +3289,7 @@
         <v>-1.03457424671424</v>
       </c>
       <c r="J16" s="15">
-        <v>-1.0263</v>
+        <v>-1.0194</v>
       </c>
       <c r="K16" s="14">
         <v>-0.9697</v>
@@ -3327,7 +3327,7 @@
         <v>-0.976615550953454</v>
       </c>
       <c r="J17" s="15">
-        <v>-0.955</v>
+        <v>-0.947</v>
       </c>
       <c r="K17" s="14">
         <v>-0.8734</v>
